--- a/new压力温度.xlsx
+++ b/new压力温度.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14775" windowHeight="4050"/>
-  </bookViews>
-  <sheets>
-    <sheet name="pt_rating" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="pt_rating" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>PT_ID</t>
   </si>
@@ -100,7 +100,7 @@
     <t>P10C7</t>
   </si>
   <si>
-    <t>2016/07/20</t>
+    <t>2016/07/21</t>
   </si>
   <si>
     <t>P10S7</t>
@@ -123,27 +123,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,17 +152,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -457,17 +450,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
@@ -553,1268 +547,1266 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>39</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>38</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>40</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>50</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>41</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>38</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.75</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>42</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.74</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>43</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.63</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>44</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>150</v>
       </c>
-      <c r="F7">
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8">
+      <c r="A8" t="n">
         <v>45</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>38</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9">
+      <c r="A9" t="n">
         <v>46</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>50</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1.56</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10">
+      <c r="A10" t="n">
         <v>47</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1.5</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11">
+      <c r="A11" t="n">
         <v>48</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1.48</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12">
+      <c r="A12" t="n">
         <v>49</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>100</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>1.39</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13">
+      <c r="A13" t="n">
         <v>50</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>38</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>2.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14">
+      <c r="A14" t="n">
         <v>51</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>2.46</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15">
+      <c r="A15" t="n">
         <v>52</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
         <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>100</v>
       </c>
-      <c r="F15">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16">
+      <c r="A16" t="n">
         <v>53</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>150</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>2.1</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="n">
         <v>54</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>200</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>1.91</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="n">
         <v>55</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>38</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="n">
         <v>56</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>50</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="n">
         <v>57</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
         <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>38</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="n">
         <v>58</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
         <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>50</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="n">
         <v>59</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
         <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>38</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.75</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="n">
         <v>60</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>50</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.74</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="n">
         <v>61</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
         <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>100</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.63</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="n">
         <v>62</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>150</v>
       </c>
-      <c r="F25">
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="n">
         <v>63</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
         <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>38</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>1.6</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="n">
         <v>64</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>50</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>1.56</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="n">
         <v>65</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
         <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>38</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>1.5</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="n">
         <v>66</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>1.48</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="n">
         <v>67</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
         <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>100</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>1.39</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="n">
         <v>68</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
         <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>38</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>2.5</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="n">
         <v>69</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
         <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>50</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>2.46</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="n">
         <v>70</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
         <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>100</v>
       </c>
-      <c r="F33">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="n">
         <v>71</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
         <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>150</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>2.1</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="n">
         <v>72</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
         <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>200</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>1.91</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="n">
         <v>73</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
         <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>38</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="n">
         <v>74</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
         <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>50</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/new压力温度.xlsx
+++ b/new压力温度.xlsx
@@ -100,7 +100,7 @@
     <t>P6C1</t>
   </si>
   <si>
-    <t>2016/07/22</t>
+    <t>2016/07/25</t>
   </si>
   <si>
     <t>P6L1</t>
@@ -875,13 +875,13 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="n">
-        <v>75</v>
+        <v>546</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="n">
-        <v>76</v>
+        <v>547</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="n">
-        <v>77</v>
+        <v>548</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="n">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="n">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="n">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="n">
-        <v>81</v>
+        <v>552</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>552</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="n">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="n">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="n">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="n">
-        <v>85</v>
+        <v>556</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>556</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="n">
-        <v>86</v>
+        <v>557</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>86</v>
+        <v>557</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="n">
-        <v>87</v>
+        <v>558</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>87</v>
+        <v>558</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="n">
-        <v>88</v>
+        <v>559</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>559</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="n">
-        <v>89</v>
+        <v>560</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>560</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="n">
-        <v>90</v>
+        <v>561</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>90</v>
+        <v>561</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="n">
-        <v>91</v>
+        <v>562</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>91</v>
+        <v>562</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="n">
-        <v>92</v>
+        <v>563</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>92</v>
+        <v>563</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="n">
-        <v>93</v>
+        <v>564</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>93</v>
+        <v>564</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="n">
-        <v>94</v>
+        <v>565</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>94</v>
+        <v>565</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="n">
-        <v>95</v>
+        <v>566</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>95</v>
+        <v>566</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="n">
-        <v>96</v>
+        <v>567</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>96</v>
+        <v>567</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="n">
-        <v>97</v>
+        <v>568</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>568</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="n">
-        <v>98</v>
+        <v>569</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>98</v>
+        <v>569</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="n">
-        <v>99</v>
+        <v>570</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>99</v>
+        <v>570</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="n">
-        <v>100</v>
+        <v>571</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>571</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>572</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>101</v>
+        <v>572</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="n">
-        <v>102</v>
+        <v>573</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>102</v>
+        <v>573</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="n">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="n">
-        <v>104</v>
+        <v>575</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>104</v>
+        <v>575</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="n">
-        <v>105</v>
+        <v>576</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>105</v>
+        <v>576</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="n">
-        <v>106</v>
+        <v>577</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>106</v>
+        <v>577</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="n">
-        <v>107</v>
+        <v>578</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>107</v>
+        <v>578</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="n">
-        <v>108</v>
+        <v>579</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>108</v>
+        <v>579</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="n">
-        <v>109</v>
+        <v>580</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>109</v>
+        <v>580</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="n">
-        <v>110</v>
+        <v>581</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>110</v>
+        <v>581</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="n">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="n">
-        <v>112</v>
+        <v>583</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>112</v>
+        <v>583</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="n">
-        <v>113</v>
+        <v>584</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>113</v>
+        <v>584</v>
       </c>
       <c r="D40" t="s">
         <v>37</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="n">
-        <v>114</v>
+        <v>585</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>114</v>
+        <v>585</v>
       </c>
       <c r="D41" t="s">
         <v>37</v>
@@ -2275,13 +2275,13 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="n">
-        <v>115</v>
+        <v>586</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>586</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="n">
-        <v>116</v>
+        <v>587</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>116</v>
+        <v>587</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="n">
-        <v>117</v>
+        <v>588</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>117</v>
+        <v>588</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="n">
-        <v>118</v>
+        <v>589</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>118</v>
+        <v>589</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="n">
-        <v>119</v>
+        <v>590</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>119</v>
+        <v>590</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="n">
-        <v>120</v>
+        <v>591</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>120</v>
+        <v>591</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="n">
-        <v>121</v>
+        <v>592</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>121</v>
+        <v>592</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="n">
-        <v>122</v>
+        <v>593</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>122</v>
+        <v>593</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="n">
-        <v>123</v>
+        <v>594</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>123</v>
+        <v>594</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="n">
-        <v>124</v>
+        <v>595</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>124</v>
+        <v>595</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="n">
-        <v>125</v>
+        <v>596</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>125</v>
+        <v>596</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="n">
-        <v>126</v>
+        <v>597</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>126</v>
+        <v>597</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -2695,13 +2695,13 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="n">
-        <v>127</v>
+        <v>598</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>127</v>
+        <v>598</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="n">
-        <v>128</v>
+        <v>599</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>128</v>
+        <v>599</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="n">
-        <v>129</v>
+        <v>600</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>129</v>
+        <v>600</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="n">
-        <v>130</v>
+        <v>601</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>130</v>
+        <v>601</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="n">
-        <v>131</v>
+        <v>602</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>131</v>
+        <v>602</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="n">
-        <v>132</v>
+        <v>603</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>132</v>
+        <v>603</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="n">
-        <v>133</v>
+        <v>604</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>133</v>
+        <v>604</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="n">
-        <v>134</v>
+        <v>605</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>134</v>
+        <v>605</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>
@@ -2975,13 +2975,13 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" t="n">
-        <v>135</v>
+        <v>606</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>135</v>
+        <v>606</v>
       </c>
       <c r="D62" t="s">
         <v>44</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" t="n">
-        <v>136</v>
+        <v>607</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>136</v>
+        <v>607</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
@@ -3045,13 +3045,13 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="n">
-        <v>137</v>
+        <v>608</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>137</v>
+        <v>608</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" t="n">
-        <v>138</v>
+        <v>609</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>138</v>
+        <v>609</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
@@ -3115,13 +3115,13 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" t="n">
-        <v>139</v>
+        <v>610</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>139</v>
+        <v>610</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="n">
-        <v>140</v>
+        <v>611</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>140</v>
+        <v>611</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" t="n">
-        <v>141</v>
+        <v>612</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>141</v>
+        <v>612</v>
       </c>
       <c r="D68" t="s">
         <v>46</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" t="n">
-        <v>142</v>
+        <v>613</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>142</v>
+        <v>613</v>
       </c>
       <c r="D69" t="s">
         <v>47</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" t="n">
-        <v>143</v>
+        <v>614</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>143</v>
+        <v>614</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" t="n">
-        <v>144</v>
+        <v>615</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>144</v>
+        <v>615</v>
       </c>
       <c r="D71" t="s">
         <v>47</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" t="n">
-        <v>145</v>
+        <v>616</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>145</v>
+        <v>616</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" t="n">
-        <v>146</v>
+        <v>617</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>146</v>
+        <v>617</v>
       </c>
       <c r="D73" t="s">
         <v>48</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" t="n">
-        <v>147</v>
+        <v>618</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>147</v>
+        <v>618</v>
       </c>
       <c r="D74" t="s">
         <v>48</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" t="n">
-        <v>148</v>
+        <v>619</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>148</v>
+        <v>619</v>
       </c>
       <c r="D75" t="s">
         <v>48</v>
@@ -3465,13 +3465,13 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" t="n">
-        <v>149</v>
+        <v>620</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>149</v>
+        <v>620</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" t="n">
-        <v>150</v>
+        <v>621</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>150</v>
+        <v>621</v>
       </c>
       <c r="D77" t="s">
         <v>49</v>
@@ -3535,13 +3535,13 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" t="n">
-        <v>151</v>
+        <v>622</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>151</v>
+        <v>622</v>
       </c>
       <c r="D78" t="s">
         <v>49</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" t="n">
-        <v>152</v>
+        <v>623</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>152</v>
+        <v>623</v>
       </c>
       <c r="D79" t="s">
         <v>49</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" t="n">
-        <v>153</v>
+        <v>624</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>153</v>
+        <v>624</v>
       </c>
       <c r="D80" t="s">
         <v>49</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" t="n">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="D81" t="s">
         <v>49</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" t="n">
-        <v>155</v>
+        <v>626</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>155</v>
+        <v>626</v>
       </c>
       <c r="D82" t="s">
         <v>50</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" t="n">
-        <v>156</v>
+        <v>627</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>156</v>
+        <v>627</v>
       </c>
       <c r="D83" t="s">
         <v>50</v>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" t="n">
-        <v>157</v>
+        <v>628</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>157</v>
+        <v>628</v>
       </c>
       <c r="D84" t="s">
         <v>50</v>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" t="n">
-        <v>158</v>
+        <v>629</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>158</v>
+        <v>629</v>
       </c>
       <c r="D85" t="s">
         <v>50</v>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" t="n">
-        <v>159</v>
+        <v>630</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>159</v>
+        <v>630</v>
       </c>
       <c r="D86" t="s">
         <v>50</v>
@@ -3850,13 +3850,13 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" t="n">
-        <v>160</v>
+        <v>631</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>160</v>
+        <v>631</v>
       </c>
       <c r="D87" t="s">
         <v>50</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" t="n">
-        <v>161</v>
+        <v>632</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>161</v>
+        <v>632</v>
       </c>
       <c r="D88" t="s">
         <v>51</v>
@@ -3920,13 +3920,13 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" t="n">
-        <v>162</v>
+        <v>633</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>162</v>
+        <v>633</v>
       </c>
       <c r="D89" t="s">
         <v>51</v>
@@ -3955,13 +3955,13 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" t="n">
-        <v>163</v>
+        <v>634</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>163</v>
+        <v>634</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -3990,13 +3990,13 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" t="n">
-        <v>164</v>
+        <v>635</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>164</v>
+        <v>635</v>
       </c>
       <c r="D91" t="s">
         <v>52</v>
@@ -4025,13 +4025,13 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" t="n">
-        <v>165</v>
+        <v>636</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>165</v>
+        <v>636</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" t="n">
-        <v>166</v>
+        <v>637</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>166</v>
+        <v>637</v>
       </c>
       <c r="D93" t="s">
         <v>52</v>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" t="n">
-        <v>167</v>
+        <v>638</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>167</v>
+        <v>638</v>
       </c>
       <c r="D94" t="s">
         <v>53</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" t="n">
-        <v>168</v>
+        <v>639</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>168</v>
+        <v>639</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
@@ -4165,13 +4165,13 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" t="n">
-        <v>169</v>
+        <v>640</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>169</v>
+        <v>640</v>
       </c>
       <c r="D96" t="s">
         <v>53</v>
@@ -4200,13 +4200,13 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" t="n">
-        <v>170</v>
+        <v>641</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>170</v>
+        <v>641</v>
       </c>
       <c r="D97" t="s">
         <v>54</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" t="n">
-        <v>171</v>
+        <v>642</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>171</v>
+        <v>642</v>
       </c>
       <c r="D98" t="s">
         <v>54</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" t="n">
-        <v>172</v>
+        <v>643</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>172</v>
+        <v>643</v>
       </c>
       <c r="D99" t="s">
         <v>55</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" t="n">
-        <v>173</v>
+        <v>644</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>173</v>
+        <v>644</v>
       </c>
       <c r="D100" t="s">
         <v>55</v>
@@ -4340,13 +4340,13 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" t="n">
-        <v>174</v>
+        <v>645</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>174</v>
+        <v>645</v>
       </c>
       <c r="D101" t="s">
         <v>55</v>
@@ -4375,13 +4375,13 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" t="n">
-        <v>175</v>
+        <v>646</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>175</v>
+        <v>646</v>
       </c>
       <c r="D102" t="s">
         <v>55</v>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" t="n">
-        <v>176</v>
+        <v>647</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>176</v>
+        <v>647</v>
       </c>
       <c r="D103" t="s">
         <v>56</v>
@@ -4445,13 +4445,13 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" t="n">
-        <v>177</v>
+        <v>648</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>177</v>
+        <v>648</v>
       </c>
       <c r="D104" t="s">
         <v>56</v>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" t="n">
-        <v>178</v>
+        <v>649</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>178</v>
+        <v>649</v>
       </c>
       <c r="D105" t="s">
         <v>56</v>
@@ -4515,13 +4515,13 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" t="n">
-        <v>179</v>
+        <v>650</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>179</v>
+        <v>650</v>
       </c>
       <c r="D106" t="s">
         <v>56</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" t="n">
-        <v>180</v>
+        <v>651</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>180</v>
+        <v>651</v>
       </c>
       <c r="D107" t="s">
         <v>56</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" t="n">
-        <v>181</v>
+        <v>652</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>181</v>
+        <v>652</v>
       </c>
       <c r="D108" t="s">
         <v>56</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" t="n">
-        <v>182</v>
+        <v>653</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>182</v>
+        <v>653</v>
       </c>
       <c r="D109" t="s">
         <v>56</v>
@@ -4655,13 +4655,13 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" t="n">
-        <v>183</v>
+        <v>654</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>183</v>
+        <v>654</v>
       </c>
       <c r="D110" t="s">
         <v>56</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" t="n">
-        <v>184</v>
+        <v>655</v>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>184</v>
+        <v>655</v>
       </c>
       <c r="D111" t="s">
         <v>57</v>
@@ -4725,13 +4725,13 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" t="n">
-        <v>185</v>
+        <v>656</v>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>185</v>
+        <v>656</v>
       </c>
       <c r="D112" t="s">
         <v>57</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" t="n">
-        <v>186</v>
+        <v>657</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>186</v>
+        <v>657</v>
       </c>
       <c r="D113" t="s">
         <v>57</v>
@@ -4795,13 +4795,13 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" t="n">
-        <v>187</v>
+        <v>658</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>187</v>
+        <v>658</v>
       </c>
       <c r="D114" t="s">
         <v>57</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" t="n">
-        <v>188</v>
+        <v>659</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>188</v>
+        <v>659</v>
       </c>
       <c r="D115" t="s">
         <v>58</v>
@@ -4865,13 +4865,13 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" t="n">
-        <v>189</v>
+        <v>660</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>189</v>
+        <v>660</v>
       </c>
       <c r="D116" t="s">
         <v>58</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" t="n">
-        <v>190</v>
+        <v>661</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>661</v>
       </c>
       <c r="D117" t="s">
         <v>58</v>
@@ -4935,13 +4935,13 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" t="n">
-        <v>191</v>
+        <v>662</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>191</v>
+        <v>662</v>
       </c>
       <c r="D118" t="s">
         <v>59</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" t="n">
-        <v>192</v>
+        <v>663</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>192</v>
+        <v>663</v>
       </c>
       <c r="D119" t="s">
         <v>59</v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" t="n">
-        <v>193</v>
+        <v>664</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>193</v>
+        <v>664</v>
       </c>
       <c r="D120" t="s">
         <v>59</v>
@@ -5040,13 +5040,13 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" t="n">
-        <v>194</v>
+        <v>665</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>194</v>
+        <v>665</v>
       </c>
       <c r="D121" t="s">
         <v>59</v>
@@ -5075,13 +5075,13 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" t="n">
-        <v>195</v>
+        <v>666</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>195</v>
+        <v>666</v>
       </c>
       <c r="D122" t="s">
         <v>60</v>
@@ -5110,13 +5110,13 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" t="n">
-        <v>196</v>
+        <v>667</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>196</v>
+        <v>667</v>
       </c>
       <c r="D123" t="s">
         <v>60</v>
@@ -5145,13 +5145,13 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" t="n">
-        <v>197</v>
+        <v>668</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>197</v>
+        <v>668</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
@@ -5180,13 +5180,13 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" t="n">
-        <v>198</v>
+        <v>669</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>198</v>
+        <v>669</v>
       </c>
       <c r="D125" t="s">
         <v>61</v>
@@ -5215,13 +5215,13 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" t="n">
-        <v>199</v>
+        <v>670</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>199</v>
+        <v>670</v>
       </c>
       <c r="D126" t="s">
         <v>61</v>
@@ -5250,13 +5250,13 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" t="n">
-        <v>200</v>
+        <v>671</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>200</v>
+        <v>671</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
@@ -5285,13 +5285,13 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" t="n">
-        <v>201</v>
+        <v>672</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>201</v>
+        <v>672</v>
       </c>
       <c r="D128" t="s">
         <v>62</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" t="n">
-        <v>202</v>
+        <v>673</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>202</v>
+        <v>673</v>
       </c>
       <c r="D129" t="s">
         <v>62</v>
@@ -5355,13 +5355,13 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" t="n">
-        <v>203</v>
+        <v>674</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>203</v>
+        <v>674</v>
       </c>
       <c r="D130" t="s">
         <v>62</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" t="n">
-        <v>204</v>
+        <v>675</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>204</v>
+        <v>675</v>
       </c>
       <c r="D131" t="s">
         <v>63</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" t="n">
-        <v>205</v>
+        <v>676</v>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>205</v>
+        <v>676</v>
       </c>
       <c r="D132" t="s">
         <v>63</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" t="n">
-        <v>206</v>
+        <v>677</v>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>206</v>
+        <v>677</v>
       </c>
       <c r="D133" t="s">
         <v>64</v>
@@ -5495,13 +5495,13 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" t="n">
-        <v>207</v>
+        <v>678</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>207</v>
+        <v>678</v>
       </c>
       <c r="D134" t="s">
         <v>64</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" t="n">
-        <v>208</v>
+        <v>679</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>208</v>
+        <v>679</v>
       </c>
       <c r="D135" t="s">
         <v>64</v>
@@ -5565,13 +5565,13 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" t="n">
-        <v>209</v>
+        <v>680</v>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>209</v>
+        <v>680</v>
       </c>
       <c r="D136" t="s">
         <v>65</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" t="n">
-        <v>210</v>
+        <v>681</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>210</v>
+        <v>681</v>
       </c>
       <c r="D137" t="s">
         <v>65</v>
@@ -5635,13 +5635,13 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" t="n">
-        <v>211</v>
+        <v>682</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>211</v>
+        <v>682</v>
       </c>
       <c r="D138" t="s">
         <v>65</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="139" spans="1:27">
       <c r="A139" t="n">
-        <v>212</v>
+        <v>683</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>212</v>
+        <v>683</v>
       </c>
       <c r="D139" t="s">
         <v>66</v>
@@ -5705,13 +5705,13 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" t="n">
-        <v>213</v>
+        <v>684</v>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>213</v>
+        <v>684</v>
       </c>
       <c r="D140" t="s">
         <v>66</v>
@@ -5740,13 +5740,13 @@
     </row>
     <row r="141" spans="1:27">
       <c r="A141" t="n">
-        <v>214</v>
+        <v>685</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>214</v>
+        <v>685</v>
       </c>
       <c r="D141" t="s">
         <v>67</v>
@@ -5775,13 +5775,13 @@
     </row>
     <row r="142" spans="1:27">
       <c r="A142" t="n">
-        <v>215</v>
+        <v>686</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>215</v>
+        <v>686</v>
       </c>
       <c r="D142" t="s">
         <v>67</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="143" spans="1:27">
       <c r="A143" t="n">
-        <v>216</v>
+        <v>687</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
-        <v>216</v>
+        <v>687</v>
       </c>
       <c r="D143" t="s">
         <v>68</v>
@@ -5845,13 +5845,13 @@
     </row>
     <row r="144" spans="1:27">
       <c r="A144" t="n">
-        <v>217</v>
+        <v>688</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>217</v>
+        <v>688</v>
       </c>
       <c r="D144" t="s">
         <v>68</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="145" spans="1:27">
       <c r="A145" t="n">
-        <v>218</v>
+        <v>689</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>218</v>
+        <v>689</v>
       </c>
       <c r="D145" t="s">
         <v>69</v>
@@ -5915,13 +5915,13 @@
     </row>
     <row r="146" spans="1:27">
       <c r="A146" t="n">
-        <v>219</v>
+        <v>690</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>219</v>
+        <v>690</v>
       </c>
       <c r="D146" t="s">
         <v>69</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="147" spans="1:27">
       <c r="A147" t="n">
-        <v>220</v>
+        <v>691</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>220</v>
+        <v>691</v>
       </c>
       <c r="D147" t="s">
         <v>70</v>
@@ -5985,13 +5985,13 @@
     </row>
     <row r="148" spans="1:27">
       <c r="A148" t="n">
-        <v>221</v>
+        <v>692</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
-        <v>221</v>
+        <v>692</v>
       </c>
       <c r="D148" t="s">
         <v>70</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="149" spans="1:27">
       <c r="A149" t="n">
-        <v>222</v>
+        <v>693</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>222</v>
+        <v>693</v>
       </c>
       <c r="D149" t="s">
         <v>71</v>
@@ -6055,13 +6055,13 @@
     </row>
     <row r="150" spans="1:27">
       <c r="A150" t="n">
-        <v>223</v>
+        <v>694</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" t="n">
-        <v>223</v>
+        <v>694</v>
       </c>
       <c r="D150" t="s">
         <v>71</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="151" spans="1:27">
       <c r="A151" t="n">
-        <v>224</v>
+        <v>695</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>224</v>
+        <v>695</v>
       </c>
       <c r="D151" t="s">
         <v>72</v>
@@ -6125,13 +6125,13 @@
     </row>
     <row r="152" spans="1:27">
       <c r="A152" t="n">
-        <v>225</v>
+        <v>696</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>225</v>
+        <v>696</v>
       </c>
       <c r="D152" t="s">
         <v>72</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="153" spans="1:27">
       <c r="A153" t="n">
-        <v>226</v>
+        <v>697</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>226</v>
+        <v>697</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
@@ -6195,13 +6195,13 @@
     </row>
     <row r="154" spans="1:27">
       <c r="A154" t="n">
-        <v>227</v>
+        <v>698</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>227</v>
+        <v>698</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="155" spans="1:27">
       <c r="A155" t="n">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="D155" t="s">
         <v>74</v>
@@ -6265,13 +6265,13 @@
     </row>
     <row r="156" spans="1:27">
       <c r="A156" t="n">
-        <v>229</v>
+        <v>700</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>229</v>
+        <v>700</v>
       </c>
       <c r="D156" t="s">
         <v>74</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="157" spans="1:27">
       <c r="A157" t="n">
-        <v>230</v>
+        <v>701</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>230</v>
+        <v>701</v>
       </c>
       <c r="D157" t="s">
         <v>74</v>
@@ -6335,13 +6335,13 @@
     </row>
     <row r="158" spans="1:27">
       <c r="A158" t="n">
-        <v>231</v>
+        <v>702</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>231</v>
+        <v>702</v>
       </c>
       <c r="D158" t="s">
         <v>75</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="159" spans="1:27">
       <c r="A159" t="n">
-        <v>232</v>
+        <v>703</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>232</v>
+        <v>703</v>
       </c>
       <c r="D159" t="s">
         <v>75</v>
@@ -6405,13 +6405,13 @@
     </row>
     <row r="160" spans="1:27">
       <c r="A160" t="n">
-        <v>233</v>
+        <v>704</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>233</v>
+        <v>704</v>
       </c>
       <c r="D160" t="s">
         <v>75</v>
@@ -6440,13 +6440,13 @@
     </row>
     <row r="161" spans="1:27">
       <c r="A161" t="n">
-        <v>234</v>
+        <v>705</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>234</v>
+        <v>705</v>
       </c>
       <c r="D161" t="s">
         <v>75</v>
@@ -6475,13 +6475,13 @@
     </row>
     <row r="162" spans="1:27">
       <c r="A162" t="n">
-        <v>235</v>
+        <v>706</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162" t="n">
-        <v>235</v>
+        <v>706</v>
       </c>
       <c r="D162" t="s">
         <v>75</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="163" spans="1:27">
       <c r="A163" t="n">
-        <v>236</v>
+        <v>707</v>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>236</v>
+        <v>707</v>
       </c>
       <c r="D163" t="s">
         <v>76</v>
@@ -6545,13 +6545,13 @@
     </row>
     <row r="164" spans="1:27">
       <c r="A164" t="n">
-        <v>237</v>
+        <v>708</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>237</v>
+        <v>708</v>
       </c>
       <c r="D164" t="s">
         <v>76</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="165" spans="1:27">
       <c r="A165" t="n">
-        <v>238</v>
+        <v>709</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>238</v>
+        <v>709</v>
       </c>
       <c r="D165" t="s">
         <v>76</v>
@@ -6615,13 +6615,13 @@
     </row>
     <row r="166" spans="1:27">
       <c r="A166" t="n">
-        <v>239</v>
+        <v>710</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>239</v>
+        <v>710</v>
       </c>
       <c r="D166" t="s">
         <v>76</v>
@@ -6650,13 +6650,13 @@
     </row>
     <row r="167" spans="1:27">
       <c r="A167" t="n">
-        <v>240</v>
+        <v>711</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>240</v>
+        <v>711</v>
       </c>
       <c r="D167" t="s">
         <v>76</v>
@@ -6685,13 +6685,13 @@
     </row>
     <row r="168" spans="1:27">
       <c r="A168" t="n">
-        <v>241</v>
+        <v>712</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>241</v>
+        <v>712</v>
       </c>
       <c r="D168" t="s">
         <v>77</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="169" spans="1:27">
       <c r="A169" t="n">
-        <v>242</v>
+        <v>713</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>242</v>
+        <v>713</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -6755,13 +6755,13 @@
     </row>
     <row r="170" spans="1:27">
       <c r="A170" t="n">
-        <v>243</v>
+        <v>714</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>243</v>
+        <v>714</v>
       </c>
       <c r="D170" t="s">
         <v>78</v>
@@ -6790,13 +6790,13 @@
     </row>
     <row r="171" spans="1:27">
       <c r="A171" t="n">
-        <v>244</v>
+        <v>715</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" t="n">
-        <v>244</v>
+        <v>715</v>
       </c>
       <c r="D171" t="s">
         <v>78</v>
@@ -6825,13 +6825,13 @@
     </row>
     <row r="172" spans="1:27">
       <c r="A172" t="n">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="D172" t="s">
         <v>78</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="173" spans="1:27">
       <c r="A173" t="n">
-        <v>246</v>
+        <v>717</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>246</v>
+        <v>717</v>
       </c>
       <c r="D173" t="s">
         <v>79</v>
@@ -6895,13 +6895,13 @@
     </row>
     <row r="174" spans="1:27">
       <c r="A174" t="n">
-        <v>247</v>
+        <v>718</v>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>247</v>
+        <v>718</v>
       </c>
       <c r="D174" t="s">
         <v>79</v>
@@ -6930,13 +6930,13 @@
     </row>
     <row r="175" spans="1:27">
       <c r="A175" t="n">
-        <v>248</v>
+        <v>719</v>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
-        <v>248</v>
+        <v>719</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -6965,13 +6965,13 @@
     </row>
     <row r="176" spans="1:27">
       <c r="A176" t="n">
-        <v>249</v>
+        <v>720</v>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" t="n">
-        <v>249</v>
+        <v>720</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -7000,13 +7000,13 @@
     </row>
     <row r="177" spans="1:27">
       <c r="A177" t="n">
-        <v>250</v>
+        <v>721</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
-        <v>250</v>
+        <v>721</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -7035,13 +7035,13 @@
     </row>
     <row r="178" spans="1:27">
       <c r="A178" t="n">
-        <v>251</v>
+        <v>722</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
-        <v>251</v>
+        <v>722</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -7070,13 +7070,13 @@
     </row>
     <row r="179" spans="1:27">
       <c r="A179" t="n">
-        <v>252</v>
+        <v>723</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
-        <v>252</v>
+        <v>723</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -7105,13 +7105,13 @@
     </row>
     <row r="180" spans="1:27">
       <c r="A180" t="n">
-        <v>253</v>
+        <v>724</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C180" t="n">
-        <v>253</v>
+        <v>724</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -7140,13 +7140,13 @@
     </row>
     <row r="181" spans="1:27">
       <c r="A181" t="n">
-        <v>254</v>
+        <v>725</v>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C181" t="n">
-        <v>254</v>
+        <v>725</v>
       </c>
       <c r="D181" t="s">
         <v>81</v>
@@ -7175,13 +7175,13 @@
     </row>
     <row r="182" spans="1:27">
       <c r="A182" t="n">
-        <v>255</v>
+        <v>726</v>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C182" t="n">
-        <v>255</v>
+        <v>726</v>
       </c>
       <c r="D182" t="s">
         <v>81</v>
@@ -7210,13 +7210,13 @@
     </row>
     <row r="183" spans="1:27">
       <c r="A183" t="n">
-        <v>256</v>
+        <v>727</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183" t="n">
-        <v>256</v>
+        <v>727</v>
       </c>
       <c r="D183" t="s">
         <v>81</v>
@@ -7245,13 +7245,13 @@
     </row>
     <row r="184" spans="1:27">
       <c r="A184" t="n">
-        <v>257</v>
+        <v>728</v>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>257</v>
+        <v>728</v>
       </c>
       <c r="D184" t="s">
         <v>81</v>
@@ -7280,13 +7280,13 @@
     </row>
     <row r="185" spans="1:27">
       <c r="A185" t="n">
-        <v>258</v>
+        <v>729</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" t="n">
-        <v>258</v>
+        <v>729</v>
       </c>
       <c r="D185" t="s">
         <v>81</v>
@@ -7315,13 +7315,13 @@
     </row>
     <row r="186" spans="1:27">
       <c r="A186" t="n">
-        <v>259</v>
+        <v>730</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>259</v>
+        <v>730</v>
       </c>
       <c r="D186" t="s">
         <v>81</v>
@@ -7350,13 +7350,13 @@
     </row>
     <row r="187" spans="1:27">
       <c r="A187" t="n">
-        <v>260</v>
+        <v>731</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C187" t="n">
-        <v>260</v>
+        <v>731</v>
       </c>
       <c r="D187" t="s">
         <v>82</v>
@@ -7385,13 +7385,13 @@
     </row>
     <row r="188" spans="1:27">
       <c r="A188" t="n">
-        <v>261</v>
+        <v>732</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C188" t="n">
-        <v>261</v>
+        <v>732</v>
       </c>
       <c r="D188" t="s">
         <v>82</v>
@@ -7420,13 +7420,13 @@
     </row>
     <row r="189" spans="1:27">
       <c r="A189" t="n">
-        <v>262</v>
+        <v>733</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>262</v>
+        <v>733</v>
       </c>
       <c r="D189" t="s">
         <v>83</v>
@@ -7455,13 +7455,13 @@
     </row>
     <row r="190" spans="1:27">
       <c r="A190" t="n">
-        <v>263</v>
+        <v>734</v>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>263</v>
+        <v>734</v>
       </c>
       <c r="D190" t="s">
         <v>83</v>
@@ -7490,13 +7490,13 @@
     </row>
     <row r="191" spans="1:27">
       <c r="A191" t="n">
-        <v>264</v>
+        <v>735</v>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191" t="n">
-        <v>264</v>
+        <v>735</v>
       </c>
       <c r="D191" t="s">
         <v>83</v>
@@ -7525,13 +7525,13 @@
     </row>
     <row r="192" spans="1:27">
       <c r="A192" t="n">
-        <v>265</v>
+        <v>736</v>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>265</v>
+        <v>736</v>
       </c>
       <c r="D192" t="s">
         <v>84</v>
@@ -7560,13 +7560,13 @@
     </row>
     <row r="193" spans="1:27">
       <c r="A193" t="n">
-        <v>266</v>
+        <v>737</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193" t="n">
-        <v>266</v>
+        <v>737</v>
       </c>
       <c r="D193" t="s">
         <v>84</v>
@@ -7595,13 +7595,13 @@
     </row>
     <row r="194" spans="1:27">
       <c r="A194" t="n">
-        <v>267</v>
+        <v>738</v>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>267</v>
+        <v>738</v>
       </c>
       <c r="D194" t="s">
         <v>84</v>
@@ -7630,13 +7630,13 @@
     </row>
     <row r="195" spans="1:27">
       <c r="A195" t="n">
-        <v>268</v>
+        <v>739</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" t="n">
-        <v>268</v>
+        <v>739</v>
       </c>
       <c r="D195" t="s">
         <v>85</v>
@@ -7665,13 +7665,13 @@
     </row>
     <row r="196" spans="1:27">
       <c r="A196" t="n">
-        <v>269</v>
+        <v>740</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>269</v>
+        <v>740</v>
       </c>
       <c r="D196" t="s">
         <v>85</v>
@@ -7700,13 +7700,13 @@
     </row>
     <row r="197" spans="1:27">
       <c r="A197" t="n">
-        <v>270</v>
+        <v>741</v>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>270</v>
+        <v>741</v>
       </c>
       <c r="D197" t="s">
         <v>85</v>
@@ -7735,13 +7735,13 @@
     </row>
     <row r="198" spans="1:27">
       <c r="A198" t="n">
-        <v>271</v>
+        <v>742</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198" t="n">
-        <v>271</v>
+        <v>742</v>
       </c>
       <c r="D198" t="s">
         <v>86</v>
@@ -7770,13 +7770,13 @@
     </row>
     <row r="199" spans="1:27">
       <c r="A199" t="n">
-        <v>272</v>
+        <v>743</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199" t="n">
-        <v>272</v>
+        <v>743</v>
       </c>
       <c r="D199" t="s">
         <v>86</v>
@@ -7805,13 +7805,13 @@
     </row>
     <row r="200" spans="1:27">
       <c r="A200" t="n">
-        <v>273</v>
+        <v>744</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>273</v>
+        <v>744</v>
       </c>
       <c r="D200" t="s">
         <v>86</v>
@@ -7840,13 +7840,13 @@
     </row>
     <row r="201" spans="1:27">
       <c r="A201" t="n">
-        <v>274</v>
+        <v>745</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C201" t="n">
-        <v>274</v>
+        <v>745</v>
       </c>
       <c r="D201" t="s">
         <v>87</v>
@@ -7875,13 +7875,13 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" t="n">
-        <v>275</v>
+        <v>746</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" t="n">
-        <v>275</v>
+        <v>746</v>
       </c>
       <c r="D202" t="s">
         <v>87</v>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="203" spans="1:27">
       <c r="A203" t="n">
-        <v>276</v>
+        <v>747</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C203" t="n">
-        <v>276</v>
+        <v>747</v>
       </c>
       <c r="D203" t="s">
         <v>87</v>
@@ -7945,13 +7945,13 @@
     </row>
     <row r="204" spans="1:27">
       <c r="A204" t="n">
-        <v>277</v>
+        <v>748</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>277</v>
+        <v>748</v>
       </c>
       <c r="D204" t="s">
         <v>88</v>
@@ -7980,13 +7980,13 @@
     </row>
     <row r="205" spans="1:27">
       <c r="A205" t="n">
-        <v>278</v>
+        <v>749</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
-        <v>278</v>
+        <v>749</v>
       </c>
       <c r="D205" t="s">
         <v>88</v>
@@ -8015,13 +8015,13 @@
     </row>
     <row r="206" spans="1:27">
       <c r="A206" t="n">
-        <v>279</v>
+        <v>750</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>279</v>
+        <v>750</v>
       </c>
       <c r="D206" t="s">
         <v>88</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="207" spans="1:27">
       <c r="A207" t="n">
-        <v>280</v>
+        <v>751</v>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>280</v>
+        <v>751</v>
       </c>
       <c r="D207" t="s">
         <v>89</v>
@@ -8085,13 +8085,13 @@
     </row>
     <row r="208" spans="1:27">
       <c r="A208" t="n">
-        <v>281</v>
+        <v>752</v>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>281</v>
+        <v>752</v>
       </c>
       <c r="D208" t="s">
         <v>89</v>
@@ -8120,13 +8120,13 @@
     </row>
     <row r="209" spans="1:27">
       <c r="A209" t="n">
-        <v>282</v>
+        <v>753</v>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>282</v>
+        <v>753</v>
       </c>
       <c r="D209" t="s">
         <v>90</v>
@@ -8155,13 +8155,13 @@
     </row>
     <row r="210" spans="1:27">
       <c r="A210" t="n">
-        <v>283</v>
+        <v>754</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210" t="n">
-        <v>283</v>
+        <v>754</v>
       </c>
       <c r="D210" t="s">
         <v>90</v>
@@ -8190,13 +8190,13 @@
     </row>
     <row r="211" spans="1:27">
       <c r="A211" t="n">
-        <v>284</v>
+        <v>755</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C211" t="n">
-        <v>284</v>
+        <v>755</v>
       </c>
       <c r="D211" t="s">
         <v>90</v>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="212" spans="1:27">
       <c r="A212" t="n">
-        <v>285</v>
+        <v>756</v>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>285</v>
+        <v>756</v>
       </c>
       <c r="D212" t="s">
         <v>91</v>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="213" spans="1:27">
       <c r="A213" t="n">
-        <v>286</v>
+        <v>757</v>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>286</v>
+        <v>757</v>
       </c>
       <c r="D213" t="s">
         <v>91</v>
@@ -8295,13 +8295,13 @@
     </row>
     <row r="214" spans="1:27">
       <c r="A214" t="n">
-        <v>287</v>
+        <v>758</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>287</v>
+        <v>758</v>
       </c>
       <c r="D214" t="s">
         <v>91</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="215" spans="1:27">
       <c r="A215" t="n">
-        <v>288</v>
+        <v>759</v>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215" t="n">
-        <v>288</v>
+        <v>759</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
@@ -8365,13 +8365,13 @@
     </row>
     <row r="216" spans="1:27">
       <c r="A216" t="n">
-        <v>289</v>
+        <v>760</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C216" t="n">
-        <v>289</v>
+        <v>760</v>
       </c>
       <c r="D216" t="s">
         <v>91</v>
@@ -8400,13 +8400,13 @@
     </row>
     <row r="217" spans="1:27">
       <c r="A217" t="n">
-        <v>290</v>
+        <v>761</v>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>290</v>
+        <v>761</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -8435,13 +8435,13 @@
     </row>
     <row r="218" spans="1:27">
       <c r="A218" t="n">
-        <v>291</v>
+        <v>762</v>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>291</v>
+        <v>762</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -8470,13 +8470,13 @@
     </row>
     <row r="219" spans="1:27">
       <c r="A219" t="n">
-        <v>292</v>
+        <v>763</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C219" t="n">
-        <v>292</v>
+        <v>763</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -8505,13 +8505,13 @@
     </row>
     <row r="220" spans="1:27">
       <c r="A220" t="n">
-        <v>293</v>
+        <v>764</v>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>293</v>
+        <v>764</v>
       </c>
       <c r="D220" t="s">
         <v>93</v>
@@ -8540,13 +8540,13 @@
     </row>
     <row r="221" spans="1:27">
       <c r="A221" t="n">
-        <v>294</v>
+        <v>765</v>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C221" t="n">
-        <v>294</v>
+        <v>765</v>
       </c>
       <c r="D221" t="s">
         <v>93</v>
@@ -8575,13 +8575,13 @@
     </row>
     <row r="222" spans="1:27">
       <c r="A222" t="n">
-        <v>295</v>
+        <v>766</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C222" t="n">
-        <v>295</v>
+        <v>766</v>
       </c>
       <c r="D222" t="s">
         <v>93</v>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="223" spans="1:27">
       <c r="A223" t="n">
-        <v>296</v>
+        <v>767</v>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C223" t="n">
-        <v>296</v>
+        <v>767</v>
       </c>
       <c r="D223" t="s">
         <v>93</v>
@@ -8645,13 +8645,13 @@
     </row>
     <row r="224" spans="1:27">
       <c r="A224" t="n">
-        <v>297</v>
+        <v>768</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C224" t="n">
-        <v>297</v>
+        <v>768</v>
       </c>
       <c r="D224" t="s">
         <v>94</v>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="225" spans="1:27">
       <c r="A225" t="n">
-        <v>298</v>
+        <v>769</v>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>298</v>
+        <v>769</v>
       </c>
       <c r="D225" t="s">
         <v>94</v>
@@ -8715,13 +8715,13 @@
     </row>
     <row r="226" spans="1:27">
       <c r="A226" t="n">
-        <v>299</v>
+        <v>770</v>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>299</v>
+        <v>770</v>
       </c>
       <c r="D226" t="s">
         <v>94</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="227" spans="1:27">
       <c r="A227" t="n">
-        <v>300</v>
+        <v>771</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227" t="n">
-        <v>300</v>
+        <v>771</v>
       </c>
       <c r="D227" t="s">
         <v>95</v>
@@ -8785,13 +8785,13 @@
     </row>
     <row r="228" spans="1:27">
       <c r="A228" t="n">
-        <v>301</v>
+        <v>772</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228" t="n">
-        <v>301</v>
+        <v>772</v>
       </c>
       <c r="D228" t="s">
         <v>95</v>
@@ -8820,13 +8820,13 @@
     </row>
     <row r="229" spans="1:27">
       <c r="A229" t="n">
-        <v>302</v>
+        <v>773</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C229" t="n">
-        <v>302</v>
+        <v>773</v>
       </c>
       <c r="D229" t="s">
         <v>95</v>
@@ -8855,13 +8855,13 @@
     </row>
     <row r="230" spans="1:27">
       <c r="A230" t="n">
-        <v>303</v>
+        <v>774</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C230" t="n">
-        <v>303</v>
+        <v>774</v>
       </c>
       <c r="D230" t="s">
         <v>95</v>
@@ -8890,13 +8890,13 @@
     </row>
     <row r="231" spans="1:27">
       <c r="A231" t="n">
-        <v>304</v>
+        <v>775</v>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C231" t="n">
-        <v>304</v>
+        <v>775</v>
       </c>
       <c r="D231" t="s">
         <v>96</v>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="232" spans="1:27">
       <c r="A232" t="n">
-        <v>305</v>
+        <v>776</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C232" t="n">
-        <v>305</v>
+        <v>776</v>
       </c>
       <c r="D232" t="s">
         <v>96</v>
@@ -8960,13 +8960,13 @@
     </row>
     <row r="233" spans="1:27">
       <c r="A233" t="n">
-        <v>306</v>
+        <v>777</v>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>306</v>
+        <v>777</v>
       </c>
       <c r="D233" t="s">
         <v>96</v>
@@ -8995,13 +8995,13 @@
     </row>
     <row r="234" spans="1:27">
       <c r="A234" t="n">
-        <v>307</v>
+        <v>778</v>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C234" t="n">
-        <v>307</v>
+        <v>778</v>
       </c>
       <c r="D234" t="s">
         <v>97</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="235" spans="1:27">
       <c r="A235" t="n">
-        <v>308</v>
+        <v>779</v>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C235" t="n">
-        <v>308</v>
+        <v>779</v>
       </c>
       <c r="D235" t="s">
         <v>97</v>
@@ -9065,13 +9065,13 @@
     </row>
     <row r="236" spans="1:27">
       <c r="A236" t="n">
-        <v>309</v>
+        <v>780</v>
       </c>
       <c r="B236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C236" t="n">
-        <v>309</v>
+        <v>780</v>
       </c>
       <c r="D236" t="s">
         <v>98</v>
@@ -9100,13 +9100,13 @@
     </row>
     <row r="237" spans="1:27">
       <c r="A237" t="n">
-        <v>310</v>
+        <v>781</v>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C237" t="n">
-        <v>310</v>
+        <v>781</v>
       </c>
       <c r="D237" t="s">
         <v>98</v>
@@ -9135,13 +9135,13 @@
     </row>
     <row r="238" spans="1:27">
       <c r="A238" t="n">
-        <v>311</v>
+        <v>782</v>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C238" t="n">
-        <v>311</v>
+        <v>782</v>
       </c>
       <c r="D238" t="s">
         <v>98</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="239" spans="1:27">
       <c r="A239" t="n">
-        <v>312</v>
+        <v>783</v>
       </c>
       <c r="B239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C239" t="n">
-        <v>312</v>
+        <v>783</v>
       </c>
       <c r="D239" t="s">
         <v>98</v>
@@ -9205,13 +9205,13 @@
     </row>
     <row r="240" spans="1:27">
       <c r="A240" t="n">
-        <v>313</v>
+        <v>784</v>
       </c>
       <c r="B240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C240" t="n">
-        <v>313</v>
+        <v>784</v>
       </c>
       <c r="D240" t="s">
         <v>99</v>
@@ -9240,13 +9240,13 @@
     </row>
     <row r="241" spans="1:27">
       <c r="A241" t="n">
-        <v>314</v>
+        <v>785</v>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C241" t="n">
-        <v>314</v>
+        <v>785</v>
       </c>
       <c r="D241" t="s">
         <v>99</v>
@@ -9275,13 +9275,13 @@
     </row>
     <row r="242" spans="1:27">
       <c r="A242" t="n">
-        <v>315</v>
+        <v>786</v>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C242" t="n">
-        <v>315</v>
+        <v>786</v>
       </c>
       <c r="D242" t="s">
         <v>99</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="243" spans="1:27">
       <c r="A243" t="n">
-        <v>316</v>
+        <v>787</v>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C243" t="n">
-        <v>316</v>
+        <v>787</v>
       </c>
       <c r="D243" t="s">
         <v>100</v>
@@ -9345,13 +9345,13 @@
     </row>
     <row r="244" spans="1:27">
       <c r="A244" t="n">
-        <v>317</v>
+        <v>788</v>
       </c>
       <c r="B244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>317</v>
+        <v>788</v>
       </c>
       <c r="D244" t="s">
         <v>100</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="245" spans="1:27">
       <c r="A245" t="n">
-        <v>318</v>
+        <v>789</v>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C245" t="n">
-        <v>318</v>
+        <v>789</v>
       </c>
       <c r="D245" t="s">
         <v>101</v>
@@ -9415,13 +9415,13 @@
     </row>
     <row r="246" spans="1:27">
       <c r="A246" t="n">
-        <v>319</v>
+        <v>790</v>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C246" t="n">
-        <v>319</v>
+        <v>790</v>
       </c>
       <c r="D246" t="s">
         <v>101</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="247" spans="1:27">
       <c r="A247" t="n">
-        <v>320</v>
+        <v>791</v>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C247" t="n">
-        <v>320</v>
+        <v>791</v>
       </c>
       <c r="D247" t="s">
         <v>102</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="248" spans="1:27">
       <c r="A248" t="n">
-        <v>321</v>
+        <v>792</v>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C248" t="n">
-        <v>321</v>
+        <v>792</v>
       </c>
       <c r="D248" t="s">
         <v>102</v>
@@ -9520,13 +9520,13 @@
     </row>
     <row r="249" spans="1:27">
       <c r="A249" t="n">
-        <v>322</v>
+        <v>793</v>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>322</v>
+        <v>793</v>
       </c>
       <c r="D249" t="s">
         <v>103</v>
@@ -9555,13 +9555,13 @@
     </row>
     <row r="250" spans="1:27">
       <c r="A250" t="n">
-        <v>323</v>
+        <v>794</v>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>323</v>
+        <v>794</v>
       </c>
       <c r="D250" t="s">
         <v>103</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="251" spans="1:27">
       <c r="A251" t="n">
-        <v>324</v>
+        <v>795</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C251" t="n">
-        <v>324</v>
+        <v>795</v>
       </c>
       <c r="D251" t="s">
         <v>104</v>
@@ -9625,13 +9625,13 @@
     </row>
     <row r="252" spans="1:27">
       <c r="A252" t="n">
-        <v>325</v>
+        <v>796</v>
       </c>
       <c r="B252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C252" t="n">
-        <v>325</v>
+        <v>796</v>
       </c>
       <c r="D252" t="s">
         <v>104</v>
@@ -9660,13 +9660,13 @@
     </row>
     <row r="253" spans="1:27">
       <c r="A253" t="n">
-        <v>326</v>
+        <v>797</v>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C253" t="n">
-        <v>326</v>
+        <v>797</v>
       </c>
       <c r="D253" t="s">
         <v>104</v>
@@ -9695,13 +9695,13 @@
     </row>
     <row r="254" spans="1:27">
       <c r="A254" t="n">
-        <v>327</v>
+        <v>798</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C254" t="n">
-        <v>327</v>
+        <v>798</v>
       </c>
       <c r="D254" t="s">
         <v>104</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="255" spans="1:27">
       <c r="A255" t="n">
-        <v>328</v>
+        <v>799</v>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>328</v>
+        <v>799</v>
       </c>
       <c r="D255" t="s">
         <v>104</v>
@@ -9765,13 +9765,13 @@
     </row>
     <row r="256" spans="1:27">
       <c r="A256" t="n">
-        <v>329</v>
+        <v>800</v>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C256" t="n">
-        <v>329</v>
+        <v>800</v>
       </c>
       <c r="D256" t="s">
         <v>104</v>
@@ -9800,13 +9800,13 @@
     </row>
     <row r="257" spans="1:27">
       <c r="A257" t="n">
-        <v>330</v>
+        <v>801</v>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C257" t="n">
-        <v>330</v>
+        <v>801</v>
       </c>
       <c r="D257" t="s">
         <v>105</v>
@@ -9835,13 +9835,13 @@
     </row>
     <row r="258" spans="1:27">
       <c r="A258" t="n">
-        <v>331</v>
+        <v>802</v>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C258" t="n">
-        <v>331</v>
+        <v>802</v>
       </c>
       <c r="D258" t="s">
         <v>105</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="259" spans="1:27">
       <c r="A259" t="n">
-        <v>332</v>
+        <v>803</v>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C259" t="n">
-        <v>332</v>
+        <v>803</v>
       </c>
       <c r="D259" t="s">
         <v>106</v>
@@ -9905,13 +9905,13 @@
     </row>
     <row r="260" spans="1:27">
       <c r="A260" t="n">
-        <v>333</v>
+        <v>804</v>
       </c>
       <c r="B260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C260" t="n">
-        <v>333</v>
+        <v>804</v>
       </c>
       <c r="D260" t="s">
         <v>106</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="261" spans="1:27">
       <c r="A261" t="n">
-        <v>334</v>
+        <v>805</v>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C261" t="n">
-        <v>334</v>
+        <v>805</v>
       </c>
       <c r="D261" t="s">
         <v>107</v>
@@ -9975,13 +9975,13 @@
     </row>
     <row r="262" spans="1:27">
       <c r="A262" t="n">
-        <v>335</v>
+        <v>806</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C262" t="n">
-        <v>335</v>
+        <v>806</v>
       </c>
       <c r="D262" t="s">
         <v>107</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="263" spans="1:27">
       <c r="A263" t="n">
-        <v>336</v>
+        <v>807</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C263" t="n">
-        <v>336</v>
+        <v>807</v>
       </c>
       <c r="D263" t="s">
         <v>107</v>
@@ -10045,13 +10045,13 @@
     </row>
     <row r="264" spans="1:27">
       <c r="A264" t="n">
-        <v>337</v>
+        <v>808</v>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C264" t="n">
-        <v>337</v>
+        <v>808</v>
       </c>
       <c r="D264" t="s">
         <v>107</v>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="265" spans="1:27">
       <c r="A265" t="n">
-        <v>338</v>
+        <v>809</v>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C265" t="n">
-        <v>338</v>
+        <v>809</v>
       </c>
       <c r="D265" t="s">
         <v>107</v>
@@ -10115,13 +10115,13 @@
     </row>
     <row r="266" spans="1:27">
       <c r="A266" t="n">
-        <v>339</v>
+        <v>810</v>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C266" t="n">
-        <v>339</v>
+        <v>810</v>
       </c>
       <c r="D266" t="s">
         <v>108</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="267" spans="1:27">
       <c r="A267" t="n">
-        <v>340</v>
+        <v>811</v>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C267" t="n">
-        <v>340</v>
+        <v>811</v>
       </c>
       <c r="D267" t="s">
         <v>108</v>
@@ -10185,13 +10185,13 @@
     </row>
     <row r="268" spans="1:27">
       <c r="A268" t="n">
-        <v>341</v>
+        <v>812</v>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C268" t="n">
-        <v>341</v>
+        <v>812</v>
       </c>
       <c r="D268" t="s">
         <v>109</v>
@@ -10220,13 +10220,13 @@
     </row>
     <row r="269" spans="1:27">
       <c r="A269" t="n">
-        <v>342</v>
+        <v>813</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C269" t="n">
-        <v>342</v>
+        <v>813</v>
       </c>
       <c r="D269" t="s">
         <v>109</v>
@@ -10255,13 +10255,13 @@
     </row>
     <row r="270" spans="1:27">
       <c r="A270" t="n">
-        <v>343</v>
+        <v>814</v>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C270" t="n">
-        <v>343</v>
+        <v>814</v>
       </c>
       <c r="D270" t="s">
         <v>110</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="271" spans="1:27">
       <c r="A271" t="n">
-        <v>344</v>
+        <v>815</v>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C271" t="n">
-        <v>344</v>
+        <v>815</v>
       </c>
       <c r="D271" t="s">
         <v>110</v>
@@ -10325,13 +10325,13 @@
     </row>
     <row r="272" spans="1:27">
       <c r="A272" t="n">
-        <v>345</v>
+        <v>816</v>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C272" t="n">
-        <v>345</v>
+        <v>816</v>
       </c>
       <c r="D272" t="s">
         <v>110</v>
@@ -10360,13 +10360,13 @@
     </row>
     <row r="273" spans="1:27">
       <c r="A273" t="n">
-        <v>346</v>
+        <v>817</v>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C273" t="n">
-        <v>346</v>
+        <v>817</v>
       </c>
       <c r="D273" t="s">
         <v>111</v>
@@ -10395,13 +10395,13 @@
     </row>
     <row r="274" spans="1:27">
       <c r="A274" t="n">
-        <v>347</v>
+        <v>818</v>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C274" t="n">
-        <v>347</v>
+        <v>818</v>
       </c>
       <c r="D274" t="s">
         <v>111</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="275" spans="1:27">
       <c r="A275" t="n">
-        <v>348</v>
+        <v>819</v>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C275" t="n">
-        <v>348</v>
+        <v>819</v>
       </c>
       <c r="D275" t="s">
         <v>112</v>
@@ -10465,13 +10465,13 @@
     </row>
     <row r="276" spans="1:27">
       <c r="A276" t="n">
-        <v>349</v>
+        <v>820</v>
       </c>
       <c r="B276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C276" t="n">
-        <v>349</v>
+        <v>820</v>
       </c>
       <c r="D276" t="s">
         <v>112</v>
@@ -10500,13 +10500,13 @@
     </row>
     <row r="277" spans="1:27">
       <c r="A277" t="n">
-        <v>350</v>
+        <v>821</v>
       </c>
       <c r="B277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C277" t="n">
-        <v>350</v>
+        <v>821</v>
       </c>
       <c r="D277" t="s">
         <v>113</v>
@@ -10535,13 +10535,13 @@
     </row>
     <row r="278" spans="1:27">
       <c r="A278" t="n">
-        <v>351</v>
+        <v>822</v>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C278" t="n">
-        <v>351</v>
+        <v>822</v>
       </c>
       <c r="D278" t="s">
         <v>113</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="279" spans="1:27">
       <c r="A279" t="n">
-        <v>352</v>
+        <v>823</v>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C279" t="n">
-        <v>352</v>
+        <v>823</v>
       </c>
       <c r="D279" t="s">
         <v>113</v>
@@ -10605,13 +10605,13 @@
     </row>
     <row r="280" spans="1:27">
       <c r="A280" t="n">
-        <v>353</v>
+        <v>824</v>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C280" t="n">
-        <v>353</v>
+        <v>824</v>
       </c>
       <c r="D280" t="s">
         <v>114</v>
@@ -10640,13 +10640,13 @@
     </row>
     <row r="281" spans="1:27">
       <c r="A281" t="n">
-        <v>354</v>
+        <v>825</v>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>354</v>
+        <v>825</v>
       </c>
       <c r="D281" t="s">
         <v>114</v>
@@ -10675,13 +10675,13 @@
     </row>
     <row r="282" spans="1:27">
       <c r="A282" t="n">
-        <v>355</v>
+        <v>826</v>
       </c>
       <c r="B282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C282" t="n">
-        <v>355</v>
+        <v>826</v>
       </c>
       <c r="D282" t="s">
         <v>114</v>
@@ -10710,13 +10710,13 @@
     </row>
     <row r="283" spans="1:27">
       <c r="A283" t="n">
-        <v>356</v>
+        <v>827</v>
       </c>
       <c r="B283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C283" t="n">
-        <v>356</v>
+        <v>827</v>
       </c>
       <c r="D283" t="s">
         <v>115</v>
@@ -10745,13 +10745,13 @@
     </row>
     <row r="284" spans="1:27">
       <c r="A284" t="n">
-        <v>357</v>
+        <v>828</v>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C284" t="n">
-        <v>357</v>
+        <v>828</v>
       </c>
       <c r="D284" t="s">
         <v>115</v>
@@ -10780,13 +10780,13 @@
     </row>
     <row r="285" spans="1:27">
       <c r="A285" t="n">
-        <v>358</v>
+        <v>829</v>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C285" t="n">
-        <v>358</v>
+        <v>829</v>
       </c>
       <c r="D285" t="s">
         <v>116</v>
@@ -10815,13 +10815,13 @@
     </row>
     <row r="286" spans="1:27">
       <c r="A286" t="n">
-        <v>359</v>
+        <v>830</v>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C286" t="n">
-        <v>359</v>
+        <v>830</v>
       </c>
       <c r="D286" t="s">
         <v>116</v>
@@ -10850,13 +10850,13 @@
     </row>
     <row r="287" spans="1:27">
       <c r="A287" t="n">
-        <v>360</v>
+        <v>831</v>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C287" t="n">
-        <v>360</v>
+        <v>831</v>
       </c>
       <c r="D287" t="s">
         <v>116</v>
@@ -10885,13 +10885,13 @@
     </row>
     <row r="288" spans="1:27">
       <c r="A288" t="n">
-        <v>361</v>
+        <v>832</v>
       </c>
       <c r="B288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C288" t="n">
-        <v>361</v>
+        <v>832</v>
       </c>
       <c r="D288" t="s">
         <v>116</v>
@@ -10920,13 +10920,13 @@
     </row>
     <row r="289" spans="1:27">
       <c r="A289" t="n">
-        <v>362</v>
+        <v>833</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C289" t="n">
-        <v>362</v>
+        <v>833</v>
       </c>
       <c r="D289" t="s">
         <v>116</v>
@@ -10955,13 +10955,13 @@
     </row>
     <row r="290" spans="1:27">
       <c r="A290" t="n">
-        <v>363</v>
+        <v>834</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C290" t="n">
-        <v>363</v>
+        <v>834</v>
       </c>
       <c r="D290" t="s">
         <v>117</v>
@@ -10990,13 +10990,13 @@
     </row>
     <row r="291" spans="1:27">
       <c r="A291" t="n">
-        <v>364</v>
+        <v>835</v>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C291" t="n">
-        <v>364</v>
+        <v>835</v>
       </c>
       <c r="D291" t="s">
         <v>117</v>
@@ -11025,13 +11025,13 @@
     </row>
     <row r="292" spans="1:27">
       <c r="A292" t="n">
-        <v>365</v>
+        <v>836</v>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C292" t="n">
-        <v>365</v>
+        <v>836</v>
       </c>
       <c r="D292" t="s">
         <v>118</v>
@@ -11060,13 +11060,13 @@
     </row>
     <row r="293" spans="1:27">
       <c r="A293" t="n">
-        <v>366</v>
+        <v>837</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C293" t="n">
-        <v>366</v>
+        <v>837</v>
       </c>
       <c r="D293" t="s">
         <v>118</v>
@@ -11095,13 +11095,13 @@
     </row>
     <row r="294" spans="1:27">
       <c r="A294" t="n">
-        <v>367</v>
+        <v>838</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C294" t="n">
-        <v>367</v>
+        <v>838</v>
       </c>
       <c r="D294" t="s">
         <v>119</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="295" spans="1:27">
       <c r="A295" t="n">
-        <v>368</v>
+        <v>839</v>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C295" t="n">
-        <v>368</v>
+        <v>839</v>
       </c>
       <c r="D295" t="s">
         <v>119</v>
@@ -11165,13 +11165,13 @@
     </row>
     <row r="296" spans="1:27">
       <c r="A296" t="n">
-        <v>369</v>
+        <v>840</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C296" t="n">
-        <v>369</v>
+        <v>840</v>
       </c>
       <c r="D296" t="s">
         <v>120</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="297" spans="1:27">
       <c r="A297" t="n">
-        <v>370</v>
+        <v>841</v>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C297" t="n">
-        <v>370</v>
+        <v>841</v>
       </c>
       <c r="D297" t="s">
         <v>120</v>
@@ -11235,13 +11235,13 @@
     </row>
     <row r="298" spans="1:27">
       <c r="A298" t="n">
-        <v>371</v>
+        <v>842</v>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C298" t="n">
-        <v>371</v>
+        <v>842</v>
       </c>
       <c r="D298" t="s">
         <v>120</v>
@@ -11270,13 +11270,13 @@
     </row>
     <row r="299" spans="1:27">
       <c r="A299" t="n">
-        <v>372</v>
+        <v>843</v>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C299" t="n">
-        <v>372</v>
+        <v>843</v>
       </c>
       <c r="D299" t="s">
         <v>120</v>
@@ -11305,13 +11305,13 @@
     </row>
     <row r="300" spans="1:27">
       <c r="A300" t="n">
-        <v>373</v>
+        <v>844</v>
       </c>
       <c r="B300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C300" t="n">
-        <v>373</v>
+        <v>844</v>
       </c>
       <c r="D300" t="s">
         <v>120</v>
@@ -11340,13 +11340,13 @@
     </row>
     <row r="301" spans="1:27">
       <c r="A301" t="n">
-        <v>374</v>
+        <v>845</v>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C301" t="n">
-        <v>374</v>
+        <v>845</v>
       </c>
       <c r="D301" t="s">
         <v>120</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="302" spans="1:27">
       <c r="A302" t="n">
-        <v>375</v>
+        <v>846</v>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C302" t="n">
-        <v>375</v>
+        <v>846</v>
       </c>
       <c r="D302" t="s">
         <v>121</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="303" spans="1:27">
       <c r="A303" t="n">
-        <v>376</v>
+        <v>847</v>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C303" t="n">
-        <v>376</v>
+        <v>847</v>
       </c>
       <c r="D303" t="s">
         <v>121</v>
@@ -11445,13 +11445,13 @@
     </row>
     <row r="304" spans="1:27">
       <c r="A304" t="n">
-        <v>377</v>
+        <v>848</v>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C304" t="n">
-        <v>377</v>
+        <v>848</v>
       </c>
       <c r="D304" t="s">
         <v>121</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="305" spans="1:27">
       <c r="A305" t="n">
-        <v>378</v>
+        <v>849</v>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C305" t="n">
-        <v>378</v>
+        <v>849</v>
       </c>
       <c r="D305" t="s">
         <v>122</v>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="306" spans="1:27">
       <c r="A306" t="n">
-        <v>379</v>
+        <v>850</v>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C306" t="n">
-        <v>379</v>
+        <v>850</v>
       </c>
       <c r="D306" t="s">
         <v>122</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="307" spans="1:27">
       <c r="A307" t="n">
-        <v>380</v>
+        <v>851</v>
       </c>
       <c r="B307" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C307" t="n">
-        <v>380</v>
+        <v>851</v>
       </c>
       <c r="D307" t="s">
         <v>123</v>
@@ -11585,13 +11585,13 @@
     </row>
     <row r="308" spans="1:27">
       <c r="A308" t="n">
-        <v>381</v>
+        <v>852</v>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C308" t="n">
-        <v>381</v>
+        <v>852</v>
       </c>
       <c r="D308" t="s">
         <v>123</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="309" spans="1:27">
       <c r="A309" t="n">
-        <v>382</v>
+        <v>853</v>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C309" t="n">
-        <v>382</v>
+        <v>853</v>
       </c>
       <c r="D309" t="s">
         <v>124</v>
@@ -11655,13 +11655,13 @@
     </row>
     <row r="310" spans="1:27">
       <c r="A310" t="n">
-        <v>383</v>
+        <v>854</v>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C310" t="n">
-        <v>383</v>
+        <v>854</v>
       </c>
       <c r="D310" t="s">
         <v>124</v>
@@ -11690,13 +11690,13 @@
     </row>
     <row r="311" spans="1:27">
       <c r="A311" t="n">
-        <v>384</v>
+        <v>855</v>
       </c>
       <c r="B311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C311" t="n">
-        <v>384</v>
+        <v>855</v>
       </c>
       <c r="D311" t="s">
         <v>124</v>
@@ -11725,13 +11725,13 @@
     </row>
     <row r="312" spans="1:27">
       <c r="A312" t="n">
-        <v>385</v>
+        <v>856</v>
       </c>
       <c r="B312" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C312" t="n">
-        <v>385</v>
+        <v>856</v>
       </c>
       <c r="D312" t="s">
         <v>125</v>
@@ -11760,13 +11760,13 @@
     </row>
     <row r="313" spans="1:27">
       <c r="A313" t="n">
-        <v>386</v>
+        <v>857</v>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C313" t="n">
-        <v>386</v>
+        <v>857</v>
       </c>
       <c r="D313" t="s">
         <v>125</v>
@@ -11795,13 +11795,13 @@
     </row>
     <row r="314" spans="1:27">
       <c r="A314" t="n">
-        <v>387</v>
+        <v>858</v>
       </c>
       <c r="B314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C314" t="n">
-        <v>387</v>
+        <v>858</v>
       </c>
       <c r="D314" t="s">
         <v>126</v>
@@ -11830,13 +11830,13 @@
     </row>
     <row r="315" spans="1:27">
       <c r="A315" t="n">
-        <v>388</v>
+        <v>859</v>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C315" t="n">
-        <v>388</v>
+        <v>859</v>
       </c>
       <c r="D315" t="s">
         <v>126</v>
@@ -11865,13 +11865,13 @@
     </row>
     <row r="316" spans="1:27">
       <c r="A316" t="n">
-        <v>389</v>
+        <v>860</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C316" t="n">
-        <v>389</v>
+        <v>860</v>
       </c>
       <c r="D316" t="s">
         <v>127</v>
@@ -11900,13 +11900,13 @@
     </row>
     <row r="317" spans="1:27">
       <c r="A317" t="n">
-        <v>390</v>
+        <v>861</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C317" t="n">
-        <v>390</v>
+        <v>861</v>
       </c>
       <c r="D317" t="s">
         <v>127</v>
@@ -11935,13 +11935,13 @@
     </row>
     <row r="318" spans="1:27">
       <c r="A318" t="n">
-        <v>391</v>
+        <v>862</v>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C318" t="n">
-        <v>391</v>
+        <v>862</v>
       </c>
       <c r="D318" t="s">
         <v>128</v>
@@ -11970,13 +11970,13 @@
     </row>
     <row r="319" spans="1:27">
       <c r="A319" t="n">
-        <v>392</v>
+        <v>863</v>
       </c>
       <c r="B319" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C319" t="n">
-        <v>392</v>
+        <v>863</v>
       </c>
       <c r="D319" t="s">
         <v>128</v>
@@ -12005,13 +12005,13 @@
     </row>
     <row r="320" spans="1:27">
       <c r="A320" t="n">
-        <v>393</v>
+        <v>864</v>
       </c>
       <c r="B320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C320" t="n">
-        <v>393</v>
+        <v>864</v>
       </c>
       <c r="D320" t="s">
         <v>128</v>
@@ -12040,13 +12040,13 @@
     </row>
     <row r="321" spans="1:27">
       <c r="A321" t="n">
-        <v>394</v>
+        <v>865</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C321" t="n">
-        <v>394</v>
+        <v>865</v>
       </c>
       <c r="D321" t="s">
         <v>128</v>
@@ -12075,13 +12075,13 @@
     </row>
     <row r="322" spans="1:27">
       <c r="A322" t="n">
-        <v>395</v>
+        <v>866</v>
       </c>
       <c r="B322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C322" t="n">
-        <v>395</v>
+        <v>866</v>
       </c>
       <c r="D322" t="s">
         <v>128</v>
@@ -12110,13 +12110,13 @@
     </row>
     <row r="323" spans="1:27">
       <c r="A323" t="n">
-        <v>396</v>
+        <v>867</v>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C323" t="n">
-        <v>396</v>
+        <v>867</v>
       </c>
       <c r="D323" t="s">
         <v>128</v>
@@ -12145,13 +12145,13 @@
     </row>
     <row r="324" spans="1:27">
       <c r="A324" t="n">
-        <v>397</v>
+        <v>868</v>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C324" t="n">
-        <v>397</v>
+        <v>868</v>
       </c>
       <c r="D324" t="s">
         <v>128</v>
@@ -12180,13 +12180,13 @@
     </row>
     <row r="325" spans="1:27">
       <c r="A325" t="n">
-        <v>398</v>
+        <v>869</v>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C325" t="n">
-        <v>398</v>
+        <v>869</v>
       </c>
       <c r="D325" t="s">
         <v>128</v>
@@ -12215,13 +12215,13 @@
     </row>
     <row r="326" spans="1:27">
       <c r="A326" t="n">
-        <v>399</v>
+        <v>870</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C326" t="n">
-        <v>399</v>
+        <v>870</v>
       </c>
       <c r="D326" t="s">
         <v>128</v>
@@ -12250,13 +12250,13 @@
     </row>
     <row r="327" spans="1:27">
       <c r="A327" t="n">
-        <v>400</v>
+        <v>871</v>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C327" t="n">
-        <v>400</v>
+        <v>871</v>
       </c>
       <c r="D327" t="s">
         <v>129</v>
@@ -12285,13 +12285,13 @@
     </row>
     <row r="328" spans="1:27">
       <c r="A328" t="n">
-        <v>401</v>
+        <v>872</v>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C328" t="n">
-        <v>401</v>
+        <v>872</v>
       </c>
       <c r="D328" t="s">
         <v>129</v>
@@ -12320,13 +12320,13 @@
     </row>
     <row r="329" spans="1:27">
       <c r="A329" t="n">
-        <v>402</v>
+        <v>873</v>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C329" t="n">
-        <v>402</v>
+        <v>873</v>
       </c>
       <c r="D329" t="s">
         <v>130</v>
@@ -12355,13 +12355,13 @@
     </row>
     <row r="330" spans="1:27">
       <c r="A330" t="n">
-        <v>403</v>
+        <v>874</v>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C330" t="n">
-        <v>403</v>
+        <v>874</v>
       </c>
       <c r="D330" t="s">
         <v>130</v>
@@ -12390,13 +12390,13 @@
     </row>
     <row r="331" spans="1:27">
       <c r="A331" t="n">
-        <v>404</v>
+        <v>875</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C331" t="n">
-        <v>404</v>
+        <v>875</v>
       </c>
       <c r="D331" t="s">
         <v>130</v>
@@ -12425,13 +12425,13 @@
     </row>
     <row r="332" spans="1:27">
       <c r="A332" t="n">
-        <v>405</v>
+        <v>876</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C332" t="n">
-        <v>405</v>
+        <v>876</v>
       </c>
       <c r="D332" t="s">
         <v>131</v>
@@ -12460,13 +12460,13 @@
     </row>
     <row r="333" spans="1:27">
       <c r="A333" t="n">
-        <v>406</v>
+        <v>877</v>
       </c>
       <c r="B333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C333" t="n">
-        <v>406</v>
+        <v>877</v>
       </c>
       <c r="D333" t="s">
         <v>131</v>
@@ -12495,13 +12495,13 @@
     </row>
     <row r="334" spans="1:27">
       <c r="A334" t="n">
-        <v>407</v>
+        <v>878</v>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C334" t="n">
-        <v>407</v>
+        <v>878</v>
       </c>
       <c r="D334" t="s">
         <v>132</v>
@@ -12530,13 +12530,13 @@
     </row>
     <row r="335" spans="1:27">
       <c r="A335" t="n">
-        <v>408</v>
+        <v>879</v>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C335" t="n">
-        <v>408</v>
+        <v>879</v>
       </c>
       <c r="D335" t="s">
         <v>132</v>
@@ -12565,13 +12565,13 @@
     </row>
     <row r="336" spans="1:27">
       <c r="A336" t="n">
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C336" t="n">
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
@@ -12600,13 +12600,13 @@
     </row>
     <row r="337" spans="1:27">
       <c r="A337" t="n">
-        <v>410</v>
+        <v>881</v>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C337" t="n">
-        <v>410</v>
+        <v>881</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
@@ -12635,13 +12635,13 @@
     </row>
     <row r="338" spans="1:27">
       <c r="A338" t="n">
-        <v>411</v>
+        <v>882</v>
       </c>
       <c r="B338" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C338" t="n">
-        <v>411</v>
+        <v>882</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
@@ -12670,13 +12670,13 @@
     </row>
     <row r="339" spans="1:27">
       <c r="A339" t="n">
-        <v>412</v>
+        <v>883</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C339" t="n">
-        <v>412</v>
+        <v>883</v>
       </c>
       <c r="D339" t="s">
         <v>133</v>
@@ -12705,13 +12705,13 @@
     </row>
     <row r="340" spans="1:27">
       <c r="A340" t="n">
-        <v>413</v>
+        <v>884</v>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C340" t="n">
-        <v>413</v>
+        <v>884</v>
       </c>
       <c r="D340" t="s">
         <v>133</v>
@@ -12740,13 +12740,13 @@
     </row>
     <row r="341" spans="1:27">
       <c r="A341" t="n">
-        <v>414</v>
+        <v>885</v>
       </c>
       <c r="B341" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C341" t="n">
-        <v>414</v>
+        <v>885</v>
       </c>
       <c r="D341" t="s">
         <v>133</v>
@@ -12775,13 +12775,13 @@
     </row>
     <row r="342" spans="1:27">
       <c r="A342" t="n">
-        <v>415</v>
+        <v>886</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C342" t="n">
-        <v>415</v>
+        <v>886</v>
       </c>
       <c r="D342" t="s">
         <v>133</v>
@@ -12810,13 +12810,13 @@
     </row>
     <row r="343" spans="1:27">
       <c r="A343" t="n">
-        <v>416</v>
+        <v>887</v>
       </c>
       <c r="B343" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C343" t="n">
-        <v>416</v>
+        <v>887</v>
       </c>
       <c r="D343" t="s">
         <v>133</v>
@@ -12845,13 +12845,13 @@
     </row>
     <row r="344" spans="1:27">
       <c r="A344" t="n">
-        <v>417</v>
+        <v>888</v>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C344" t="n">
-        <v>417</v>
+        <v>888</v>
       </c>
       <c r="D344" t="s">
         <v>133</v>
@@ -12880,13 +12880,13 @@
     </row>
     <row r="345" spans="1:27">
       <c r="A345" t="n">
-        <v>418</v>
+        <v>889</v>
       </c>
       <c r="B345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C345" t="n">
-        <v>418</v>
+        <v>889</v>
       </c>
       <c r="D345" t="s">
         <v>133</v>
@@ -12915,13 +12915,13 @@
     </row>
     <row r="346" spans="1:27">
       <c r="A346" t="n">
-        <v>419</v>
+        <v>890</v>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C346" t="n">
-        <v>419</v>
+        <v>890</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
@@ -12950,13 +12950,13 @@
     </row>
     <row r="347" spans="1:27">
       <c r="A347" t="n">
-        <v>420</v>
+        <v>891</v>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C347" t="n">
-        <v>420</v>
+        <v>891</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
@@ -12985,13 +12985,13 @@
     </row>
     <row r="348" spans="1:27">
       <c r="A348" t="n">
-        <v>421</v>
+        <v>892</v>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C348" t="n">
-        <v>421</v>
+        <v>892</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="349" spans="1:27">
       <c r="A349" t="n">
-        <v>422</v>
+        <v>893</v>
       </c>
       <c r="B349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C349" t="n">
-        <v>422</v>
+        <v>893</v>
       </c>
       <c r="D349" t="s">
         <v>134</v>
@@ -13055,13 +13055,13 @@
     </row>
     <row r="350" spans="1:27">
       <c r="A350" t="n">
-        <v>423</v>
+        <v>894</v>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C350" t="n">
-        <v>423</v>
+        <v>894</v>
       </c>
       <c r="D350" t="s">
         <v>134</v>
@@ -13090,13 +13090,13 @@
     </row>
     <row r="351" spans="1:27">
       <c r="A351" t="n">
-        <v>424</v>
+        <v>895</v>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C351" t="n">
-        <v>424</v>
+        <v>895</v>
       </c>
       <c r="D351" t="s">
         <v>134</v>
@@ -13125,13 +13125,13 @@
     </row>
     <row r="352" spans="1:27">
       <c r="A352" t="n">
-        <v>425</v>
+        <v>896</v>
       </c>
       <c r="B352" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C352" t="n">
-        <v>425</v>
+        <v>896</v>
       </c>
       <c r="D352" t="s">
         <v>134</v>
@@ -13160,13 +13160,13 @@
     </row>
     <row r="353" spans="1:27">
       <c r="A353" t="n">
-        <v>426</v>
+        <v>897</v>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C353" t="n">
-        <v>426</v>
+        <v>897</v>
       </c>
       <c r="D353" t="s">
         <v>134</v>
@@ -13195,13 +13195,13 @@
     </row>
     <row r="354" spans="1:27">
       <c r="A354" t="n">
-        <v>427</v>
+        <v>898</v>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C354" t="n">
-        <v>427</v>
+        <v>898</v>
       </c>
       <c r="D354" t="s">
         <v>134</v>
@@ -13230,13 +13230,13 @@
     </row>
     <row r="355" spans="1:27">
       <c r="A355" t="n">
-        <v>428</v>
+        <v>899</v>
       </c>
       <c r="B355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C355" t="n">
-        <v>428</v>
+        <v>899</v>
       </c>
       <c r="D355" t="s">
         <v>134</v>
@@ -13265,13 +13265,13 @@
     </row>
     <row r="356" spans="1:27">
       <c r="A356" t="n">
-        <v>429</v>
+        <v>900</v>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C356" t="n">
-        <v>429</v>
+        <v>900</v>
       </c>
       <c r="D356" t="s">
         <v>135</v>
@@ -13300,13 +13300,13 @@
     </row>
     <row r="357" spans="1:27">
       <c r="A357" t="n">
-        <v>430</v>
+        <v>901</v>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C357" t="n">
-        <v>430</v>
+        <v>901</v>
       </c>
       <c r="D357" t="s">
         <v>135</v>
@@ -13335,13 +13335,13 @@
     </row>
     <row r="358" spans="1:27">
       <c r="A358" t="n">
-        <v>431</v>
+        <v>902</v>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C358" t="n">
-        <v>431</v>
+        <v>902</v>
       </c>
       <c r="D358" t="s">
         <v>136</v>
@@ -13370,13 +13370,13 @@
     </row>
     <row r="359" spans="1:27">
       <c r="A359" t="n">
-        <v>432</v>
+        <v>903</v>
       </c>
       <c r="B359" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C359" t="n">
-        <v>432</v>
+        <v>903</v>
       </c>
       <c r="D359" t="s">
         <v>136</v>
@@ -13405,13 +13405,13 @@
     </row>
     <row r="360" spans="1:27">
       <c r="A360" t="n">
-        <v>433</v>
+        <v>904</v>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C360" t="n">
-        <v>433</v>
+        <v>904</v>
       </c>
       <c r="D360" t="s">
         <v>136</v>
@@ -13440,13 +13440,13 @@
     </row>
     <row r="361" spans="1:27">
       <c r="A361" t="n">
-        <v>434</v>
+        <v>905</v>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C361" t="n">
-        <v>434</v>
+        <v>905</v>
       </c>
       <c r="D361" t="s">
         <v>137</v>
@@ -13475,13 +13475,13 @@
     </row>
     <row r="362" spans="1:27">
       <c r="A362" t="n">
-        <v>435</v>
+        <v>906</v>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C362" t="n">
-        <v>435</v>
+        <v>906</v>
       </c>
       <c r="D362" t="s">
         <v>137</v>
@@ -13510,13 +13510,13 @@
     </row>
     <row r="363" spans="1:27">
       <c r="A363" t="n">
-        <v>436</v>
+        <v>907</v>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C363" t="n">
-        <v>436</v>
+        <v>907</v>
       </c>
       <c r="D363" t="s">
         <v>138</v>
@@ -13545,13 +13545,13 @@
     </row>
     <row r="364" spans="1:27">
       <c r="A364" t="n">
-        <v>437</v>
+        <v>908</v>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C364" t="n">
-        <v>437</v>
+        <v>908</v>
       </c>
       <c r="D364" t="s">
         <v>138</v>
@@ -13580,13 +13580,13 @@
     </row>
     <row r="365" spans="1:27">
       <c r="A365" t="n">
-        <v>438</v>
+        <v>909</v>
       </c>
       <c r="B365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C365" t="n">
-        <v>438</v>
+        <v>909</v>
       </c>
       <c r="D365" t="s">
         <v>138</v>
@@ -13615,13 +13615,13 @@
     </row>
     <row r="366" spans="1:27">
       <c r="A366" t="n">
-        <v>439</v>
+        <v>910</v>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C366" t="n">
-        <v>439</v>
+        <v>910</v>
       </c>
       <c r="D366" t="s">
         <v>138</v>
@@ -13650,13 +13650,13 @@
     </row>
     <row r="367" spans="1:27">
       <c r="A367" t="n">
-        <v>440</v>
+        <v>911</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C367" t="n">
-        <v>440</v>
+        <v>911</v>
       </c>
       <c r="D367" t="s">
         <v>138</v>
@@ -13685,13 +13685,13 @@
     </row>
     <row r="368" spans="1:27">
       <c r="A368" t="n">
-        <v>441</v>
+        <v>912</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C368" t="n">
-        <v>441</v>
+        <v>912</v>
       </c>
       <c r="D368" t="s">
         <v>138</v>
@@ -13720,13 +13720,13 @@
     </row>
     <row r="369" spans="1:27">
       <c r="A369" t="n">
-        <v>442</v>
+        <v>913</v>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C369" t="n">
-        <v>442</v>
+        <v>913</v>
       </c>
       <c r="D369" t="s">
         <v>138</v>
@@ -13755,13 +13755,13 @@
     </row>
     <row r="370" spans="1:27">
       <c r="A370" t="n">
-        <v>443</v>
+        <v>914</v>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C370" t="n">
-        <v>443</v>
+        <v>914</v>
       </c>
       <c r="D370" t="s">
         <v>138</v>
@@ -13790,13 +13790,13 @@
     </row>
     <row r="371" spans="1:27">
       <c r="A371" t="n">
-        <v>444</v>
+        <v>915</v>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C371" t="n">
-        <v>444</v>
+        <v>915</v>
       </c>
       <c r="D371" t="s">
         <v>139</v>
@@ -13825,13 +13825,13 @@
     </row>
     <row r="372" spans="1:27">
       <c r="A372" t="n">
-        <v>445</v>
+        <v>916</v>
       </c>
       <c r="B372" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C372" t="n">
-        <v>445</v>
+        <v>916</v>
       </c>
       <c r="D372" t="s">
         <v>139</v>
@@ -13860,13 +13860,13 @@
     </row>
     <row r="373" spans="1:27">
       <c r="A373" t="n">
-        <v>446</v>
+        <v>917</v>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C373" t="n">
-        <v>446</v>
+        <v>917</v>
       </c>
       <c r="D373" t="s">
         <v>140</v>
@@ -13895,13 +13895,13 @@
     </row>
     <row r="374" spans="1:27">
       <c r="A374" t="n">
-        <v>447</v>
+        <v>918</v>
       </c>
       <c r="B374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C374" t="n">
-        <v>447</v>
+        <v>918</v>
       </c>
       <c r="D374" t="s">
         <v>140</v>
@@ -13930,13 +13930,13 @@
     </row>
     <row r="375" spans="1:27">
       <c r="A375" t="n">
-        <v>448</v>
+        <v>919</v>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C375" t="n">
-        <v>448</v>
+        <v>919</v>
       </c>
       <c r="D375" t="s">
         <v>140</v>
@@ -13965,13 +13965,13 @@
     </row>
     <row r="376" spans="1:27">
       <c r="A376" t="n">
-        <v>449</v>
+        <v>920</v>
       </c>
       <c r="B376" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C376" t="n">
-        <v>449</v>
+        <v>920</v>
       </c>
       <c r="D376" t="s">
         <v>141</v>
@@ -14000,13 +14000,13 @@
     </row>
     <row r="377" spans="1:27">
       <c r="A377" t="n">
-        <v>450</v>
+        <v>921</v>
       </c>
       <c r="B377" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C377" t="n">
-        <v>450</v>
+        <v>921</v>
       </c>
       <c r="D377" t="s">
         <v>141</v>
@@ -14035,13 +14035,13 @@
     </row>
     <row r="378" spans="1:27">
       <c r="A378" t="n">
-        <v>451</v>
+        <v>922</v>
       </c>
       <c r="B378" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C378" t="n">
-        <v>451</v>
+        <v>922</v>
       </c>
       <c r="D378" t="s">
         <v>142</v>
@@ -14070,13 +14070,13 @@
     </row>
     <row r="379" spans="1:27">
       <c r="A379" t="n">
-        <v>452</v>
+        <v>923</v>
       </c>
       <c r="B379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C379" t="n">
-        <v>452</v>
+        <v>923</v>
       </c>
       <c r="D379" t="s">
         <v>142</v>
@@ -14105,13 +14105,13 @@
     </row>
     <row r="380" spans="1:27">
       <c r="A380" t="n">
-        <v>453</v>
+        <v>924</v>
       </c>
       <c r="B380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C380" t="n">
-        <v>453</v>
+        <v>924</v>
       </c>
       <c r="D380" t="s">
         <v>142</v>
@@ -14140,13 +14140,13 @@
     </row>
     <row r="381" spans="1:27">
       <c r="A381" t="n">
-        <v>454</v>
+        <v>925</v>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C381" t="n">
-        <v>454</v>
+        <v>925</v>
       </c>
       <c r="D381" t="s">
         <v>142</v>
@@ -14175,13 +14175,13 @@
     </row>
     <row r="382" spans="1:27">
       <c r="A382" t="n">
-        <v>455</v>
+        <v>926</v>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C382" t="n">
-        <v>455</v>
+        <v>926</v>
       </c>
       <c r="D382" t="s">
         <v>142</v>
@@ -14210,13 +14210,13 @@
     </row>
     <row r="383" spans="1:27">
       <c r="A383" t="n">
-        <v>456</v>
+        <v>927</v>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C383" t="n">
-        <v>456</v>
+        <v>927</v>
       </c>
       <c r="D383" t="s">
         <v>142</v>
@@ -14245,13 +14245,13 @@
     </row>
     <row r="384" spans="1:27">
       <c r="A384" t="n">
-        <v>457</v>
+        <v>928</v>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C384" t="n">
-        <v>457</v>
+        <v>928</v>
       </c>
       <c r="D384" t="s">
         <v>142</v>
@@ -14280,13 +14280,13 @@
     </row>
     <row r="385" spans="1:27">
       <c r="A385" t="n">
-        <v>458</v>
+        <v>929</v>
       </c>
       <c r="B385" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C385" t="n">
-        <v>458</v>
+        <v>929</v>
       </c>
       <c r="D385" t="s">
         <v>142</v>
@@ -14315,13 +14315,13 @@
     </row>
     <row r="386" spans="1:27">
       <c r="A386" t="n">
-        <v>459</v>
+        <v>930</v>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C386" t="n">
-        <v>459</v>
+        <v>930</v>
       </c>
       <c r="D386" t="s">
         <v>142</v>
@@ -14350,13 +14350,13 @@
     </row>
     <row r="387" spans="1:27">
       <c r="A387" t="n">
-        <v>460</v>
+        <v>931</v>
       </c>
       <c r="B387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C387" t="n">
-        <v>460</v>
+        <v>931</v>
       </c>
       <c r="D387" t="s">
         <v>142</v>
@@ -14385,13 +14385,13 @@
     </row>
     <row r="388" spans="1:27">
       <c r="A388" t="n">
-        <v>461</v>
+        <v>932</v>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C388" t="n">
-        <v>461</v>
+        <v>932</v>
       </c>
       <c r="D388" t="s">
         <v>142</v>
@@ -14420,13 +14420,13 @@
     </row>
     <row r="389" spans="1:27">
       <c r="A389" t="n">
-        <v>462</v>
+        <v>933</v>
       </c>
       <c r="B389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C389" t="n">
-        <v>462</v>
+        <v>933</v>
       </c>
       <c r="D389" t="s">
         <v>142</v>
@@ -14455,13 +14455,13 @@
     </row>
     <row r="390" spans="1:27">
       <c r="A390" t="n">
-        <v>463</v>
+        <v>934</v>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C390" t="n">
-        <v>463</v>
+        <v>934</v>
       </c>
       <c r="D390" t="s">
         <v>142</v>
@@ -14490,13 +14490,13 @@
     </row>
     <row r="391" spans="1:27">
       <c r="A391" t="n">
-        <v>464</v>
+        <v>935</v>
       </c>
       <c r="B391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C391" t="n">
-        <v>464</v>
+        <v>935</v>
       </c>
       <c r="D391" t="s">
         <v>142</v>
@@ -14525,13 +14525,13 @@
     </row>
     <row r="392" spans="1:27">
       <c r="A392" t="n">
-        <v>465</v>
+        <v>936</v>
       </c>
       <c r="B392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C392" t="n">
-        <v>465</v>
+        <v>936</v>
       </c>
       <c r="D392" t="s">
         <v>142</v>
@@ -14560,13 +14560,13 @@
     </row>
     <row r="393" spans="1:27">
       <c r="A393" t="n">
-        <v>466</v>
+        <v>937</v>
       </c>
       <c r="B393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C393" t="n">
-        <v>466</v>
+        <v>937</v>
       </c>
       <c r="D393" t="s">
         <v>142</v>
@@ -14595,13 +14595,13 @@
     </row>
     <row r="394" spans="1:27">
       <c r="A394" t="n">
-        <v>467</v>
+        <v>938</v>
       </c>
       <c r="B394" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C394" t="n">
-        <v>467</v>
+        <v>938</v>
       </c>
       <c r="D394" t="s">
         <v>142</v>
@@ -14630,13 +14630,13 @@
     </row>
     <row r="395" spans="1:27">
       <c r="A395" t="n">
-        <v>468</v>
+        <v>939</v>
       </c>
       <c r="B395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C395" t="n">
-        <v>468</v>
+        <v>939</v>
       </c>
       <c r="D395" t="s">
         <v>142</v>

--- a/new压力温度.xlsx
+++ b/new压力温度.xlsx
@@ -100,7 +100,7 @@
     <t>P6C1</t>
   </si>
   <si>
-    <t>2016/07/28</t>
+    <t>2016/07/29</t>
   </si>
   <si>
     <t>P6L1</t>
@@ -875,13 +875,13 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="n">
-        <v>2122</v>
+        <v>1257</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2122</v>
+        <v>1257</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="n">
-        <v>2123</v>
+        <v>1258</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2123</v>
+        <v>1258</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="n">
-        <v>2124</v>
+        <v>1259</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2124</v>
+        <v>1259</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="n">
-        <v>2125</v>
+        <v>1260</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2125</v>
+        <v>1260</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="n">
-        <v>2126</v>
+        <v>1261</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2126</v>
+        <v>1261</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="n">
-        <v>2127</v>
+        <v>1262</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2127</v>
+        <v>1262</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="n">
-        <v>2128</v>
+        <v>1263</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2128</v>
+        <v>1263</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="n">
-        <v>2129</v>
+        <v>1264</v>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2129</v>
+        <v>1264</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="n">
-        <v>2130</v>
+        <v>1265</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>2130</v>
+        <v>1265</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="n">
-        <v>2131</v>
+        <v>1266</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2131</v>
+        <v>1266</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="n">
-        <v>2132</v>
+        <v>1267</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>2132</v>
+        <v>1267</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="n">
-        <v>2133</v>
+        <v>1268</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>2133</v>
+        <v>1268</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="n">
-        <v>2134</v>
+        <v>1269</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2134</v>
+        <v>1269</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="n">
-        <v>2135</v>
+        <v>1270</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>2135</v>
+        <v>1270</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="n">
-        <v>2136</v>
+        <v>1271</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>2136</v>
+        <v>1271</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="n">
-        <v>2137</v>
+        <v>1272</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2137</v>
+        <v>1272</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="n">
-        <v>2138</v>
+        <v>1273</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>2138</v>
+        <v>1273</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="n">
-        <v>2139</v>
+        <v>1274</v>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>2139</v>
+        <v>1274</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="n">
-        <v>2140</v>
+        <v>1275</v>
       </c>
       <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2140</v>
+        <v>1275</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="n">
-        <v>2141</v>
+        <v>1276</v>
       </c>
       <c r="B21" t="n">
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>2141</v>
+        <v>1276</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="n">
-        <v>2142</v>
+        <v>1277</v>
       </c>
       <c r="B22" t="n">
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>2142</v>
+        <v>1277</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="n">
-        <v>2143</v>
+        <v>1278</v>
       </c>
       <c r="B23" t="n">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>2143</v>
+        <v>1278</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="n">
-        <v>2144</v>
+        <v>1279</v>
       </c>
       <c r="B24" t="n">
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>2144</v>
+        <v>1279</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="n">
-        <v>2145</v>
+        <v>1280</v>
       </c>
       <c r="B25" t="n">
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>2145</v>
+        <v>1280</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="n">
-        <v>2146</v>
+        <v>1281</v>
       </c>
       <c r="B26" t="n">
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>2146</v>
+        <v>1281</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="n">
-        <v>2147</v>
+        <v>1282</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2147</v>
+        <v>1282</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="n">
-        <v>2148</v>
+        <v>1283</v>
       </c>
       <c r="B28" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>2148</v>
+        <v>1283</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="n">
-        <v>2149</v>
+        <v>1284</v>
       </c>
       <c r="B29" t="n">
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>2149</v>
+        <v>1284</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="n">
-        <v>2150</v>
+        <v>1285</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2150</v>
+        <v>1285</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="n">
-        <v>2151</v>
+        <v>1286</v>
       </c>
       <c r="B31" t="n">
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>2151</v>
+        <v>1286</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="n">
-        <v>2152</v>
+        <v>1287</v>
       </c>
       <c r="B32" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>2152</v>
+        <v>1287</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="n">
-        <v>2153</v>
+        <v>1288</v>
       </c>
       <c r="B33" t="n">
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>2153</v>
+        <v>1288</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="n">
-        <v>2154</v>
+        <v>1289</v>
       </c>
       <c r="B34" t="n">
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>2154</v>
+        <v>1289</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="n">
-        <v>2155</v>
+        <v>1290</v>
       </c>
       <c r="B35" t="n">
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>2155</v>
+        <v>1290</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="n">
-        <v>2156</v>
+        <v>1291</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>2156</v>
+        <v>1291</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="n">
-        <v>2157</v>
+        <v>1292</v>
       </c>
       <c r="B37" t="n">
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>2157</v>
+        <v>1292</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="n">
-        <v>2158</v>
+        <v>1293</v>
       </c>
       <c r="B38" t="n">
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>2158</v>
+        <v>1293</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="n">
-        <v>2159</v>
+        <v>1294</v>
       </c>
       <c r="B39" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>2159</v>
+        <v>1294</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="n">
-        <v>2160</v>
+        <v>1295</v>
       </c>
       <c r="B40" t="n">
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>2160</v>
+        <v>1295</v>
       </c>
       <c r="D40" t="s">
         <v>37</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="n">
-        <v>2161</v>
+        <v>1296</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>2161</v>
+        <v>1296</v>
       </c>
       <c r="D41" t="s">
         <v>37</v>
@@ -2275,13 +2275,13 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="n">
-        <v>2162</v>
+        <v>1297</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>2162</v>
+        <v>1297</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="n">
-        <v>2163</v>
+        <v>1298</v>
       </c>
       <c r="B43" t="n">
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>2163</v>
+        <v>1298</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="n">
-        <v>2164</v>
+        <v>1299</v>
       </c>
       <c r="B44" t="n">
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>2164</v>
+        <v>1299</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="n">
-        <v>2165</v>
+        <v>1300</v>
       </c>
       <c r="B45" t="n">
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>2165</v>
+        <v>1300</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="n">
-        <v>2166</v>
+        <v>1301</v>
       </c>
       <c r="B46" t="n">
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>2166</v>
+        <v>1301</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="n">
-        <v>2167</v>
+        <v>1302</v>
       </c>
       <c r="B47" t="n">
         <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>2167</v>
+        <v>1302</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="n">
-        <v>2168</v>
+        <v>1303</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>2168</v>
+        <v>1303</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="n">
-        <v>2169</v>
+        <v>1304</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>2169</v>
+        <v>1304</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="n">
-        <v>2170</v>
+        <v>1305</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>2170</v>
+        <v>1305</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="n">
-        <v>2171</v>
+        <v>1306</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>2171</v>
+        <v>1306</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="n">
-        <v>2172</v>
+        <v>1307</v>
       </c>
       <c r="B52" t="n">
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>2172</v>
+        <v>1307</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="n">
-        <v>2173</v>
+        <v>1308</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>2173</v>
+        <v>1308</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -2695,13 +2695,13 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="n">
-        <v>2174</v>
+        <v>1309</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>2174</v>
+        <v>1309</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="n">
-        <v>2175</v>
+        <v>1310</v>
       </c>
       <c r="B55" t="n">
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>2175</v>
+        <v>1310</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="n">
-        <v>2176</v>
+        <v>1311</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>2176</v>
+        <v>1311</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="n">
-        <v>2177</v>
+        <v>1312</v>
       </c>
       <c r="B57" t="n">
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>2177</v>
+        <v>1312</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="n">
-        <v>2178</v>
+        <v>1313</v>
       </c>
       <c r="B58" t="n">
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>2178</v>
+        <v>1313</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="n">
-        <v>2179</v>
+        <v>1314</v>
       </c>
       <c r="B59" t="n">
         <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>2179</v>
+        <v>1314</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="n">
-        <v>2180</v>
+        <v>1315</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>2180</v>
+        <v>1315</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="n">
-        <v>2181</v>
+        <v>1316</v>
       </c>
       <c r="B61" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>2181</v>
+        <v>1316</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>
@@ -2975,13 +2975,13 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" t="n">
-        <v>2182</v>
+        <v>1317</v>
       </c>
       <c r="B62" t="n">
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>2182</v>
+        <v>1317</v>
       </c>
       <c r="D62" t="s">
         <v>44</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" t="n">
-        <v>2183</v>
+        <v>1318</v>
       </c>
       <c r="B63" t="n">
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>2183</v>
+        <v>1318</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
@@ -3045,13 +3045,13 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="n">
-        <v>2184</v>
+        <v>1319</v>
       </c>
       <c r="B64" t="n">
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>2184</v>
+        <v>1319</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" t="n">
-        <v>2185</v>
+        <v>1320</v>
       </c>
       <c r="B65" t="n">
         <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>2185</v>
+        <v>1320</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
@@ -3115,13 +3115,13 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" t="n">
-        <v>2186</v>
+        <v>1321</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>2186</v>
+        <v>1321</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="n">
-        <v>2187</v>
+        <v>1322</v>
       </c>
       <c r="B67" t="n">
         <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>2187</v>
+        <v>1322</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" t="n">
-        <v>2188</v>
+        <v>1323</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>2188</v>
+        <v>1323</v>
       </c>
       <c r="D68" t="s">
         <v>46</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" t="n">
-        <v>2189</v>
+        <v>1324</v>
       </c>
       <c r="B69" t="n">
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>2189</v>
+        <v>1324</v>
       </c>
       <c r="D69" t="s">
         <v>47</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" t="n">
-        <v>2190</v>
+        <v>1325</v>
       </c>
       <c r="B70" t="n">
         <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>2190</v>
+        <v>1325</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" t="n">
-        <v>2191</v>
+        <v>1326</v>
       </c>
       <c r="B71" t="n">
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>2191</v>
+        <v>1326</v>
       </c>
       <c r="D71" t="s">
         <v>47</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" t="n">
-        <v>2192</v>
+        <v>1327</v>
       </c>
       <c r="B72" t="n">
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>2192</v>
+        <v>1327</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" t="n">
-        <v>2193</v>
+        <v>1328</v>
       </c>
       <c r="B73" t="n">
         <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>2193</v>
+        <v>1328</v>
       </c>
       <c r="D73" t="s">
         <v>48</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" t="n">
-        <v>2194</v>
+        <v>1329</v>
       </c>
       <c r="B74" t="n">
         <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>2194</v>
+        <v>1329</v>
       </c>
       <c r="D74" t="s">
         <v>48</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" t="n">
-        <v>2195</v>
+        <v>1330</v>
       </c>
       <c r="B75" t="n">
         <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>2195</v>
+        <v>1330</v>
       </c>
       <c r="D75" t="s">
         <v>48</v>
@@ -3465,13 +3465,13 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" t="n">
-        <v>2196</v>
+        <v>1331</v>
       </c>
       <c r="B76" t="n">
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>2196</v>
+        <v>1331</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" t="n">
-        <v>2197</v>
+        <v>1332</v>
       </c>
       <c r="B77" t="n">
         <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>2197</v>
+        <v>1332</v>
       </c>
       <c r="D77" t="s">
         <v>49</v>
@@ -3535,13 +3535,13 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" t="n">
-        <v>2198</v>
+        <v>1333</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>2198</v>
+        <v>1333</v>
       </c>
       <c r="D78" t="s">
         <v>49</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" t="n">
-        <v>2199</v>
+        <v>1334</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>2199</v>
+        <v>1334</v>
       </c>
       <c r="D79" t="s">
         <v>49</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" t="n">
-        <v>2200</v>
+        <v>1335</v>
       </c>
       <c r="B80" t="n">
         <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>2200</v>
+        <v>1335</v>
       </c>
       <c r="D80" t="s">
         <v>49</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" t="n">
-        <v>2201</v>
+        <v>1336</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>2201</v>
+        <v>1336</v>
       </c>
       <c r="D81" t="s">
         <v>49</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" t="n">
-        <v>2202</v>
+        <v>1337</v>
       </c>
       <c r="B82" t="n">
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>2202</v>
+        <v>1337</v>
       </c>
       <c r="D82" t="s">
         <v>50</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" t="n">
-        <v>2203</v>
+        <v>1338</v>
       </c>
       <c r="B83" t="n">
         <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>2203</v>
+        <v>1338</v>
       </c>
       <c r="D83" t="s">
         <v>50</v>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" t="n">
-        <v>2204</v>
+        <v>1339</v>
       </c>
       <c r="B84" t="n">
         <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>2204</v>
+        <v>1339</v>
       </c>
       <c r="D84" t="s">
         <v>50</v>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" t="n">
-        <v>2205</v>
+        <v>1340</v>
       </c>
       <c r="B85" t="n">
         <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>2205</v>
+        <v>1340</v>
       </c>
       <c r="D85" t="s">
         <v>50</v>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" t="n">
-        <v>2206</v>
+        <v>1341</v>
       </c>
       <c r="B86" t="n">
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>2206</v>
+        <v>1341</v>
       </c>
       <c r="D86" t="s">
         <v>50</v>
@@ -3850,13 +3850,13 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" t="n">
-        <v>2207</v>
+        <v>1342</v>
       </c>
       <c r="B87" t="n">
         <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>2207</v>
+        <v>1342</v>
       </c>
       <c r="D87" t="s">
         <v>50</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" t="n">
-        <v>2208</v>
+        <v>1343</v>
       </c>
       <c r="B88" t="n">
         <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>2208</v>
+        <v>1343</v>
       </c>
       <c r="D88" t="s">
         <v>51</v>
@@ -3920,13 +3920,13 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" t="n">
-        <v>2209</v>
+        <v>1344</v>
       </c>
       <c r="B89" t="n">
         <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>2209</v>
+        <v>1344</v>
       </c>
       <c r="D89" t="s">
         <v>51</v>
@@ -3955,13 +3955,13 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" t="n">
-        <v>2210</v>
+        <v>1345</v>
       </c>
       <c r="B90" t="n">
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>2210</v>
+        <v>1345</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -3990,13 +3990,13 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" t="n">
-        <v>2211</v>
+        <v>1346</v>
       </c>
       <c r="B91" t="n">
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>2211</v>
+        <v>1346</v>
       </c>
       <c r="D91" t="s">
         <v>52</v>
@@ -4025,13 +4025,13 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" t="n">
-        <v>2212</v>
+        <v>1347</v>
       </c>
       <c r="B92" t="n">
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>2212</v>
+        <v>1347</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" t="n">
-        <v>2213</v>
+        <v>1348</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>2213</v>
+        <v>1348</v>
       </c>
       <c r="D93" t="s">
         <v>52</v>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" t="n">
-        <v>2214</v>
+        <v>1349</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>2214</v>
+        <v>1349</v>
       </c>
       <c r="D94" t="s">
         <v>53</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" t="n">
-        <v>2215</v>
+        <v>1350</v>
       </c>
       <c r="B95" t="n">
         <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>2215</v>
+        <v>1350</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
@@ -4165,13 +4165,13 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" t="n">
-        <v>2216</v>
+        <v>1351</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>2216</v>
+        <v>1351</v>
       </c>
       <c r="D96" t="s">
         <v>53</v>
@@ -4200,13 +4200,13 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" t="n">
-        <v>2217</v>
+        <v>1352</v>
       </c>
       <c r="B97" t="n">
         <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>2217</v>
+        <v>1352</v>
       </c>
       <c r="D97" t="s">
         <v>54</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" t="n">
-        <v>2218</v>
+        <v>1353</v>
       </c>
       <c r="B98" t="n">
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>2218</v>
+        <v>1353</v>
       </c>
       <c r="D98" t="s">
         <v>54</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" t="n">
-        <v>2219</v>
+        <v>1354</v>
       </c>
       <c r="B99" t="n">
         <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>2219</v>
+        <v>1354</v>
       </c>
       <c r="D99" t="s">
         <v>55</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" t="n">
-        <v>2220</v>
+        <v>1355</v>
       </c>
       <c r="B100" t="n">
         <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>2220</v>
+        <v>1355</v>
       </c>
       <c r="D100" t="s">
         <v>55</v>
@@ -4340,13 +4340,13 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" t="n">
-        <v>2221</v>
+        <v>1356</v>
       </c>
       <c r="B101" t="n">
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>2221</v>
+        <v>1356</v>
       </c>
       <c r="D101" t="s">
         <v>55</v>
@@ -4375,13 +4375,13 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" t="n">
-        <v>2222</v>
+        <v>1357</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>2222</v>
+        <v>1357</v>
       </c>
       <c r="D102" t="s">
         <v>55</v>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" t="n">
-        <v>2223</v>
+        <v>1358</v>
       </c>
       <c r="B103" t="n">
         <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>2223</v>
+        <v>1358</v>
       </c>
       <c r="D103" t="s">
         <v>56</v>
@@ -4445,13 +4445,13 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" t="n">
-        <v>2224</v>
+        <v>1359</v>
       </c>
       <c r="B104" t="n">
         <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>2224</v>
+        <v>1359</v>
       </c>
       <c r="D104" t="s">
         <v>56</v>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" t="n">
-        <v>2225</v>
+        <v>1360</v>
       </c>
       <c r="B105" t="n">
         <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>2225</v>
+        <v>1360</v>
       </c>
       <c r="D105" t="s">
         <v>56</v>
@@ -4515,13 +4515,13 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" t="n">
-        <v>2226</v>
+        <v>1361</v>
       </c>
       <c r="B106" t="n">
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>2226</v>
+        <v>1361</v>
       </c>
       <c r="D106" t="s">
         <v>56</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" t="n">
-        <v>2227</v>
+        <v>1362</v>
       </c>
       <c r="B107" t="n">
         <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>2227</v>
+        <v>1362</v>
       </c>
       <c r="D107" t="s">
         <v>56</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" t="n">
-        <v>2228</v>
+        <v>1363</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>2228</v>
+        <v>1363</v>
       </c>
       <c r="D108" t="s">
         <v>56</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" t="n">
-        <v>2229</v>
+        <v>1364</v>
       </c>
       <c r="B109" t="n">
         <v>5</v>
       </c>
       <c r="C109" t="n">
-        <v>2229</v>
+        <v>1364</v>
       </c>
       <c r="D109" t="s">
         <v>56</v>
@@ -4655,13 +4655,13 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" t="n">
-        <v>2230</v>
+        <v>1365</v>
       </c>
       <c r="B110" t="n">
         <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>2230</v>
+        <v>1365</v>
       </c>
       <c r="D110" t="s">
         <v>56</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" t="n">
-        <v>2231</v>
+        <v>1366</v>
       </c>
       <c r="B111" t="n">
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>2231</v>
+        <v>1366</v>
       </c>
       <c r="D111" t="s">
         <v>57</v>
@@ -4725,13 +4725,13 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" t="n">
-        <v>2232</v>
+        <v>1367</v>
       </c>
       <c r="B112" t="n">
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>2232</v>
+        <v>1367</v>
       </c>
       <c r="D112" t="s">
         <v>57</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" t="n">
-        <v>2233</v>
+        <v>1368</v>
       </c>
       <c r="B113" t="n">
         <v>5</v>
       </c>
       <c r="C113" t="n">
-        <v>2233</v>
+        <v>1368</v>
       </c>
       <c r="D113" t="s">
         <v>57</v>
@@ -4795,13 +4795,13 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" t="n">
-        <v>2234</v>
+        <v>1369</v>
       </c>
       <c r="B114" t="n">
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>2234</v>
+        <v>1369</v>
       </c>
       <c r="D114" t="s">
         <v>57</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" t="n">
-        <v>2235</v>
+        <v>1370</v>
       </c>
       <c r="B115" t="n">
         <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>2235</v>
+        <v>1370</v>
       </c>
       <c r="D115" t="s">
         <v>58</v>
@@ -4865,13 +4865,13 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" t="n">
-        <v>2236</v>
+        <v>1371</v>
       </c>
       <c r="B116" t="n">
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>2236</v>
+        <v>1371</v>
       </c>
       <c r="D116" t="s">
         <v>58</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" t="n">
-        <v>2237</v>
+        <v>1372</v>
       </c>
       <c r="B117" t="n">
         <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>2237</v>
+        <v>1372</v>
       </c>
       <c r="D117" t="s">
         <v>58</v>
@@ -4935,13 +4935,13 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" t="n">
-        <v>2238</v>
+        <v>1373</v>
       </c>
       <c r="B118" t="n">
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>2238</v>
+        <v>1373</v>
       </c>
       <c r="D118" t="s">
         <v>59</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" t="n">
-        <v>2239</v>
+        <v>1374</v>
       </c>
       <c r="B119" t="n">
         <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>2239</v>
+        <v>1374</v>
       </c>
       <c r="D119" t="s">
         <v>59</v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" t="n">
-        <v>2240</v>
+        <v>1375</v>
       </c>
       <c r="B120" t="n">
         <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>2240</v>
+        <v>1375</v>
       </c>
       <c r="D120" t="s">
         <v>59</v>
@@ -5040,13 +5040,13 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" t="n">
-        <v>2241</v>
+        <v>1376</v>
       </c>
       <c r="B121" t="n">
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>2241</v>
+        <v>1376</v>
       </c>
       <c r="D121" t="s">
         <v>59</v>
@@ -5075,13 +5075,13 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" t="n">
-        <v>2242</v>
+        <v>1377</v>
       </c>
       <c r="B122" t="n">
         <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>2242</v>
+        <v>1377</v>
       </c>
       <c r="D122" t="s">
         <v>60</v>
@@ -5110,13 +5110,13 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" t="n">
-        <v>2243</v>
+        <v>1378</v>
       </c>
       <c r="B123" t="n">
         <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>2243</v>
+        <v>1378</v>
       </c>
       <c r="D123" t="s">
         <v>60</v>
@@ -5145,13 +5145,13 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" t="n">
-        <v>2244</v>
+        <v>1379</v>
       </c>
       <c r="B124" t="n">
         <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>2244</v>
+        <v>1379</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
@@ -5180,13 +5180,13 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" t="n">
-        <v>2245</v>
+        <v>1380</v>
       </c>
       <c r="B125" t="n">
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>2245</v>
+        <v>1380</v>
       </c>
       <c r="D125" t="s">
         <v>61</v>
@@ -5215,13 +5215,13 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" t="n">
-        <v>2246</v>
+        <v>1381</v>
       </c>
       <c r="B126" t="n">
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>2246</v>
+        <v>1381</v>
       </c>
       <c r="D126" t="s">
         <v>61</v>
@@ -5250,13 +5250,13 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" t="n">
-        <v>2247</v>
+        <v>1382</v>
       </c>
       <c r="B127" t="n">
         <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>2247</v>
+        <v>1382</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
@@ -5285,13 +5285,13 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" t="n">
-        <v>2248</v>
+        <v>1383</v>
       </c>
       <c r="B128" t="n">
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>2248</v>
+        <v>1383</v>
       </c>
       <c r="D128" t="s">
         <v>62</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" t="n">
-        <v>2249</v>
+        <v>1384</v>
       </c>
       <c r="B129" t="n">
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>2249</v>
+        <v>1384</v>
       </c>
       <c r="D129" t="s">
         <v>62</v>
@@ -5355,13 +5355,13 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" t="n">
-        <v>2250</v>
+        <v>1385</v>
       </c>
       <c r="B130" t="n">
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>2250</v>
+        <v>1385</v>
       </c>
       <c r="D130" t="s">
         <v>62</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" t="n">
-        <v>2251</v>
+        <v>1386</v>
       </c>
       <c r="B131" t="n">
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>2251</v>
+        <v>1386</v>
       </c>
       <c r="D131" t="s">
         <v>63</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" t="n">
-        <v>2252</v>
+        <v>1387</v>
       </c>
       <c r="B132" t="n">
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>2252</v>
+        <v>1387</v>
       </c>
       <c r="D132" t="s">
         <v>63</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" t="n">
-        <v>2253</v>
+        <v>1388</v>
       </c>
       <c r="B133" t="n">
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>2253</v>
+        <v>1388</v>
       </c>
       <c r="D133" t="s">
         <v>64</v>
@@ -5495,13 +5495,13 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" t="n">
-        <v>2254</v>
+        <v>1389</v>
       </c>
       <c r="B134" t="n">
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>2254</v>
+        <v>1389</v>
       </c>
       <c r="D134" t="s">
         <v>64</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" t="n">
-        <v>2255</v>
+        <v>1390</v>
       </c>
       <c r="B135" t="n">
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>2255</v>
+        <v>1390</v>
       </c>
       <c r="D135" t="s">
         <v>64</v>
@@ -5565,13 +5565,13 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" t="n">
-        <v>2256</v>
+        <v>1391</v>
       </c>
       <c r="B136" t="n">
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>2256</v>
+        <v>1391</v>
       </c>
       <c r="D136" t="s">
         <v>65</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" t="n">
-        <v>2257</v>
+        <v>1392</v>
       </c>
       <c r="B137" t="n">
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>2257</v>
+        <v>1392</v>
       </c>
       <c r="D137" t="s">
         <v>65</v>
@@ -5635,13 +5635,13 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" t="n">
-        <v>2258</v>
+        <v>1393</v>
       </c>
       <c r="B138" t="n">
         <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>2258</v>
+        <v>1393</v>
       </c>
       <c r="D138" t="s">
         <v>65</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="139" spans="1:27">
       <c r="A139" t="n">
-        <v>2259</v>
+        <v>1394</v>
       </c>
       <c r="B139" t="n">
         <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>2259</v>
+        <v>1394</v>
       </c>
       <c r="D139" t="s">
         <v>66</v>
@@ -5705,13 +5705,13 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" t="n">
-        <v>2260</v>
+        <v>1395</v>
       </c>
       <c r="B140" t="n">
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>2260</v>
+        <v>1395</v>
       </c>
       <c r="D140" t="s">
         <v>66</v>
@@ -5740,13 +5740,13 @@
     </row>
     <row r="141" spans="1:27">
       <c r="A141" t="n">
-        <v>2261</v>
+        <v>1396</v>
       </c>
       <c r="B141" t="n">
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>2261</v>
+        <v>1396</v>
       </c>
       <c r="D141" t="s">
         <v>67</v>
@@ -5775,13 +5775,13 @@
     </row>
     <row r="142" spans="1:27">
       <c r="A142" t="n">
-        <v>2262</v>
+        <v>1397</v>
       </c>
       <c r="B142" t="n">
         <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>2262</v>
+        <v>1397</v>
       </c>
       <c r="D142" t="s">
         <v>67</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="143" spans="1:27">
       <c r="A143" t="n">
-        <v>2263</v>
+        <v>1398</v>
       </c>
       <c r="B143" t="n">
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>2263</v>
+        <v>1398</v>
       </c>
       <c r="D143" t="s">
         <v>68</v>
@@ -5845,13 +5845,13 @@
     </row>
     <row r="144" spans="1:27">
       <c r="A144" t="n">
-        <v>2264</v>
+        <v>1399</v>
       </c>
       <c r="B144" t="n">
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>2264</v>
+        <v>1399</v>
       </c>
       <c r="D144" t="s">
         <v>68</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="145" spans="1:27">
       <c r="A145" t="n">
-        <v>2265</v>
+        <v>1400</v>
       </c>
       <c r="B145" t="n">
         <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>2265</v>
+        <v>1400</v>
       </c>
       <c r="D145" t="s">
         <v>69</v>
@@ -5915,13 +5915,13 @@
     </row>
     <row r="146" spans="1:27">
       <c r="A146" t="n">
-        <v>2266</v>
+        <v>1401</v>
       </c>
       <c r="B146" t="n">
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>2266</v>
+        <v>1401</v>
       </c>
       <c r="D146" t="s">
         <v>69</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="147" spans="1:27">
       <c r="A147" t="n">
-        <v>2267</v>
+        <v>1402</v>
       </c>
       <c r="B147" t="n">
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>2267</v>
+        <v>1402</v>
       </c>
       <c r="D147" t="s">
         <v>70</v>
@@ -5985,13 +5985,13 @@
     </row>
     <row r="148" spans="1:27">
       <c r="A148" t="n">
-        <v>2268</v>
+        <v>1403</v>
       </c>
       <c r="B148" t="n">
         <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>2268</v>
+        <v>1403</v>
       </c>
       <c r="D148" t="s">
         <v>70</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="149" spans="1:27">
       <c r="A149" t="n">
-        <v>2269</v>
+        <v>1404</v>
       </c>
       <c r="B149" t="n">
         <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>2269</v>
+        <v>1404</v>
       </c>
       <c r="D149" t="s">
         <v>71</v>
@@ -6055,13 +6055,13 @@
     </row>
     <row r="150" spans="1:27">
       <c r="A150" t="n">
-        <v>2270</v>
+        <v>1405</v>
       </c>
       <c r="B150" t="n">
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>2270</v>
+        <v>1405</v>
       </c>
       <c r="D150" t="s">
         <v>71</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="151" spans="1:27">
       <c r="A151" t="n">
-        <v>2271</v>
+        <v>1406</v>
       </c>
       <c r="B151" t="n">
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>2271</v>
+        <v>1406</v>
       </c>
       <c r="D151" t="s">
         <v>72</v>
@@ -6125,13 +6125,13 @@
     </row>
     <row r="152" spans="1:27">
       <c r="A152" t="n">
-        <v>2272</v>
+        <v>1407</v>
       </c>
       <c r="B152" t="n">
         <v>5</v>
       </c>
       <c r="C152" t="n">
-        <v>2272</v>
+        <v>1407</v>
       </c>
       <c r="D152" t="s">
         <v>72</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="153" spans="1:27">
       <c r="A153" t="n">
-        <v>2273</v>
+        <v>1408</v>
       </c>
       <c r="B153" t="n">
         <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>2273</v>
+        <v>1408</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
@@ -6195,13 +6195,13 @@
     </row>
     <row r="154" spans="1:27">
       <c r="A154" t="n">
-        <v>2274</v>
+        <v>1409</v>
       </c>
       <c r="B154" t="n">
         <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>2274</v>
+        <v>1409</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="155" spans="1:27">
       <c r="A155" t="n">
-        <v>2275</v>
+        <v>1410</v>
       </c>
       <c r="B155" t="n">
         <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>2275</v>
+        <v>1410</v>
       </c>
       <c r="D155" t="s">
         <v>74</v>
@@ -6265,13 +6265,13 @@
     </row>
     <row r="156" spans="1:27">
       <c r="A156" t="n">
-        <v>2276</v>
+        <v>1411</v>
       </c>
       <c r="B156" t="n">
         <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>2276</v>
+        <v>1411</v>
       </c>
       <c r="D156" t="s">
         <v>74</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="157" spans="1:27">
       <c r="A157" t="n">
-        <v>2277</v>
+        <v>1412</v>
       </c>
       <c r="B157" t="n">
         <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>2277</v>
+        <v>1412</v>
       </c>
       <c r="D157" t="s">
         <v>74</v>
@@ -6335,13 +6335,13 @@
     </row>
     <row r="158" spans="1:27">
       <c r="A158" t="n">
-        <v>2278</v>
+        <v>1413</v>
       </c>
       <c r="B158" t="n">
         <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>2278</v>
+        <v>1413</v>
       </c>
       <c r="D158" t="s">
         <v>75</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="159" spans="1:27">
       <c r="A159" t="n">
-        <v>2279</v>
+        <v>1414</v>
       </c>
       <c r="B159" t="n">
         <v>5</v>
       </c>
       <c r="C159" t="n">
-        <v>2279</v>
+        <v>1414</v>
       </c>
       <c r="D159" t="s">
         <v>75</v>
@@ -6405,13 +6405,13 @@
     </row>
     <row r="160" spans="1:27">
       <c r="A160" t="n">
-        <v>2280</v>
+        <v>1415</v>
       </c>
       <c r="B160" t="n">
         <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>2280</v>
+        <v>1415</v>
       </c>
       <c r="D160" t="s">
         <v>75</v>
@@ -6440,13 +6440,13 @@
     </row>
     <row r="161" spans="1:27">
       <c r="A161" t="n">
-        <v>2281</v>
+        <v>1416</v>
       </c>
       <c r="B161" t="n">
         <v>5</v>
       </c>
       <c r="C161" t="n">
-        <v>2281</v>
+        <v>1416</v>
       </c>
       <c r="D161" t="s">
         <v>75</v>
@@ -6475,13 +6475,13 @@
     </row>
     <row r="162" spans="1:27">
       <c r="A162" t="n">
-        <v>2282</v>
+        <v>1417</v>
       </c>
       <c r="B162" t="n">
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>2282</v>
+        <v>1417</v>
       </c>
       <c r="D162" t="s">
         <v>75</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="163" spans="1:27">
       <c r="A163" t="n">
-        <v>2283</v>
+        <v>1418</v>
       </c>
       <c r="B163" t="n">
         <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>2283</v>
+        <v>1418</v>
       </c>
       <c r="D163" t="s">
         <v>76</v>
@@ -6545,13 +6545,13 @@
     </row>
     <row r="164" spans="1:27">
       <c r="A164" t="n">
-        <v>2284</v>
+        <v>1419</v>
       </c>
       <c r="B164" t="n">
         <v>5</v>
       </c>
       <c r="C164" t="n">
-        <v>2284</v>
+        <v>1419</v>
       </c>
       <c r="D164" t="s">
         <v>76</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="165" spans="1:27">
       <c r="A165" t="n">
-        <v>2285</v>
+        <v>1420</v>
       </c>
       <c r="B165" t="n">
         <v>5</v>
       </c>
       <c r="C165" t="n">
-        <v>2285</v>
+        <v>1420</v>
       </c>
       <c r="D165" t="s">
         <v>76</v>
@@ -6615,13 +6615,13 @@
     </row>
     <row r="166" spans="1:27">
       <c r="A166" t="n">
-        <v>2286</v>
+        <v>1421</v>
       </c>
       <c r="B166" t="n">
         <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>2286</v>
+        <v>1421</v>
       </c>
       <c r="D166" t="s">
         <v>76</v>
@@ -6650,13 +6650,13 @@
     </row>
     <row r="167" spans="1:27">
       <c r="A167" t="n">
-        <v>2287</v>
+        <v>1422</v>
       </c>
       <c r="B167" t="n">
         <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>2287</v>
+        <v>1422</v>
       </c>
       <c r="D167" t="s">
         <v>76</v>
@@ -6685,13 +6685,13 @@
     </row>
     <row r="168" spans="1:27">
       <c r="A168" t="n">
-        <v>2288</v>
+        <v>1423</v>
       </c>
       <c r="B168" t="n">
         <v>5</v>
       </c>
       <c r="C168" t="n">
-        <v>2288</v>
+        <v>1423</v>
       </c>
       <c r="D168" t="s">
         <v>77</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="169" spans="1:27">
       <c r="A169" t="n">
-        <v>2289</v>
+        <v>1424</v>
       </c>
       <c r="B169" t="n">
         <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>2289</v>
+        <v>1424</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -6755,13 +6755,13 @@
     </row>
     <row r="170" spans="1:27">
       <c r="A170" t="n">
-        <v>2290</v>
+        <v>1425</v>
       </c>
       <c r="B170" t="n">
         <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>2290</v>
+        <v>1425</v>
       </c>
       <c r="D170" t="s">
         <v>78</v>
@@ -6790,13 +6790,13 @@
     </row>
     <row r="171" spans="1:27">
       <c r="A171" t="n">
-        <v>2291</v>
+        <v>1426</v>
       </c>
       <c r="B171" t="n">
         <v>5</v>
       </c>
       <c r="C171" t="n">
-        <v>2291</v>
+        <v>1426</v>
       </c>
       <c r="D171" t="s">
         <v>78</v>
@@ -6825,13 +6825,13 @@
     </row>
     <row r="172" spans="1:27">
       <c r="A172" t="n">
-        <v>2292</v>
+        <v>1427</v>
       </c>
       <c r="B172" t="n">
         <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>2292</v>
+        <v>1427</v>
       </c>
       <c r="D172" t="s">
         <v>78</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="173" spans="1:27">
       <c r="A173" t="n">
-        <v>2293</v>
+        <v>1428</v>
       </c>
       <c r="B173" t="n">
         <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>2293</v>
+        <v>1428</v>
       </c>
       <c r="D173" t="s">
         <v>79</v>
@@ -6895,13 +6895,13 @@
     </row>
     <row r="174" spans="1:27">
       <c r="A174" t="n">
-        <v>2294</v>
+        <v>1429</v>
       </c>
       <c r="B174" t="n">
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>2294</v>
+        <v>1429</v>
       </c>
       <c r="D174" t="s">
         <v>79</v>
@@ -6930,13 +6930,13 @@
     </row>
     <row r="175" spans="1:27">
       <c r="A175" t="n">
-        <v>2295</v>
+        <v>1430</v>
       </c>
       <c r="B175" t="n">
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>2295</v>
+        <v>1430</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -6965,13 +6965,13 @@
     </row>
     <row r="176" spans="1:27">
       <c r="A176" t="n">
-        <v>2296</v>
+        <v>1431</v>
       </c>
       <c r="B176" t="n">
         <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>2296</v>
+        <v>1431</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -7000,13 +7000,13 @@
     </row>
     <row r="177" spans="1:27">
       <c r="A177" t="n">
-        <v>2297</v>
+        <v>1432</v>
       </c>
       <c r="B177" t="n">
         <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>2297</v>
+        <v>1432</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -7035,13 +7035,13 @@
     </row>
     <row r="178" spans="1:27">
       <c r="A178" t="n">
-        <v>2298</v>
+        <v>1433</v>
       </c>
       <c r="B178" t="n">
         <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>2298</v>
+        <v>1433</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -7070,13 +7070,13 @@
     </row>
     <row r="179" spans="1:27">
       <c r="A179" t="n">
-        <v>2299</v>
+        <v>1434</v>
       </c>
       <c r="B179" t="n">
         <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>2299</v>
+        <v>1434</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -7105,13 +7105,13 @@
     </row>
     <row r="180" spans="1:27">
       <c r="A180" t="n">
-        <v>2300</v>
+        <v>1435</v>
       </c>
       <c r="B180" t="n">
         <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>2300</v>
+        <v>1435</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -7140,13 +7140,13 @@
     </row>
     <row r="181" spans="1:27">
       <c r="A181" t="n">
-        <v>2301</v>
+        <v>1436</v>
       </c>
       <c r="B181" t="n">
         <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>2301</v>
+        <v>1436</v>
       </c>
       <c r="D181" t="s">
         <v>81</v>
@@ -7175,13 +7175,13 @@
     </row>
     <row r="182" spans="1:27">
       <c r="A182" t="n">
-        <v>2302</v>
+        <v>1437</v>
       </c>
       <c r="B182" t="n">
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>2302</v>
+        <v>1437</v>
       </c>
       <c r="D182" t="s">
         <v>81</v>
@@ -7210,13 +7210,13 @@
     </row>
     <row r="183" spans="1:27">
       <c r="A183" t="n">
-        <v>2303</v>
+        <v>1438</v>
       </c>
       <c r="B183" t="n">
         <v>5</v>
       </c>
       <c r="C183" t="n">
-        <v>2303</v>
+        <v>1438</v>
       </c>
       <c r="D183" t="s">
         <v>81</v>
@@ -7245,13 +7245,13 @@
     </row>
     <row r="184" spans="1:27">
       <c r="A184" t="n">
-        <v>2304</v>
+        <v>1439</v>
       </c>
       <c r="B184" t="n">
         <v>5</v>
       </c>
       <c r="C184" t="n">
-        <v>2304</v>
+        <v>1439</v>
       </c>
       <c r="D184" t="s">
         <v>81</v>
@@ -7280,13 +7280,13 @@
     </row>
     <row r="185" spans="1:27">
       <c r="A185" t="n">
-        <v>2305</v>
+        <v>1440</v>
       </c>
       <c r="B185" t="n">
         <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>2305</v>
+        <v>1440</v>
       </c>
       <c r="D185" t="s">
         <v>81</v>
@@ -7315,13 +7315,13 @@
     </row>
     <row r="186" spans="1:27">
       <c r="A186" t="n">
-        <v>2306</v>
+        <v>1441</v>
       </c>
       <c r="B186" t="n">
         <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>2306</v>
+        <v>1441</v>
       </c>
       <c r="D186" t="s">
         <v>81</v>
@@ -7350,13 +7350,13 @@
     </row>
     <row r="187" spans="1:27">
       <c r="A187" t="n">
-        <v>2307</v>
+        <v>1442</v>
       </c>
       <c r="B187" t="n">
         <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>2307</v>
+        <v>1442</v>
       </c>
       <c r="D187" t="s">
         <v>82</v>
@@ -7385,13 +7385,13 @@
     </row>
     <row r="188" spans="1:27">
       <c r="A188" t="n">
-        <v>2308</v>
+        <v>1443</v>
       </c>
       <c r="B188" t="n">
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>2308</v>
+        <v>1443</v>
       </c>
       <c r="D188" t="s">
         <v>82</v>
@@ -7420,13 +7420,13 @@
     </row>
     <row r="189" spans="1:27">
       <c r="A189" t="n">
-        <v>2309</v>
+        <v>1444</v>
       </c>
       <c r="B189" t="n">
         <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>2309</v>
+        <v>1444</v>
       </c>
       <c r="D189" t="s">
         <v>83</v>
@@ -7455,13 +7455,13 @@
     </row>
     <row r="190" spans="1:27">
       <c r="A190" t="n">
-        <v>2310</v>
+        <v>1445</v>
       </c>
       <c r="B190" t="n">
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>2310</v>
+        <v>1445</v>
       </c>
       <c r="D190" t="s">
         <v>83</v>
@@ -7490,13 +7490,13 @@
     </row>
     <row r="191" spans="1:27">
       <c r="A191" t="n">
-        <v>2311</v>
+        <v>1446</v>
       </c>
       <c r="B191" t="n">
         <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>2311</v>
+        <v>1446</v>
       </c>
       <c r="D191" t="s">
         <v>83</v>
@@ -7525,13 +7525,13 @@
     </row>
     <row r="192" spans="1:27">
       <c r="A192" t="n">
-        <v>2312</v>
+        <v>1447</v>
       </c>
       <c r="B192" t="n">
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>2312</v>
+        <v>1447</v>
       </c>
       <c r="D192" t="s">
         <v>84</v>
@@ -7560,13 +7560,13 @@
     </row>
     <row r="193" spans="1:27">
       <c r="A193" t="n">
-        <v>2313</v>
+        <v>1448</v>
       </c>
       <c r="B193" t="n">
         <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>2313</v>
+        <v>1448</v>
       </c>
       <c r="D193" t="s">
         <v>84</v>
@@ -7595,13 +7595,13 @@
     </row>
     <row r="194" spans="1:27">
       <c r="A194" t="n">
-        <v>2314</v>
+        <v>1449</v>
       </c>
       <c r="B194" t="n">
         <v>5</v>
       </c>
       <c r="C194" t="n">
-        <v>2314</v>
+        <v>1449</v>
       </c>
       <c r="D194" t="s">
         <v>84</v>
@@ -7630,13 +7630,13 @@
     </row>
     <row r="195" spans="1:27">
       <c r="A195" t="n">
-        <v>2315</v>
+        <v>1450</v>
       </c>
       <c r="B195" t="n">
         <v>5</v>
       </c>
       <c r="C195" t="n">
-        <v>2315</v>
+        <v>1450</v>
       </c>
       <c r="D195" t="s">
         <v>85</v>
@@ -7665,13 +7665,13 @@
     </row>
     <row r="196" spans="1:27">
       <c r="A196" t="n">
-        <v>2316</v>
+        <v>1451</v>
       </c>
       <c r="B196" t="n">
         <v>5</v>
       </c>
       <c r="C196" t="n">
-        <v>2316</v>
+        <v>1451</v>
       </c>
       <c r="D196" t="s">
         <v>85</v>
@@ -7700,13 +7700,13 @@
     </row>
     <row r="197" spans="1:27">
       <c r="A197" t="n">
-        <v>2317</v>
+        <v>1452</v>
       </c>
       <c r="B197" t="n">
         <v>5</v>
       </c>
       <c r="C197" t="n">
-        <v>2317</v>
+        <v>1452</v>
       </c>
       <c r="D197" t="s">
         <v>85</v>
@@ -7735,13 +7735,13 @@
     </row>
     <row r="198" spans="1:27">
       <c r="A198" t="n">
-        <v>2318</v>
+        <v>1453</v>
       </c>
       <c r="B198" t="n">
         <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>2318</v>
+        <v>1453</v>
       </c>
       <c r="D198" t="s">
         <v>86</v>
@@ -7770,13 +7770,13 @@
     </row>
     <row r="199" spans="1:27">
       <c r="A199" t="n">
-        <v>2319</v>
+        <v>1454</v>
       </c>
       <c r="B199" t="n">
         <v>5</v>
       </c>
       <c r="C199" t="n">
-        <v>2319</v>
+        <v>1454</v>
       </c>
       <c r="D199" t="s">
         <v>86</v>
@@ -7805,13 +7805,13 @@
     </row>
     <row r="200" spans="1:27">
       <c r="A200" t="n">
-        <v>2320</v>
+        <v>1455</v>
       </c>
       <c r="B200" t="n">
         <v>5</v>
       </c>
       <c r="C200" t="n">
-        <v>2320</v>
+        <v>1455</v>
       </c>
       <c r="D200" t="s">
         <v>86</v>
@@ -7840,13 +7840,13 @@
     </row>
     <row r="201" spans="1:27">
       <c r="A201" t="n">
-        <v>2321</v>
+        <v>1456</v>
       </c>
       <c r="B201" t="n">
         <v>5</v>
       </c>
       <c r="C201" t="n">
-        <v>2321</v>
+        <v>1456</v>
       </c>
       <c r="D201" t="s">
         <v>87</v>
@@ -7875,13 +7875,13 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" t="n">
-        <v>2322</v>
+        <v>1457</v>
       </c>
       <c r="B202" t="n">
         <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>2322</v>
+        <v>1457</v>
       </c>
       <c r="D202" t="s">
         <v>87</v>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="203" spans="1:27">
       <c r="A203" t="n">
-        <v>2323</v>
+        <v>1458</v>
       </c>
       <c r="B203" t="n">
         <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>2323</v>
+        <v>1458</v>
       </c>
       <c r="D203" t="s">
         <v>87</v>
@@ -7945,13 +7945,13 @@
     </row>
     <row r="204" spans="1:27">
       <c r="A204" t="n">
-        <v>2324</v>
+        <v>1459</v>
       </c>
       <c r="B204" t="n">
         <v>5</v>
       </c>
       <c r="C204" t="n">
-        <v>2324</v>
+        <v>1459</v>
       </c>
       <c r="D204" t="s">
         <v>88</v>
@@ -7980,13 +7980,13 @@
     </row>
     <row r="205" spans="1:27">
       <c r="A205" t="n">
-        <v>2325</v>
+        <v>1460</v>
       </c>
       <c r="B205" t="n">
         <v>5</v>
       </c>
       <c r="C205" t="n">
-        <v>2325</v>
+        <v>1460</v>
       </c>
       <c r="D205" t="s">
         <v>88</v>
@@ -8015,13 +8015,13 @@
     </row>
     <row r="206" spans="1:27">
       <c r="A206" t="n">
-        <v>2326</v>
+        <v>1461</v>
       </c>
       <c r="B206" t="n">
         <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>2326</v>
+        <v>1461</v>
       </c>
       <c r="D206" t="s">
         <v>88</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="207" spans="1:27">
       <c r="A207" t="n">
-        <v>2327</v>
+        <v>1462</v>
       </c>
       <c r="B207" t="n">
         <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>2327</v>
+        <v>1462</v>
       </c>
       <c r="D207" t="s">
         <v>89</v>
@@ -8085,13 +8085,13 @@
     </row>
     <row r="208" spans="1:27">
       <c r="A208" t="n">
-        <v>2328</v>
+        <v>1463</v>
       </c>
       <c r="B208" t="n">
         <v>5</v>
       </c>
       <c r="C208" t="n">
-        <v>2328</v>
+        <v>1463</v>
       </c>
       <c r="D208" t="s">
         <v>89</v>
@@ -8120,13 +8120,13 @@
     </row>
     <row r="209" spans="1:27">
       <c r="A209" t="n">
-        <v>2329</v>
+        <v>1464</v>
       </c>
       <c r="B209" t="n">
         <v>5</v>
       </c>
       <c r="C209" t="n">
-        <v>2329</v>
+        <v>1464</v>
       </c>
       <c r="D209" t="s">
         <v>90</v>
@@ -8155,13 +8155,13 @@
     </row>
     <row r="210" spans="1:27">
       <c r="A210" t="n">
-        <v>2330</v>
+        <v>1465</v>
       </c>
       <c r="B210" t="n">
         <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>2330</v>
+        <v>1465</v>
       </c>
       <c r="D210" t="s">
         <v>90</v>
@@ -8190,13 +8190,13 @@
     </row>
     <row r="211" spans="1:27">
       <c r="A211" t="n">
-        <v>2331</v>
+        <v>1466</v>
       </c>
       <c r="B211" t="n">
         <v>5</v>
       </c>
       <c r="C211" t="n">
-        <v>2331</v>
+        <v>1466</v>
       </c>
       <c r="D211" t="s">
         <v>90</v>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="212" spans="1:27">
       <c r="A212" t="n">
-        <v>2332</v>
+        <v>1467</v>
       </c>
       <c r="B212" t="n">
         <v>5</v>
       </c>
       <c r="C212" t="n">
-        <v>2332</v>
+        <v>1467</v>
       </c>
       <c r="D212" t="s">
         <v>91</v>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="213" spans="1:27">
       <c r="A213" t="n">
-        <v>2333</v>
+        <v>1468</v>
       </c>
       <c r="B213" t="n">
         <v>5</v>
       </c>
       <c r="C213" t="n">
-        <v>2333</v>
+        <v>1468</v>
       </c>
       <c r="D213" t="s">
         <v>91</v>
@@ -8295,13 +8295,13 @@
     </row>
     <row r="214" spans="1:27">
       <c r="A214" t="n">
-        <v>2334</v>
+        <v>1469</v>
       </c>
       <c r="B214" t="n">
         <v>5</v>
       </c>
       <c r="C214" t="n">
-        <v>2334</v>
+        <v>1469</v>
       </c>
       <c r="D214" t="s">
         <v>91</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="215" spans="1:27">
       <c r="A215" t="n">
-        <v>2335</v>
+        <v>1470</v>
       </c>
       <c r="B215" t="n">
         <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>2335</v>
+        <v>1470</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
@@ -8365,13 +8365,13 @@
     </row>
     <row r="216" spans="1:27">
       <c r="A216" t="n">
-        <v>2336</v>
+        <v>1471</v>
       </c>
       <c r="B216" t="n">
         <v>5</v>
       </c>
       <c r="C216" t="n">
-        <v>2336</v>
+        <v>1471</v>
       </c>
       <c r="D216" t="s">
         <v>91</v>
@@ -8400,13 +8400,13 @@
     </row>
     <row r="217" spans="1:27">
       <c r="A217" t="n">
-        <v>2337</v>
+        <v>1472</v>
       </c>
       <c r="B217" t="n">
         <v>5</v>
       </c>
       <c r="C217" t="n">
-        <v>2337</v>
+        <v>1472</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -8435,13 +8435,13 @@
     </row>
     <row r="218" spans="1:27">
       <c r="A218" t="n">
-        <v>2338</v>
+        <v>1473</v>
       </c>
       <c r="B218" t="n">
         <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>2338</v>
+        <v>1473</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -8470,13 +8470,13 @@
     </row>
     <row r="219" spans="1:27">
       <c r="A219" t="n">
-        <v>2339</v>
+        <v>1474</v>
       </c>
       <c r="B219" t="n">
         <v>5</v>
       </c>
       <c r="C219" t="n">
-        <v>2339</v>
+        <v>1474</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -8505,13 +8505,13 @@
     </row>
     <row r="220" spans="1:27">
       <c r="A220" t="n">
-        <v>2340</v>
+        <v>1475</v>
       </c>
       <c r="B220" t="n">
         <v>5</v>
       </c>
       <c r="C220" t="n">
-        <v>2340</v>
+        <v>1475</v>
       </c>
       <c r="D220" t="s">
         <v>93</v>
@@ -8540,13 +8540,13 @@
     </row>
     <row r="221" spans="1:27">
       <c r="A221" t="n">
-        <v>2341</v>
+        <v>1476</v>
       </c>
       <c r="B221" t="n">
         <v>5</v>
       </c>
       <c r="C221" t="n">
-        <v>2341</v>
+        <v>1476</v>
       </c>
       <c r="D221" t="s">
         <v>93</v>
@@ -8575,13 +8575,13 @@
     </row>
     <row r="222" spans="1:27">
       <c r="A222" t="n">
-        <v>2342</v>
+        <v>1477</v>
       </c>
       <c r="B222" t="n">
         <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>2342</v>
+        <v>1477</v>
       </c>
       <c r="D222" t="s">
         <v>93</v>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="223" spans="1:27">
       <c r="A223" t="n">
-        <v>2343</v>
+        <v>1478</v>
       </c>
       <c r="B223" t="n">
         <v>5</v>
       </c>
       <c r="C223" t="n">
-        <v>2343</v>
+        <v>1478</v>
       </c>
       <c r="D223" t="s">
         <v>93</v>
@@ -8645,13 +8645,13 @@
     </row>
     <row r="224" spans="1:27">
       <c r="A224" t="n">
-        <v>2344</v>
+        <v>1479</v>
       </c>
       <c r="B224" t="n">
         <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>2344</v>
+        <v>1479</v>
       </c>
       <c r="D224" t="s">
         <v>94</v>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="225" spans="1:27">
       <c r="A225" t="n">
-        <v>2345</v>
+        <v>1480</v>
       </c>
       <c r="B225" t="n">
         <v>5</v>
       </c>
       <c r="C225" t="n">
-        <v>2345</v>
+        <v>1480</v>
       </c>
       <c r="D225" t="s">
         <v>94</v>
@@ -8715,13 +8715,13 @@
     </row>
     <row r="226" spans="1:27">
       <c r="A226" t="n">
-        <v>2346</v>
+        <v>1481</v>
       </c>
       <c r="B226" t="n">
         <v>5</v>
       </c>
       <c r="C226" t="n">
-        <v>2346</v>
+        <v>1481</v>
       </c>
       <c r="D226" t="s">
         <v>94</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="227" spans="1:27">
       <c r="A227" t="n">
-        <v>2347</v>
+        <v>1482</v>
       </c>
       <c r="B227" t="n">
         <v>5</v>
       </c>
       <c r="C227" t="n">
-        <v>2347</v>
+        <v>1482</v>
       </c>
       <c r="D227" t="s">
         <v>95</v>
@@ -8785,13 +8785,13 @@
     </row>
     <row r="228" spans="1:27">
       <c r="A228" t="n">
-        <v>2348</v>
+        <v>1483</v>
       </c>
       <c r="B228" t="n">
         <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>2348</v>
+        <v>1483</v>
       </c>
       <c r="D228" t="s">
         <v>95</v>
@@ -8820,13 +8820,13 @@
     </row>
     <row r="229" spans="1:27">
       <c r="A229" t="n">
-        <v>2349</v>
+        <v>1484</v>
       </c>
       <c r="B229" t="n">
         <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>2349</v>
+        <v>1484</v>
       </c>
       <c r="D229" t="s">
         <v>95</v>
@@ -8855,13 +8855,13 @@
     </row>
     <row r="230" spans="1:27">
       <c r="A230" t="n">
-        <v>2350</v>
+        <v>1485</v>
       </c>
       <c r="B230" t="n">
         <v>5</v>
       </c>
       <c r="C230" t="n">
-        <v>2350</v>
+        <v>1485</v>
       </c>
       <c r="D230" t="s">
         <v>95</v>
@@ -8890,13 +8890,13 @@
     </row>
     <row r="231" spans="1:27">
       <c r="A231" t="n">
-        <v>2351</v>
+        <v>1486</v>
       </c>
       <c r="B231" t="n">
         <v>5</v>
       </c>
       <c r="C231" t="n">
-        <v>2351</v>
+        <v>1486</v>
       </c>
       <c r="D231" t="s">
         <v>96</v>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="232" spans="1:27">
       <c r="A232" t="n">
-        <v>2352</v>
+        <v>1487</v>
       </c>
       <c r="B232" t="n">
         <v>5</v>
       </c>
       <c r="C232" t="n">
-        <v>2352</v>
+        <v>1487</v>
       </c>
       <c r="D232" t="s">
         <v>96</v>
@@ -8960,13 +8960,13 @@
     </row>
     <row r="233" spans="1:27">
       <c r="A233" t="n">
-        <v>2353</v>
+        <v>1488</v>
       </c>
       <c r="B233" t="n">
         <v>5</v>
       </c>
       <c r="C233" t="n">
-        <v>2353</v>
+        <v>1488</v>
       </c>
       <c r="D233" t="s">
         <v>96</v>
@@ -8995,13 +8995,13 @@
     </row>
     <row r="234" spans="1:27">
       <c r="A234" t="n">
-        <v>2354</v>
+        <v>1489</v>
       </c>
       <c r="B234" t="n">
         <v>5</v>
       </c>
       <c r="C234" t="n">
-        <v>2354</v>
+        <v>1489</v>
       </c>
       <c r="D234" t="s">
         <v>97</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="235" spans="1:27">
       <c r="A235" t="n">
-        <v>2355</v>
+        <v>1490</v>
       </c>
       <c r="B235" t="n">
         <v>5</v>
       </c>
       <c r="C235" t="n">
-        <v>2355</v>
+        <v>1490</v>
       </c>
       <c r="D235" t="s">
         <v>97</v>
@@ -9065,13 +9065,13 @@
     </row>
     <row r="236" spans="1:27">
       <c r="A236" t="n">
-        <v>2356</v>
+        <v>1491</v>
       </c>
       <c r="B236" t="n">
         <v>5</v>
       </c>
       <c r="C236" t="n">
-        <v>2356</v>
+        <v>1491</v>
       </c>
       <c r="D236" t="s">
         <v>98</v>
@@ -9100,13 +9100,13 @@
     </row>
     <row r="237" spans="1:27">
       <c r="A237" t="n">
-        <v>2357</v>
+        <v>1492</v>
       </c>
       <c r="B237" t="n">
         <v>5</v>
       </c>
       <c r="C237" t="n">
-        <v>2357</v>
+        <v>1492</v>
       </c>
       <c r="D237" t="s">
         <v>98</v>
@@ -9135,13 +9135,13 @@
     </row>
     <row r="238" spans="1:27">
       <c r="A238" t="n">
-        <v>2358</v>
+        <v>1493</v>
       </c>
       <c r="B238" t="n">
         <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>2358</v>
+        <v>1493</v>
       </c>
       <c r="D238" t="s">
         <v>98</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="239" spans="1:27">
       <c r="A239" t="n">
-        <v>2359</v>
+        <v>1494</v>
       </c>
       <c r="B239" t="n">
         <v>5</v>
       </c>
       <c r="C239" t="n">
-        <v>2359</v>
+        <v>1494</v>
       </c>
       <c r="D239" t="s">
         <v>98</v>
@@ -9205,13 +9205,13 @@
     </row>
     <row r="240" spans="1:27">
       <c r="A240" t="n">
-        <v>2360</v>
+        <v>1495</v>
       </c>
       <c r="B240" t="n">
         <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>2360</v>
+        <v>1495</v>
       </c>
       <c r="D240" t="s">
         <v>99</v>
@@ -9240,13 +9240,13 @@
     </row>
     <row r="241" spans="1:27">
       <c r="A241" t="n">
-        <v>2361</v>
+        <v>1496</v>
       </c>
       <c r="B241" t="n">
         <v>5</v>
       </c>
       <c r="C241" t="n">
-        <v>2361</v>
+        <v>1496</v>
       </c>
       <c r="D241" t="s">
         <v>99</v>
@@ -9275,13 +9275,13 @@
     </row>
     <row r="242" spans="1:27">
       <c r="A242" t="n">
-        <v>2362</v>
+        <v>1497</v>
       </c>
       <c r="B242" t="n">
         <v>5</v>
       </c>
       <c r="C242" t="n">
-        <v>2362</v>
+        <v>1497</v>
       </c>
       <c r="D242" t="s">
         <v>99</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="243" spans="1:27">
       <c r="A243" t="n">
-        <v>2363</v>
+        <v>1498</v>
       </c>
       <c r="B243" t="n">
         <v>5</v>
       </c>
       <c r="C243" t="n">
-        <v>2363</v>
+        <v>1498</v>
       </c>
       <c r="D243" t="s">
         <v>100</v>
@@ -9345,13 +9345,13 @@
     </row>
     <row r="244" spans="1:27">
       <c r="A244" t="n">
-        <v>2364</v>
+        <v>1499</v>
       </c>
       <c r="B244" t="n">
         <v>5</v>
       </c>
       <c r="C244" t="n">
-        <v>2364</v>
+        <v>1499</v>
       </c>
       <c r="D244" t="s">
         <v>100</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="245" spans="1:27">
       <c r="A245" t="n">
-        <v>2365</v>
+        <v>1500</v>
       </c>
       <c r="B245" t="n">
         <v>5</v>
       </c>
       <c r="C245" t="n">
-        <v>2365</v>
+        <v>1500</v>
       </c>
       <c r="D245" t="s">
         <v>101</v>
@@ -9415,13 +9415,13 @@
     </row>
     <row r="246" spans="1:27">
       <c r="A246" t="n">
-        <v>2366</v>
+        <v>1501</v>
       </c>
       <c r="B246" t="n">
         <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>2366</v>
+        <v>1501</v>
       </c>
       <c r="D246" t="s">
         <v>101</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="247" spans="1:27">
       <c r="A247" t="n">
-        <v>2367</v>
+        <v>1502</v>
       </c>
       <c r="B247" t="n">
         <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>2367</v>
+        <v>1502</v>
       </c>
       <c r="D247" t="s">
         <v>102</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="248" spans="1:27">
       <c r="A248" t="n">
-        <v>2368</v>
+        <v>1503</v>
       </c>
       <c r="B248" t="n">
         <v>5</v>
       </c>
       <c r="C248" t="n">
-        <v>2368</v>
+        <v>1503</v>
       </c>
       <c r="D248" t="s">
         <v>102</v>
@@ -9520,13 +9520,13 @@
     </row>
     <row r="249" spans="1:27">
       <c r="A249" t="n">
-        <v>2369</v>
+        <v>1504</v>
       </c>
       <c r="B249" t="n">
         <v>5</v>
       </c>
       <c r="C249" t="n">
-        <v>2369</v>
+        <v>1504</v>
       </c>
       <c r="D249" t="s">
         <v>103</v>
@@ -9555,13 +9555,13 @@
     </row>
     <row r="250" spans="1:27">
       <c r="A250" t="n">
-        <v>2370</v>
+        <v>1505</v>
       </c>
       <c r="B250" t="n">
         <v>5</v>
       </c>
       <c r="C250" t="n">
-        <v>2370</v>
+        <v>1505</v>
       </c>
       <c r="D250" t="s">
         <v>103</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="251" spans="1:27">
       <c r="A251" t="n">
-        <v>2371</v>
+        <v>1506</v>
       </c>
       <c r="B251" t="n">
         <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>2371</v>
+        <v>1506</v>
       </c>
       <c r="D251" t="s">
         <v>104</v>
@@ -9625,13 +9625,13 @@
     </row>
     <row r="252" spans="1:27">
       <c r="A252" t="n">
-        <v>2372</v>
+        <v>1507</v>
       </c>
       <c r="B252" t="n">
         <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v>2372</v>
+        <v>1507</v>
       </c>
       <c r="D252" t="s">
         <v>104</v>
@@ -9660,13 +9660,13 @@
     </row>
     <row r="253" spans="1:27">
       <c r="A253" t="n">
-        <v>2373</v>
+        <v>1508</v>
       </c>
       <c r="B253" t="n">
         <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>2373</v>
+        <v>1508</v>
       </c>
       <c r="D253" t="s">
         <v>104</v>
@@ -9695,13 +9695,13 @@
     </row>
     <row r="254" spans="1:27">
       <c r="A254" t="n">
-        <v>2374</v>
+        <v>1509</v>
       </c>
       <c r="B254" t="n">
         <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>2374</v>
+        <v>1509</v>
       </c>
       <c r="D254" t="s">
         <v>104</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="255" spans="1:27">
       <c r="A255" t="n">
-        <v>2375</v>
+        <v>1510</v>
       </c>
       <c r="B255" t="n">
         <v>5</v>
       </c>
       <c r="C255" t="n">
-        <v>2375</v>
+        <v>1510</v>
       </c>
       <c r="D255" t="s">
         <v>104</v>
@@ -9765,13 +9765,13 @@
     </row>
     <row r="256" spans="1:27">
       <c r="A256" t="n">
-        <v>2376</v>
+        <v>1511</v>
       </c>
       <c r="B256" t="n">
         <v>5</v>
       </c>
       <c r="C256" t="n">
-        <v>2376</v>
+        <v>1511</v>
       </c>
       <c r="D256" t="s">
         <v>104</v>
@@ -9800,13 +9800,13 @@
     </row>
     <row r="257" spans="1:27">
       <c r="A257" t="n">
-        <v>2377</v>
+        <v>1512</v>
       </c>
       <c r="B257" t="n">
         <v>5</v>
       </c>
       <c r="C257" t="n">
-        <v>2377</v>
+        <v>1512</v>
       </c>
       <c r="D257" t="s">
         <v>105</v>
@@ -9835,13 +9835,13 @@
     </row>
     <row r="258" spans="1:27">
       <c r="A258" t="n">
-        <v>2378</v>
+        <v>1513</v>
       </c>
       <c r="B258" t="n">
         <v>5</v>
       </c>
       <c r="C258" t="n">
-        <v>2378</v>
+        <v>1513</v>
       </c>
       <c r="D258" t="s">
         <v>105</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="259" spans="1:27">
       <c r="A259" t="n">
-        <v>2379</v>
+        <v>1514</v>
       </c>
       <c r="B259" t="n">
         <v>5</v>
       </c>
       <c r="C259" t="n">
-        <v>2379</v>
+        <v>1514</v>
       </c>
       <c r="D259" t="s">
         <v>106</v>
@@ -9905,13 +9905,13 @@
     </row>
     <row r="260" spans="1:27">
       <c r="A260" t="n">
-        <v>2380</v>
+        <v>1515</v>
       </c>
       <c r="B260" t="n">
         <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>2380</v>
+        <v>1515</v>
       </c>
       <c r="D260" t="s">
         <v>106</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="261" spans="1:27">
       <c r="A261" t="n">
-        <v>2381</v>
+        <v>1516</v>
       </c>
       <c r="B261" t="n">
         <v>5</v>
       </c>
       <c r="C261" t="n">
-        <v>2381</v>
+        <v>1516</v>
       </c>
       <c r="D261" t="s">
         <v>107</v>
@@ -9975,13 +9975,13 @@
     </row>
     <row r="262" spans="1:27">
       <c r="A262" t="n">
-        <v>2382</v>
+        <v>1517</v>
       </c>
       <c r="B262" t="n">
         <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>2382</v>
+        <v>1517</v>
       </c>
       <c r="D262" t="s">
         <v>107</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="263" spans="1:27">
       <c r="A263" t="n">
-        <v>2383</v>
+        <v>1518</v>
       </c>
       <c r="B263" t="n">
         <v>5</v>
       </c>
       <c r="C263" t="n">
-        <v>2383</v>
+        <v>1518</v>
       </c>
       <c r="D263" t="s">
         <v>107</v>
@@ -10045,13 +10045,13 @@
     </row>
     <row r="264" spans="1:27">
       <c r="A264" t="n">
-        <v>2384</v>
+        <v>1519</v>
       </c>
       <c r="B264" t="n">
         <v>5</v>
       </c>
       <c r="C264" t="n">
-        <v>2384</v>
+        <v>1519</v>
       </c>
       <c r="D264" t="s">
         <v>107</v>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="265" spans="1:27">
       <c r="A265" t="n">
-        <v>2385</v>
+        <v>1520</v>
       </c>
       <c r="B265" t="n">
         <v>5</v>
       </c>
       <c r="C265" t="n">
-        <v>2385</v>
+        <v>1520</v>
       </c>
       <c r="D265" t="s">
         <v>107</v>
@@ -10115,13 +10115,13 @@
     </row>
     <row r="266" spans="1:27">
       <c r="A266" t="n">
-        <v>2386</v>
+        <v>1521</v>
       </c>
       <c r="B266" t="n">
         <v>5</v>
       </c>
       <c r="C266" t="n">
-        <v>2386</v>
+        <v>1521</v>
       </c>
       <c r="D266" t="s">
         <v>108</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="267" spans="1:27">
       <c r="A267" t="n">
-        <v>2387</v>
+        <v>1522</v>
       </c>
       <c r="B267" t="n">
         <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>2387</v>
+        <v>1522</v>
       </c>
       <c r="D267" t="s">
         <v>108</v>
@@ -10185,13 +10185,13 @@
     </row>
     <row r="268" spans="1:27">
       <c r="A268" t="n">
-        <v>2388</v>
+        <v>1523</v>
       </c>
       <c r="B268" t="n">
         <v>5</v>
       </c>
       <c r="C268" t="n">
-        <v>2388</v>
+        <v>1523</v>
       </c>
       <c r="D268" t="s">
         <v>109</v>
@@ -10220,13 +10220,13 @@
     </row>
     <row r="269" spans="1:27">
       <c r="A269" t="n">
-        <v>2389</v>
+        <v>1524</v>
       </c>
       <c r="B269" t="n">
         <v>5</v>
       </c>
       <c r="C269" t="n">
-        <v>2389</v>
+        <v>1524</v>
       </c>
       <c r="D269" t="s">
         <v>109</v>
@@ -10255,13 +10255,13 @@
     </row>
     <row r="270" spans="1:27">
       <c r="A270" t="n">
-        <v>2390</v>
+        <v>1525</v>
       </c>
       <c r="B270" t="n">
         <v>5</v>
       </c>
       <c r="C270" t="n">
-        <v>2390</v>
+        <v>1525</v>
       </c>
       <c r="D270" t="s">
         <v>110</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="271" spans="1:27">
       <c r="A271" t="n">
-        <v>2391</v>
+        <v>1526</v>
       </c>
       <c r="B271" t="n">
         <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>2391</v>
+        <v>1526</v>
       </c>
       <c r="D271" t="s">
         <v>110</v>
@@ -10325,13 +10325,13 @@
     </row>
     <row r="272" spans="1:27">
       <c r="A272" t="n">
-        <v>2392</v>
+        <v>1527</v>
       </c>
       <c r="B272" t="n">
         <v>5</v>
       </c>
       <c r="C272" t="n">
-        <v>2392</v>
+        <v>1527</v>
       </c>
       <c r="D272" t="s">
         <v>110</v>
@@ -10360,13 +10360,13 @@
     </row>
     <row r="273" spans="1:27">
       <c r="A273" t="n">
-        <v>2393</v>
+        <v>1528</v>
       </c>
       <c r="B273" t="n">
         <v>5</v>
       </c>
       <c r="C273" t="n">
-        <v>2393</v>
+        <v>1528</v>
       </c>
       <c r="D273" t="s">
         <v>111</v>
@@ -10395,13 +10395,13 @@
     </row>
     <row r="274" spans="1:27">
       <c r="A274" t="n">
-        <v>2394</v>
+        <v>1529</v>
       </c>
       <c r="B274" t="n">
         <v>5</v>
       </c>
       <c r="C274" t="n">
-        <v>2394</v>
+        <v>1529</v>
       </c>
       <c r="D274" t="s">
         <v>111</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="275" spans="1:27">
       <c r="A275" t="n">
-        <v>2395</v>
+        <v>1530</v>
       </c>
       <c r="B275" t="n">
         <v>5</v>
       </c>
       <c r="C275" t="n">
-        <v>2395</v>
+        <v>1530</v>
       </c>
       <c r="D275" t="s">
         <v>112</v>
@@ -10465,13 +10465,13 @@
     </row>
     <row r="276" spans="1:27">
       <c r="A276" t="n">
-        <v>2396</v>
+        <v>1531</v>
       </c>
       <c r="B276" t="n">
         <v>5</v>
       </c>
       <c r="C276" t="n">
-        <v>2396</v>
+        <v>1531</v>
       </c>
       <c r="D276" t="s">
         <v>112</v>
@@ -10500,13 +10500,13 @@
     </row>
     <row r="277" spans="1:27">
       <c r="A277" t="n">
-        <v>2397</v>
+        <v>1532</v>
       </c>
       <c r="B277" t="n">
         <v>5</v>
       </c>
       <c r="C277" t="n">
-        <v>2397</v>
+        <v>1532</v>
       </c>
       <c r="D277" t="s">
         <v>113</v>
@@ -10535,13 +10535,13 @@
     </row>
     <row r="278" spans="1:27">
       <c r="A278" t="n">
-        <v>2398</v>
+        <v>1533</v>
       </c>
       <c r="B278" t="n">
         <v>5</v>
       </c>
       <c r="C278" t="n">
-        <v>2398</v>
+        <v>1533</v>
       </c>
       <c r="D278" t="s">
         <v>113</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="279" spans="1:27">
       <c r="A279" t="n">
-        <v>2399</v>
+        <v>1534</v>
       </c>
       <c r="B279" t="n">
         <v>5</v>
       </c>
       <c r="C279" t="n">
-        <v>2399</v>
+        <v>1534</v>
       </c>
       <c r="D279" t="s">
         <v>113</v>
@@ -10605,13 +10605,13 @@
     </row>
     <row r="280" spans="1:27">
       <c r="A280" t="n">
-        <v>2400</v>
+        <v>1535</v>
       </c>
       <c r="B280" t="n">
         <v>5</v>
       </c>
       <c r="C280" t="n">
-        <v>2400</v>
+        <v>1535</v>
       </c>
       <c r="D280" t="s">
         <v>114</v>
@@ -10640,13 +10640,13 @@
     </row>
     <row r="281" spans="1:27">
       <c r="A281" t="n">
-        <v>2401</v>
+        <v>1536</v>
       </c>
       <c r="B281" t="n">
         <v>5</v>
       </c>
       <c r="C281" t="n">
-        <v>2401</v>
+        <v>1536</v>
       </c>
       <c r="D281" t="s">
         <v>114</v>
@@ -10675,13 +10675,13 @@
     </row>
     <row r="282" spans="1:27">
       <c r="A282" t="n">
-        <v>2402</v>
+        <v>1537</v>
       </c>
       <c r="B282" t="n">
         <v>5</v>
       </c>
       <c r="C282" t="n">
-        <v>2402</v>
+        <v>1537</v>
       </c>
       <c r="D282" t="s">
         <v>114</v>
@@ -10710,13 +10710,13 @@
     </row>
     <row r="283" spans="1:27">
       <c r="A283" t="n">
-        <v>2403</v>
+        <v>1538</v>
       </c>
       <c r="B283" t="n">
         <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>2403</v>
+        <v>1538</v>
       </c>
       <c r="D283" t="s">
         <v>115</v>
@@ -10745,13 +10745,13 @@
     </row>
     <row r="284" spans="1:27">
       <c r="A284" t="n">
-        <v>2404</v>
+        <v>1539</v>
       </c>
       <c r="B284" t="n">
         <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>2404</v>
+        <v>1539</v>
       </c>
       <c r="D284" t="s">
         <v>115</v>
@@ -10780,13 +10780,13 @@
     </row>
     <row r="285" spans="1:27">
       <c r="A285" t="n">
-        <v>2405</v>
+        <v>1540</v>
       </c>
       <c r="B285" t="n">
         <v>5</v>
       </c>
       <c r="C285" t="n">
-        <v>2405</v>
+        <v>1540</v>
       </c>
       <c r="D285" t="s">
         <v>116</v>
@@ -10815,13 +10815,13 @@
     </row>
     <row r="286" spans="1:27">
       <c r="A286" t="n">
-        <v>2406</v>
+        <v>1541</v>
       </c>
       <c r="B286" t="n">
         <v>5</v>
       </c>
       <c r="C286" t="n">
-        <v>2406</v>
+        <v>1541</v>
       </c>
       <c r="D286" t="s">
         <v>116</v>
@@ -10850,13 +10850,13 @@
     </row>
     <row r="287" spans="1:27">
       <c r="A287" t="n">
-        <v>2407</v>
+        <v>1542</v>
       </c>
       <c r="B287" t="n">
         <v>5</v>
       </c>
       <c r="C287" t="n">
-        <v>2407</v>
+        <v>1542</v>
       </c>
       <c r="D287" t="s">
         <v>116</v>
@@ -10885,13 +10885,13 @@
     </row>
     <row r="288" spans="1:27">
       <c r="A288" t="n">
-        <v>2408</v>
+        <v>1543</v>
       </c>
       <c r="B288" t="n">
         <v>5</v>
       </c>
       <c r="C288" t="n">
-        <v>2408</v>
+        <v>1543</v>
       </c>
       <c r="D288" t="s">
         <v>116</v>
@@ -10920,13 +10920,13 @@
     </row>
     <row r="289" spans="1:27">
       <c r="A289" t="n">
-        <v>2409</v>
+        <v>1544</v>
       </c>
       <c r="B289" t="n">
         <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>2409</v>
+        <v>1544</v>
       </c>
       <c r="D289" t="s">
         <v>116</v>
@@ -10955,13 +10955,13 @@
     </row>
     <row r="290" spans="1:27">
       <c r="A290" t="n">
-        <v>2410</v>
+        <v>1545</v>
       </c>
       <c r="B290" t="n">
         <v>5</v>
       </c>
       <c r="C290" t="n">
-        <v>2410</v>
+        <v>1545</v>
       </c>
       <c r="D290" t="s">
         <v>117</v>
@@ -10990,13 +10990,13 @@
     </row>
     <row r="291" spans="1:27">
       <c r="A291" t="n">
-        <v>2411</v>
+        <v>1546</v>
       </c>
       <c r="B291" t="n">
         <v>5</v>
       </c>
       <c r="C291" t="n">
-        <v>2411</v>
+        <v>1546</v>
       </c>
       <c r="D291" t="s">
         <v>117</v>
@@ -11025,13 +11025,13 @@
     </row>
     <row r="292" spans="1:27">
       <c r="A292" t="n">
-        <v>2412</v>
+        <v>1547</v>
       </c>
       <c r="B292" t="n">
         <v>5</v>
       </c>
       <c r="C292" t="n">
-        <v>2412</v>
+        <v>1547</v>
       </c>
       <c r="D292" t="s">
         <v>118</v>
@@ -11060,13 +11060,13 @@
     </row>
     <row r="293" spans="1:27">
       <c r="A293" t="n">
-        <v>2413</v>
+        <v>1548</v>
       </c>
       <c r="B293" t="n">
         <v>5</v>
       </c>
       <c r="C293" t="n">
-        <v>2413</v>
+        <v>1548</v>
       </c>
       <c r="D293" t="s">
         <v>118</v>
@@ -11095,13 +11095,13 @@
     </row>
     <row r="294" spans="1:27">
       <c r="A294" t="n">
-        <v>2414</v>
+        <v>1549</v>
       </c>
       <c r="B294" t="n">
         <v>5</v>
       </c>
       <c r="C294" t="n">
-        <v>2414</v>
+        <v>1549</v>
       </c>
       <c r="D294" t="s">
         <v>119</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="295" spans="1:27">
       <c r="A295" t="n">
-        <v>2415</v>
+        <v>1550</v>
       </c>
       <c r="B295" t="n">
         <v>5</v>
       </c>
       <c r="C295" t="n">
-        <v>2415</v>
+        <v>1550</v>
       </c>
       <c r="D295" t="s">
         <v>119</v>
@@ -11165,13 +11165,13 @@
     </row>
     <row r="296" spans="1:27">
       <c r="A296" t="n">
-        <v>2416</v>
+        <v>1551</v>
       </c>
       <c r="B296" t="n">
         <v>5</v>
       </c>
       <c r="C296" t="n">
-        <v>2416</v>
+        <v>1551</v>
       </c>
       <c r="D296" t="s">
         <v>120</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="297" spans="1:27">
       <c r="A297" t="n">
-        <v>2417</v>
+        <v>1552</v>
       </c>
       <c r="B297" t="n">
         <v>5</v>
       </c>
       <c r="C297" t="n">
-        <v>2417</v>
+        <v>1552</v>
       </c>
       <c r="D297" t="s">
         <v>120</v>
@@ -11235,13 +11235,13 @@
     </row>
     <row r="298" spans="1:27">
       <c r="A298" t="n">
-        <v>2418</v>
+        <v>1553</v>
       </c>
       <c r="B298" t="n">
         <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>2418</v>
+        <v>1553</v>
       </c>
       <c r="D298" t="s">
         <v>120</v>
@@ -11270,13 +11270,13 @@
     </row>
     <row r="299" spans="1:27">
       <c r="A299" t="n">
-        <v>2419</v>
+        <v>1554</v>
       </c>
       <c r="B299" t="n">
         <v>5</v>
       </c>
       <c r="C299" t="n">
-        <v>2419</v>
+        <v>1554</v>
       </c>
       <c r="D299" t="s">
         <v>120</v>
@@ -11305,13 +11305,13 @@
     </row>
     <row r="300" spans="1:27">
       <c r="A300" t="n">
-        <v>2420</v>
+        <v>1555</v>
       </c>
       <c r="B300" t="n">
         <v>5</v>
       </c>
       <c r="C300" t="n">
-        <v>2420</v>
+        <v>1555</v>
       </c>
       <c r="D300" t="s">
         <v>120</v>
@@ -11340,13 +11340,13 @@
     </row>
     <row r="301" spans="1:27">
       <c r="A301" t="n">
-        <v>2421</v>
+        <v>1556</v>
       </c>
       <c r="B301" t="n">
         <v>5</v>
       </c>
       <c r="C301" t="n">
-        <v>2421</v>
+        <v>1556</v>
       </c>
       <c r="D301" t="s">
         <v>120</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="302" spans="1:27">
       <c r="A302" t="n">
-        <v>2422</v>
+        <v>1557</v>
       </c>
       <c r="B302" t="n">
         <v>5</v>
       </c>
       <c r="C302" t="n">
-        <v>2422</v>
+        <v>1557</v>
       </c>
       <c r="D302" t="s">
         <v>121</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="303" spans="1:27">
       <c r="A303" t="n">
-        <v>2423</v>
+        <v>1558</v>
       </c>
       <c r="B303" t="n">
         <v>5</v>
       </c>
       <c r="C303" t="n">
-        <v>2423</v>
+        <v>1558</v>
       </c>
       <c r="D303" t="s">
         <v>121</v>
@@ -11445,13 +11445,13 @@
     </row>
     <row r="304" spans="1:27">
       <c r="A304" t="n">
-        <v>2424</v>
+        <v>1559</v>
       </c>
       <c r="B304" t="n">
         <v>5</v>
       </c>
       <c r="C304" t="n">
-        <v>2424</v>
+        <v>1559</v>
       </c>
       <c r="D304" t="s">
         <v>121</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="305" spans="1:27">
       <c r="A305" t="n">
-        <v>2425</v>
+        <v>1560</v>
       </c>
       <c r="B305" t="n">
         <v>5</v>
       </c>
       <c r="C305" t="n">
-        <v>2425</v>
+        <v>1560</v>
       </c>
       <c r="D305" t="s">
         <v>122</v>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="306" spans="1:27">
       <c r="A306" t="n">
-        <v>2426</v>
+        <v>1561</v>
       </c>
       <c r="B306" t="n">
         <v>5</v>
       </c>
       <c r="C306" t="n">
-        <v>2426</v>
+        <v>1561</v>
       </c>
       <c r="D306" t="s">
         <v>122</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="307" spans="1:27">
       <c r="A307" t="n">
-        <v>2427</v>
+        <v>1562</v>
       </c>
       <c r="B307" t="n">
         <v>5</v>
       </c>
       <c r="C307" t="n">
-        <v>2427</v>
+        <v>1562</v>
       </c>
       <c r="D307" t="s">
         <v>123</v>
@@ -11585,13 +11585,13 @@
     </row>
     <row r="308" spans="1:27">
       <c r="A308" t="n">
-        <v>2428</v>
+        <v>1563</v>
       </c>
       <c r="B308" t="n">
         <v>5</v>
       </c>
       <c r="C308" t="n">
-        <v>2428</v>
+        <v>1563</v>
       </c>
       <c r="D308" t="s">
         <v>123</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="309" spans="1:27">
       <c r="A309" t="n">
-        <v>2429</v>
+        <v>1564</v>
       </c>
       <c r="B309" t="n">
         <v>5</v>
       </c>
       <c r="C309" t="n">
-        <v>2429</v>
+        <v>1564</v>
       </c>
       <c r="D309" t="s">
         <v>124</v>
@@ -11655,13 +11655,13 @@
     </row>
     <row r="310" spans="1:27">
       <c r="A310" t="n">
-        <v>2430</v>
+        <v>1565</v>
       </c>
       <c r="B310" t="n">
         <v>5</v>
       </c>
       <c r="C310" t="n">
-        <v>2430</v>
+        <v>1565</v>
       </c>
       <c r="D310" t="s">
         <v>124</v>
@@ -11690,13 +11690,13 @@
     </row>
     <row r="311" spans="1:27">
       <c r="A311" t="n">
-        <v>2431</v>
+        <v>1566</v>
       </c>
       <c r="B311" t="n">
         <v>5</v>
       </c>
       <c r="C311" t="n">
-        <v>2431</v>
+        <v>1566</v>
       </c>
       <c r="D311" t="s">
         <v>124</v>
@@ -11725,13 +11725,13 @@
     </row>
     <row r="312" spans="1:27">
       <c r="A312" t="n">
-        <v>2432</v>
+        <v>1567</v>
       </c>
       <c r="B312" t="n">
         <v>5</v>
       </c>
       <c r="C312" t="n">
-        <v>2432</v>
+        <v>1567</v>
       </c>
       <c r="D312" t="s">
         <v>125</v>
@@ -11760,13 +11760,13 @@
     </row>
     <row r="313" spans="1:27">
       <c r="A313" t="n">
-        <v>2433</v>
+        <v>1568</v>
       </c>
       <c r="B313" t="n">
         <v>5</v>
       </c>
       <c r="C313" t="n">
-        <v>2433</v>
+        <v>1568</v>
       </c>
       <c r="D313" t="s">
         <v>125</v>
@@ -11795,13 +11795,13 @@
     </row>
     <row r="314" spans="1:27">
       <c r="A314" t="n">
-        <v>2434</v>
+        <v>1569</v>
       </c>
       <c r="B314" t="n">
         <v>5</v>
       </c>
       <c r="C314" t="n">
-        <v>2434</v>
+        <v>1569</v>
       </c>
       <c r="D314" t="s">
         <v>126</v>
@@ -11830,13 +11830,13 @@
     </row>
     <row r="315" spans="1:27">
       <c r="A315" t="n">
-        <v>2435</v>
+        <v>1570</v>
       </c>
       <c r="B315" t="n">
         <v>5</v>
       </c>
       <c r="C315" t="n">
-        <v>2435</v>
+        <v>1570</v>
       </c>
       <c r="D315" t="s">
         <v>126</v>
@@ -11865,13 +11865,13 @@
     </row>
     <row r="316" spans="1:27">
       <c r="A316" t="n">
-        <v>2436</v>
+        <v>1571</v>
       </c>
       <c r="B316" t="n">
         <v>5</v>
       </c>
       <c r="C316" t="n">
-        <v>2436</v>
+        <v>1571</v>
       </c>
       <c r="D316" t="s">
         <v>127</v>
@@ -11900,13 +11900,13 @@
     </row>
     <row r="317" spans="1:27">
       <c r="A317" t="n">
-        <v>2437</v>
+        <v>1572</v>
       </c>
       <c r="B317" t="n">
         <v>5</v>
       </c>
       <c r="C317" t="n">
-        <v>2437</v>
+        <v>1572</v>
       </c>
       <c r="D317" t="s">
         <v>127</v>
@@ -11935,13 +11935,13 @@
     </row>
     <row r="318" spans="1:27">
       <c r="A318" t="n">
-        <v>2438</v>
+        <v>1573</v>
       </c>
       <c r="B318" t="n">
         <v>5</v>
       </c>
       <c r="C318" t="n">
-        <v>2438</v>
+        <v>1573</v>
       </c>
       <c r="D318" t="s">
         <v>128</v>
@@ -11970,13 +11970,13 @@
     </row>
     <row r="319" spans="1:27">
       <c r="A319" t="n">
-        <v>2439</v>
+        <v>1574</v>
       </c>
       <c r="B319" t="n">
         <v>5</v>
       </c>
       <c r="C319" t="n">
-        <v>2439</v>
+        <v>1574</v>
       </c>
       <c r="D319" t="s">
         <v>128</v>
@@ -12005,13 +12005,13 @@
     </row>
     <row r="320" spans="1:27">
       <c r="A320" t="n">
-        <v>2440</v>
+        <v>1575</v>
       </c>
       <c r="B320" t="n">
         <v>5</v>
       </c>
       <c r="C320" t="n">
-        <v>2440</v>
+        <v>1575</v>
       </c>
       <c r="D320" t="s">
         <v>128</v>
@@ -12040,13 +12040,13 @@
     </row>
     <row r="321" spans="1:27">
       <c r="A321" t="n">
-        <v>2441</v>
+        <v>1576</v>
       </c>
       <c r="B321" t="n">
         <v>5</v>
       </c>
       <c r="C321" t="n">
-        <v>2441</v>
+        <v>1576</v>
       </c>
       <c r="D321" t="s">
         <v>128</v>
@@ -12075,13 +12075,13 @@
     </row>
     <row r="322" spans="1:27">
       <c r="A322" t="n">
-        <v>2442</v>
+        <v>1577</v>
       </c>
       <c r="B322" t="n">
         <v>5</v>
       </c>
       <c r="C322" t="n">
-        <v>2442</v>
+        <v>1577</v>
       </c>
       <c r="D322" t="s">
         <v>128</v>
@@ -12110,13 +12110,13 @@
     </row>
     <row r="323" spans="1:27">
       <c r="A323" t="n">
-        <v>2443</v>
+        <v>1578</v>
       </c>
       <c r="B323" t="n">
         <v>5</v>
       </c>
       <c r="C323" t="n">
-        <v>2443</v>
+        <v>1578</v>
       </c>
       <c r="D323" t="s">
         <v>128</v>
@@ -12145,13 +12145,13 @@
     </row>
     <row r="324" spans="1:27">
       <c r="A324" t="n">
-        <v>2444</v>
+        <v>1579</v>
       </c>
       <c r="B324" t="n">
         <v>5</v>
       </c>
       <c r="C324" t="n">
-        <v>2444</v>
+        <v>1579</v>
       </c>
       <c r="D324" t="s">
         <v>128</v>
@@ -12180,13 +12180,13 @@
     </row>
     <row r="325" spans="1:27">
       <c r="A325" t="n">
-        <v>2445</v>
+        <v>1580</v>
       </c>
       <c r="B325" t="n">
         <v>5</v>
       </c>
       <c r="C325" t="n">
-        <v>2445</v>
+        <v>1580</v>
       </c>
       <c r="D325" t="s">
         <v>128</v>
@@ -12215,13 +12215,13 @@
     </row>
     <row r="326" spans="1:27">
       <c r="A326" t="n">
-        <v>2446</v>
+        <v>1581</v>
       </c>
       <c r="B326" t="n">
         <v>5</v>
       </c>
       <c r="C326" t="n">
-        <v>2446</v>
+        <v>1581</v>
       </c>
       <c r="D326" t="s">
         <v>128</v>
@@ -12250,13 +12250,13 @@
     </row>
     <row r="327" spans="1:27">
       <c r="A327" t="n">
-        <v>2447</v>
+        <v>1582</v>
       </c>
       <c r="B327" t="n">
         <v>5</v>
       </c>
       <c r="C327" t="n">
-        <v>2447</v>
+        <v>1582</v>
       </c>
       <c r="D327" t="s">
         <v>129</v>
@@ -12285,13 +12285,13 @@
     </row>
     <row r="328" spans="1:27">
       <c r="A328" t="n">
-        <v>2448</v>
+        <v>1583</v>
       </c>
       <c r="B328" t="n">
         <v>5</v>
       </c>
       <c r="C328" t="n">
-        <v>2448</v>
+        <v>1583</v>
       </c>
       <c r="D328" t="s">
         <v>129</v>
@@ -12320,13 +12320,13 @@
     </row>
     <row r="329" spans="1:27">
       <c r="A329" t="n">
-        <v>2449</v>
+        <v>1584</v>
       </c>
       <c r="B329" t="n">
         <v>5</v>
       </c>
       <c r="C329" t="n">
-        <v>2449</v>
+        <v>1584</v>
       </c>
       <c r="D329" t="s">
         <v>130</v>
@@ -12355,13 +12355,13 @@
     </row>
     <row r="330" spans="1:27">
       <c r="A330" t="n">
-        <v>2450</v>
+        <v>1585</v>
       </c>
       <c r="B330" t="n">
         <v>5</v>
       </c>
       <c r="C330" t="n">
-        <v>2450</v>
+        <v>1585</v>
       </c>
       <c r="D330" t="s">
         <v>130</v>
@@ -12390,13 +12390,13 @@
     </row>
     <row r="331" spans="1:27">
       <c r="A331" t="n">
-        <v>2451</v>
+        <v>1586</v>
       </c>
       <c r="B331" t="n">
         <v>5</v>
       </c>
       <c r="C331" t="n">
-        <v>2451</v>
+        <v>1586</v>
       </c>
       <c r="D331" t="s">
         <v>130</v>
@@ -12425,13 +12425,13 @@
     </row>
     <row r="332" spans="1:27">
       <c r="A332" t="n">
-        <v>2452</v>
+        <v>1587</v>
       </c>
       <c r="B332" t="n">
         <v>5</v>
       </c>
       <c r="C332" t="n">
-        <v>2452</v>
+        <v>1587</v>
       </c>
       <c r="D332" t="s">
         <v>131</v>
@@ -12460,13 +12460,13 @@
     </row>
     <row r="333" spans="1:27">
       <c r="A333" t="n">
-        <v>2453</v>
+        <v>1588</v>
       </c>
       <c r="B333" t="n">
         <v>5</v>
       </c>
       <c r="C333" t="n">
-        <v>2453</v>
+        <v>1588</v>
       </c>
       <c r="D333" t="s">
         <v>131</v>
@@ -12495,13 +12495,13 @@
     </row>
     <row r="334" spans="1:27">
       <c r="A334" t="n">
-        <v>2454</v>
+        <v>1589</v>
       </c>
       <c r="B334" t="n">
         <v>5</v>
       </c>
       <c r="C334" t="n">
-        <v>2454</v>
+        <v>1589</v>
       </c>
       <c r="D334" t="s">
         <v>132</v>
@@ -12530,13 +12530,13 @@
     </row>
     <row r="335" spans="1:27">
       <c r="A335" t="n">
-        <v>2455</v>
+        <v>1590</v>
       </c>
       <c r="B335" t="n">
         <v>5</v>
       </c>
       <c r="C335" t="n">
-        <v>2455</v>
+        <v>1590</v>
       </c>
       <c r="D335" t="s">
         <v>132</v>
@@ -12565,13 +12565,13 @@
     </row>
     <row r="336" spans="1:27">
       <c r="A336" t="n">
-        <v>2456</v>
+        <v>1591</v>
       </c>
       <c r="B336" t="n">
         <v>5</v>
       </c>
       <c r="C336" t="n">
-        <v>2456</v>
+        <v>1591</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
@@ -12600,13 +12600,13 @@
     </row>
     <row r="337" spans="1:27">
       <c r="A337" t="n">
-        <v>2457</v>
+        <v>1592</v>
       </c>
       <c r="B337" t="n">
         <v>5</v>
       </c>
       <c r="C337" t="n">
-        <v>2457</v>
+        <v>1592</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
@@ -12635,13 +12635,13 @@
     </row>
     <row r="338" spans="1:27">
       <c r="A338" t="n">
-        <v>2458</v>
+        <v>1593</v>
       </c>
       <c r="B338" t="n">
         <v>5</v>
       </c>
       <c r="C338" t="n">
-        <v>2458</v>
+        <v>1593</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
@@ -12670,13 +12670,13 @@
     </row>
     <row r="339" spans="1:27">
       <c r="A339" t="n">
-        <v>2459</v>
+        <v>1594</v>
       </c>
       <c r="B339" t="n">
         <v>5</v>
       </c>
       <c r="C339" t="n">
-        <v>2459</v>
+        <v>1594</v>
       </c>
       <c r="D339" t="s">
         <v>133</v>
@@ -12705,13 +12705,13 @@
     </row>
     <row r="340" spans="1:27">
       <c r="A340" t="n">
-        <v>2460</v>
+        <v>1595</v>
       </c>
       <c r="B340" t="n">
         <v>5</v>
       </c>
       <c r="C340" t="n">
-        <v>2460</v>
+        <v>1595</v>
       </c>
       <c r="D340" t="s">
         <v>133</v>
@@ -12740,13 +12740,13 @@
     </row>
     <row r="341" spans="1:27">
       <c r="A341" t="n">
-        <v>2461</v>
+        <v>1596</v>
       </c>
       <c r="B341" t="n">
         <v>5</v>
       </c>
       <c r="C341" t="n">
-        <v>2461</v>
+        <v>1596</v>
       </c>
       <c r="D341" t="s">
         <v>133</v>
@@ -12775,13 +12775,13 @@
     </row>
     <row r="342" spans="1:27">
       <c r="A342" t="n">
-        <v>2462</v>
+        <v>1597</v>
       </c>
       <c r="B342" t="n">
         <v>5</v>
       </c>
       <c r="C342" t="n">
-        <v>2462</v>
+        <v>1597</v>
       </c>
       <c r="D342" t="s">
         <v>133</v>
@@ -12810,13 +12810,13 @@
     </row>
     <row r="343" spans="1:27">
       <c r="A343" t="n">
-        <v>2463</v>
+        <v>1598</v>
       </c>
       <c r="B343" t="n">
         <v>5</v>
       </c>
       <c r="C343" t="n">
-        <v>2463</v>
+        <v>1598</v>
       </c>
       <c r="D343" t="s">
         <v>133</v>
@@ -12845,13 +12845,13 @@
     </row>
     <row r="344" spans="1:27">
       <c r="A344" t="n">
-        <v>2464</v>
+        <v>1599</v>
       </c>
       <c r="B344" t="n">
         <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>2464</v>
+        <v>1599</v>
       </c>
       <c r="D344" t="s">
         <v>133</v>
@@ -12880,13 +12880,13 @@
     </row>
     <row r="345" spans="1:27">
       <c r="A345" t="n">
-        <v>2465</v>
+        <v>1600</v>
       </c>
       <c r="B345" t="n">
         <v>5</v>
       </c>
       <c r="C345" t="n">
-        <v>2465</v>
+        <v>1600</v>
       </c>
       <c r="D345" t="s">
         <v>133</v>
@@ -12915,13 +12915,13 @@
     </row>
     <row r="346" spans="1:27">
       <c r="A346" t="n">
-        <v>2466</v>
+        <v>1601</v>
       </c>
       <c r="B346" t="n">
         <v>5</v>
       </c>
       <c r="C346" t="n">
-        <v>2466</v>
+        <v>1601</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
@@ -12950,13 +12950,13 @@
     </row>
     <row r="347" spans="1:27">
       <c r="A347" t="n">
-        <v>2467</v>
+        <v>1602</v>
       </c>
       <c r="B347" t="n">
         <v>5</v>
       </c>
       <c r="C347" t="n">
-        <v>2467</v>
+        <v>1602</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
@@ -12985,13 +12985,13 @@
     </row>
     <row r="348" spans="1:27">
       <c r="A348" t="n">
-        <v>2468</v>
+        <v>1603</v>
       </c>
       <c r="B348" t="n">
         <v>5</v>
       </c>
       <c r="C348" t="n">
-        <v>2468</v>
+        <v>1603</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="349" spans="1:27">
       <c r="A349" t="n">
-        <v>2469</v>
+        <v>1604</v>
       </c>
       <c r="B349" t="n">
         <v>5</v>
       </c>
       <c r="C349" t="n">
-        <v>2469</v>
+        <v>1604</v>
       </c>
       <c r="D349" t="s">
         <v>134</v>
@@ -13055,13 +13055,13 @@
     </row>
     <row r="350" spans="1:27">
       <c r="A350" t="n">
-        <v>2470</v>
+        <v>1605</v>
       </c>
       <c r="B350" t="n">
         <v>5</v>
       </c>
       <c r="C350" t="n">
-        <v>2470</v>
+        <v>1605</v>
       </c>
       <c r="D350" t="s">
         <v>134</v>
@@ -13090,13 +13090,13 @@
     </row>
     <row r="351" spans="1:27">
       <c r="A351" t="n">
-        <v>2471</v>
+        <v>1606</v>
       </c>
       <c r="B351" t="n">
         <v>5</v>
       </c>
       <c r="C351" t="n">
-        <v>2471</v>
+        <v>1606</v>
       </c>
       <c r="D351" t="s">
         <v>134</v>
@@ -13125,13 +13125,13 @@
     </row>
     <row r="352" spans="1:27">
       <c r="A352" t="n">
-        <v>2472</v>
+        <v>1607</v>
       </c>
       <c r="B352" t="n">
         <v>5</v>
       </c>
       <c r="C352" t="n">
-        <v>2472</v>
+        <v>1607</v>
       </c>
       <c r="D352" t="s">
         <v>134</v>
@@ -13160,13 +13160,13 @@
     </row>
     <row r="353" spans="1:27">
       <c r="A353" t="n">
-        <v>2473</v>
+        <v>1608</v>
       </c>
       <c r="B353" t="n">
         <v>5</v>
       </c>
       <c r="C353" t="n">
-        <v>2473</v>
+        <v>1608</v>
       </c>
       <c r="D353" t="s">
         <v>134</v>
@@ -13195,13 +13195,13 @@
     </row>
     <row r="354" spans="1:27">
       <c r="A354" t="n">
-        <v>2474</v>
+        <v>1609</v>
       </c>
       <c r="B354" t="n">
         <v>5</v>
       </c>
       <c r="C354" t="n">
-        <v>2474</v>
+        <v>1609</v>
       </c>
       <c r="D354" t="s">
         <v>134</v>
@@ -13230,13 +13230,13 @@
     </row>
     <row r="355" spans="1:27">
       <c r="A355" t="n">
-        <v>2475</v>
+        <v>1610</v>
       </c>
       <c r="B355" t="n">
         <v>5</v>
       </c>
       <c r="C355" t="n">
-        <v>2475</v>
+        <v>1610</v>
       </c>
       <c r="D355" t="s">
         <v>134</v>
@@ -13265,13 +13265,13 @@
     </row>
     <row r="356" spans="1:27">
       <c r="A356" t="n">
-        <v>2476</v>
+        <v>1611</v>
       </c>
       <c r="B356" t="n">
         <v>5</v>
       </c>
       <c r="C356" t="n">
-        <v>2476</v>
+        <v>1611</v>
       </c>
       <c r="D356" t="s">
         <v>135</v>
@@ -13300,13 +13300,13 @@
     </row>
     <row r="357" spans="1:27">
       <c r="A357" t="n">
-        <v>2477</v>
+        <v>1612</v>
       </c>
       <c r="B357" t="n">
         <v>5</v>
       </c>
       <c r="C357" t="n">
-        <v>2477</v>
+        <v>1612</v>
       </c>
       <c r="D357" t="s">
         <v>135</v>
@@ -13335,13 +13335,13 @@
     </row>
     <row r="358" spans="1:27">
       <c r="A358" t="n">
-        <v>2478</v>
+        <v>1613</v>
       </c>
       <c r="B358" t="n">
         <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>2478</v>
+        <v>1613</v>
       </c>
       <c r="D358" t="s">
         <v>136</v>
@@ -13370,13 +13370,13 @@
     </row>
     <row r="359" spans="1:27">
       <c r="A359" t="n">
-        <v>2479</v>
+        <v>1614</v>
       </c>
       <c r="B359" t="n">
         <v>5</v>
       </c>
       <c r="C359" t="n">
-        <v>2479</v>
+        <v>1614</v>
       </c>
       <c r="D359" t="s">
         <v>136</v>
@@ -13405,13 +13405,13 @@
     </row>
     <row r="360" spans="1:27">
       <c r="A360" t="n">
-        <v>2480</v>
+        <v>1615</v>
       </c>
       <c r="B360" t="n">
         <v>5</v>
       </c>
       <c r="C360" t="n">
-        <v>2480</v>
+        <v>1615</v>
       </c>
       <c r="D360" t="s">
         <v>136</v>
@@ -13440,13 +13440,13 @@
     </row>
     <row r="361" spans="1:27">
       <c r="A361" t="n">
-        <v>2481</v>
+        <v>1616</v>
       </c>
       <c r="B361" t="n">
         <v>5</v>
       </c>
       <c r="C361" t="n">
-        <v>2481</v>
+        <v>1616</v>
       </c>
       <c r="D361" t="s">
         <v>137</v>
@@ -13475,13 +13475,13 @@
     </row>
     <row r="362" spans="1:27">
       <c r="A362" t="n">
-        <v>2482</v>
+        <v>1617</v>
       </c>
       <c r="B362" t="n">
         <v>5</v>
       </c>
       <c r="C362" t="n">
-        <v>2482</v>
+        <v>1617</v>
       </c>
       <c r="D362" t="s">
         <v>137</v>
@@ -13510,13 +13510,13 @@
     </row>
     <row r="363" spans="1:27">
       <c r="A363" t="n">
-        <v>2483</v>
+        <v>1618</v>
       </c>
       <c r="B363" t="n">
         <v>5</v>
       </c>
       <c r="C363" t="n">
-        <v>2483</v>
+        <v>1618</v>
       </c>
       <c r="D363" t="s">
         <v>138</v>
@@ -13545,13 +13545,13 @@
     </row>
     <row r="364" spans="1:27">
       <c r="A364" t="n">
-        <v>2484</v>
+        <v>1619</v>
       </c>
       <c r="B364" t="n">
         <v>5</v>
       </c>
       <c r="C364" t="n">
-        <v>2484</v>
+        <v>1619</v>
       </c>
       <c r="D364" t="s">
         <v>138</v>
@@ -13580,13 +13580,13 @@
     </row>
     <row r="365" spans="1:27">
       <c r="A365" t="n">
-        <v>2485</v>
+        <v>1620</v>
       </c>
       <c r="B365" t="n">
         <v>5</v>
       </c>
       <c r="C365" t="n">
-        <v>2485</v>
+        <v>1620</v>
       </c>
       <c r="D365" t="s">
         <v>138</v>
@@ -13615,13 +13615,13 @@
     </row>
     <row r="366" spans="1:27">
       <c r="A366" t="n">
-        <v>2486</v>
+        <v>1621</v>
       </c>
       <c r="B366" t="n">
         <v>5</v>
       </c>
       <c r="C366" t="n">
-        <v>2486</v>
+        <v>1621</v>
       </c>
       <c r="D366" t="s">
         <v>138</v>
@@ -13650,13 +13650,13 @@
     </row>
     <row r="367" spans="1:27">
       <c r="A367" t="n">
-        <v>2487</v>
+        <v>1622</v>
       </c>
       <c r="B367" t="n">
         <v>5</v>
       </c>
       <c r="C367" t="n">
-        <v>2487</v>
+        <v>1622</v>
       </c>
       <c r="D367" t="s">
         <v>138</v>
@@ -13685,13 +13685,13 @@
     </row>
     <row r="368" spans="1:27">
       <c r="A368" t="n">
-        <v>2488</v>
+        <v>1623</v>
       </c>
       <c r="B368" t="n">
         <v>5</v>
       </c>
       <c r="C368" t="n">
-        <v>2488</v>
+        <v>1623</v>
       </c>
       <c r="D368" t="s">
         <v>138</v>
@@ -13720,13 +13720,13 @@
     </row>
     <row r="369" spans="1:27">
       <c r="A369" t="n">
-        <v>2489</v>
+        <v>1624</v>
       </c>
       <c r="B369" t="n">
         <v>5</v>
       </c>
       <c r="C369" t="n">
-        <v>2489</v>
+        <v>1624</v>
       </c>
       <c r="D369" t="s">
         <v>138</v>
@@ -13755,13 +13755,13 @@
     </row>
     <row r="370" spans="1:27">
       <c r="A370" t="n">
-        <v>2490</v>
+        <v>1625</v>
       </c>
       <c r="B370" t="n">
         <v>5</v>
       </c>
       <c r="C370" t="n">
-        <v>2490</v>
+        <v>1625</v>
       </c>
       <c r="D370" t="s">
         <v>138</v>
@@ -13790,13 +13790,13 @@
     </row>
     <row r="371" spans="1:27">
       <c r="A371" t="n">
-        <v>2491</v>
+        <v>1626</v>
       </c>
       <c r="B371" t="n">
         <v>5</v>
       </c>
       <c r="C371" t="n">
-        <v>2491</v>
+        <v>1626</v>
       </c>
       <c r="D371" t="s">
         <v>139</v>
@@ -13825,13 +13825,13 @@
     </row>
     <row r="372" spans="1:27">
       <c r="A372" t="n">
-        <v>2492</v>
+        <v>1627</v>
       </c>
       <c r="B372" t="n">
         <v>5</v>
       </c>
       <c r="C372" t="n">
-        <v>2492</v>
+        <v>1627</v>
       </c>
       <c r="D372" t="s">
         <v>139</v>
@@ -13860,13 +13860,13 @@
     </row>
     <row r="373" spans="1:27">
       <c r="A373" t="n">
-        <v>2493</v>
+        <v>1628</v>
       </c>
       <c r="B373" t="n">
         <v>5</v>
       </c>
       <c r="C373" t="n">
-        <v>2493</v>
+        <v>1628</v>
       </c>
       <c r="D373" t="s">
         <v>140</v>
@@ -13895,13 +13895,13 @@
     </row>
     <row r="374" spans="1:27">
       <c r="A374" t="n">
-        <v>2494</v>
+        <v>1629</v>
       </c>
       <c r="B374" t="n">
         <v>5</v>
       </c>
       <c r="C374" t="n">
-        <v>2494</v>
+        <v>1629</v>
       </c>
       <c r="D374" t="s">
         <v>140</v>
@@ -13930,13 +13930,13 @@
     </row>
     <row r="375" spans="1:27">
       <c r="A375" t="n">
-        <v>2495</v>
+        <v>1630</v>
       </c>
       <c r="B375" t="n">
         <v>5</v>
       </c>
       <c r="C375" t="n">
-        <v>2495</v>
+        <v>1630</v>
       </c>
       <c r="D375" t="s">
         <v>140</v>
@@ -13965,13 +13965,13 @@
     </row>
     <row r="376" spans="1:27">
       <c r="A376" t="n">
-        <v>2496</v>
+        <v>1631</v>
       </c>
       <c r="B376" t="n">
         <v>5</v>
       </c>
       <c r="C376" t="n">
-        <v>2496</v>
+        <v>1631</v>
       </c>
       <c r="D376" t="s">
         <v>141</v>
@@ -14000,13 +14000,13 @@
     </row>
     <row r="377" spans="1:27">
       <c r="A377" t="n">
-        <v>2497</v>
+        <v>1632</v>
       </c>
       <c r="B377" t="n">
         <v>5</v>
       </c>
       <c r="C377" t="n">
-        <v>2497</v>
+        <v>1632</v>
       </c>
       <c r="D377" t="s">
         <v>141</v>
@@ -14035,13 +14035,13 @@
     </row>
     <row r="378" spans="1:27">
       <c r="A378" t="n">
-        <v>2498</v>
+        <v>1633</v>
       </c>
       <c r="B378" t="n">
         <v>5</v>
       </c>
       <c r="C378" t="n">
-        <v>2498</v>
+        <v>1633</v>
       </c>
       <c r="D378" t="s">
         <v>142</v>
@@ -14070,13 +14070,13 @@
     </row>
     <row r="379" spans="1:27">
       <c r="A379" t="n">
-        <v>2499</v>
+        <v>1634</v>
       </c>
       <c r="B379" t="n">
         <v>5</v>
       </c>
       <c r="C379" t="n">
-        <v>2499</v>
+        <v>1634</v>
       </c>
       <c r="D379" t="s">
         <v>142</v>
@@ -14105,13 +14105,13 @@
     </row>
     <row r="380" spans="1:27">
       <c r="A380" t="n">
-        <v>2500</v>
+        <v>1635</v>
       </c>
       <c r="B380" t="n">
         <v>5</v>
       </c>
       <c r="C380" t="n">
-        <v>2500</v>
+        <v>1635</v>
       </c>
       <c r="D380" t="s">
         <v>142</v>
@@ -14140,13 +14140,13 @@
     </row>
     <row r="381" spans="1:27">
       <c r="A381" t="n">
-        <v>2501</v>
+        <v>1636</v>
       </c>
       <c r="B381" t="n">
         <v>5</v>
       </c>
       <c r="C381" t="n">
-        <v>2501</v>
+        <v>1636</v>
       </c>
       <c r="D381" t="s">
         <v>142</v>
@@ -14175,13 +14175,13 @@
     </row>
     <row r="382" spans="1:27">
       <c r="A382" t="n">
-        <v>2502</v>
+        <v>1637</v>
       </c>
       <c r="B382" t="n">
         <v>5</v>
       </c>
       <c r="C382" t="n">
-        <v>2502</v>
+        <v>1637</v>
       </c>
       <c r="D382" t="s">
         <v>142</v>
@@ -14210,13 +14210,13 @@
     </row>
     <row r="383" spans="1:27">
       <c r="A383" t="n">
-        <v>2503</v>
+        <v>1638</v>
       </c>
       <c r="B383" t="n">
         <v>5</v>
       </c>
       <c r="C383" t="n">
-        <v>2503</v>
+        <v>1638</v>
       </c>
       <c r="D383" t="s">
         <v>142</v>
@@ -14245,13 +14245,13 @@
     </row>
     <row r="384" spans="1:27">
       <c r="A384" t="n">
-        <v>2504</v>
+        <v>1639</v>
       </c>
       <c r="B384" t="n">
         <v>5</v>
       </c>
       <c r="C384" t="n">
-        <v>2504</v>
+        <v>1639</v>
       </c>
       <c r="D384" t="s">
         <v>142</v>
@@ -14280,13 +14280,13 @@
     </row>
     <row r="385" spans="1:27">
       <c r="A385" t="n">
-        <v>2505</v>
+        <v>1640</v>
       </c>
       <c r="B385" t="n">
         <v>5</v>
       </c>
       <c r="C385" t="n">
-        <v>2505</v>
+        <v>1640</v>
       </c>
       <c r="D385" t="s">
         <v>142</v>
@@ -14315,13 +14315,13 @@
     </row>
     <row r="386" spans="1:27">
       <c r="A386" t="n">
-        <v>2506</v>
+        <v>1641</v>
       </c>
       <c r="B386" t="n">
         <v>5</v>
       </c>
       <c r="C386" t="n">
-        <v>2506</v>
+        <v>1641</v>
       </c>
       <c r="D386" t="s">
         <v>142</v>
@@ -14350,13 +14350,13 @@
     </row>
     <row r="387" spans="1:27">
       <c r="A387" t="n">
-        <v>2507</v>
+        <v>1642</v>
       </c>
       <c r="B387" t="n">
         <v>5</v>
       </c>
       <c r="C387" t="n">
-        <v>2507</v>
+        <v>1642</v>
       </c>
       <c r="D387" t="s">
         <v>142</v>
@@ -14385,13 +14385,13 @@
     </row>
     <row r="388" spans="1:27">
       <c r="A388" t="n">
-        <v>2508</v>
+        <v>1643</v>
       </c>
       <c r="B388" t="n">
         <v>5</v>
       </c>
       <c r="C388" t="n">
-        <v>2508</v>
+        <v>1643</v>
       </c>
       <c r="D388" t="s">
         <v>142</v>
@@ -14420,13 +14420,13 @@
     </row>
     <row r="389" spans="1:27">
       <c r="A389" t="n">
-        <v>2509</v>
+        <v>1644</v>
       </c>
       <c r="B389" t="n">
         <v>5</v>
       </c>
       <c r="C389" t="n">
-        <v>2509</v>
+        <v>1644</v>
       </c>
       <c r="D389" t="s">
         <v>142</v>
@@ -14455,13 +14455,13 @@
     </row>
     <row r="390" spans="1:27">
       <c r="A390" t="n">
-        <v>2510</v>
+        <v>1645</v>
       </c>
       <c r="B390" t="n">
         <v>5</v>
       </c>
       <c r="C390" t="n">
-        <v>2510</v>
+        <v>1645</v>
       </c>
       <c r="D390" t="s">
         <v>142</v>
@@ -14490,13 +14490,13 @@
     </row>
     <row r="391" spans="1:27">
       <c r="A391" t="n">
-        <v>2511</v>
+        <v>1646</v>
       </c>
       <c r="B391" t="n">
         <v>5</v>
       </c>
       <c r="C391" t="n">
-        <v>2511</v>
+        <v>1646</v>
       </c>
       <c r="D391" t="s">
         <v>142</v>
@@ -14525,13 +14525,13 @@
     </row>
     <row r="392" spans="1:27">
       <c r="A392" t="n">
-        <v>2512</v>
+        <v>1647</v>
       </c>
       <c r="B392" t="n">
         <v>5</v>
       </c>
       <c r="C392" t="n">
-        <v>2512</v>
+        <v>1647</v>
       </c>
       <c r="D392" t="s">
         <v>142</v>
@@ -14560,13 +14560,13 @@
     </row>
     <row r="393" spans="1:27">
       <c r="A393" t="n">
-        <v>2513</v>
+        <v>1648</v>
       </c>
       <c r="B393" t="n">
         <v>5</v>
       </c>
       <c r="C393" t="n">
-        <v>2513</v>
+        <v>1648</v>
       </c>
       <c r="D393" t="s">
         <v>142</v>
@@ -14595,13 +14595,13 @@
     </row>
     <row r="394" spans="1:27">
       <c r="A394" t="n">
-        <v>2514</v>
+        <v>1649</v>
       </c>
       <c r="B394" t="n">
         <v>5</v>
       </c>
       <c r="C394" t="n">
-        <v>2514</v>
+        <v>1649</v>
       </c>
       <c r="D394" t="s">
         <v>142</v>
@@ -14630,13 +14630,13 @@
     </row>
     <row r="395" spans="1:27">
       <c r="A395" t="n">
-        <v>2515</v>
+        <v>1650</v>
       </c>
       <c r="B395" t="n">
         <v>5</v>
       </c>
       <c r="C395" t="n">
-        <v>2515</v>
+        <v>1650</v>
       </c>
       <c r="D395" t="s">
         <v>142</v>
